--- a/02 職務経歴書/スキルシート.xlsx
+++ b/02 職務経歴書/スキルシート.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27421"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{29A0AC89-F34F-4711-97CA-8C4AAC96C49F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9486EDC-098B-4E22-B012-41EDE9A04B3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="21420" yWindow="-16455" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -625,7 +625,7 @@
     <numFmt numFmtId="176" formatCode="yyyy&quot;年&quot;m&quot;月&quot;;@"/>
     <numFmt numFmtId="177" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
-  <fonts count="14">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1017,40 +1017,127 @@
     <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="177" fontId="10" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1059,100 +1146,13 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="177" fontId="10" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1437,38 +1437,38 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K84"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A72" workbookViewId="0">
-      <selection activeCell="A79" sqref="A79:K84"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12"/>
+  <sheetFormatPr defaultColWidth="8.73046875" defaultRowHeight="12" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11" style="19" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.75" style="19"/>
-    <col min="3" max="3" width="45.125" style="19" customWidth="1"/>
-    <col min="4" max="4" width="11.125" style="19" customWidth="1"/>
-    <col min="5" max="11" width="3.75" style="19" customWidth="1"/>
-    <col min="12" max="12" width="14.125" style="19" customWidth="1"/>
-    <col min="13" max="16384" width="8.75" style="19"/>
+    <col min="2" max="2" width="8.73046875" style="19"/>
+    <col min="3" max="3" width="45.1328125" style="19" customWidth="1"/>
+    <col min="4" max="4" width="11.1328125" style="19" customWidth="1"/>
+    <col min="5" max="11" width="3.73046875" style="19" customWidth="1"/>
+    <col min="12" max="12" width="14.1328125" style="19" customWidth="1"/>
+    <col min="13" max="16384" width="8.73046875" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15" customHeight="1">
+    <row r="1" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="11"/>
       <c r="B1" s="11"/>
       <c r="C1" s="11"/>
       <c r="D1" s="11"/>
-      <c r="E1" s="58" t="str">
-        <f ca="1">"作成日："&amp;TEXT(TODAY(),"yyyy年 m月 d日")</f>
-        <v>作成日：2024年 2月 27日</v>
-      </c>
-      <c r="F1" s="58"/>
-      <c r="G1" s="58"/>
-      <c r="H1" s="58"/>
-      <c r="I1" s="58"/>
-      <c r="J1" s="58"/>
-      <c r="K1" s="58"/>
-    </row>
-    <row r="2" spans="1:11" ht="18.600000000000001" customHeight="1">
+      <c r="E1" s="24" t="str">
+        <f ca="1">"作成日："&amp;TEXT(TODAY(),"yyyy年m月d日")</f>
+        <v>作成日：2024年2月28日</v>
+      </c>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
+      <c r="K1" s="24"/>
+    </row>
+    <row r="2" spans="1:11" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="20" t="s">
         <v>0</v>
       </c>
@@ -1483,122 +1483,122 @@
       <c r="J2" s="21"/>
       <c r="K2" s="21"/>
     </row>
-    <row r="3" spans="1:11" ht="18.600000000000001" customHeight="1">
+    <row r="3" spans="1:11" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="24" t="s">
+      <c r="B3" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="24"/>
+      <c r="C3" s="25"/>
       <c r="D3" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="27" t="s">
+      <c r="E3" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="27"/>
-      <c r="G3" s="27"/>
-      <c r="H3" s="27"/>
-      <c r="I3" s="27"/>
-      <c r="J3" s="27"/>
-      <c r="K3" s="27"/>
-    </row>
-    <row r="4" spans="1:11" ht="18.600000000000001" customHeight="1">
+      <c r="F3" s="46"/>
+      <c r="G3" s="46"/>
+      <c r="H3" s="46"/>
+      <c r="I3" s="46"/>
+      <c r="J3" s="46"/>
+      <c r="K3" s="46"/>
+    </row>
+    <row r="4" spans="1:11" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="24" t="s">
+      <c r="B4" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="24"/>
+      <c r="C4" s="25"/>
       <c r="D4" s="26"/>
-      <c r="E4" s="27"/>
-      <c r="F4" s="27"/>
-      <c r="G4" s="27"/>
-      <c r="H4" s="27"/>
-      <c r="I4" s="27"/>
-      <c r="J4" s="27"/>
-      <c r="K4" s="27"/>
-    </row>
-    <row r="5" spans="1:11" ht="18.600000000000001" customHeight="1">
-      <c r="A5" s="28" t="s">
+      <c r="E4" s="46"/>
+      <c r="F4" s="46"/>
+      <c r="G4" s="46"/>
+      <c r="H4" s="46"/>
+      <c r="I4" s="46"/>
+      <c r="J4" s="46"/>
+      <c r="K4" s="46"/>
+    </row>
+    <row r="5" spans="1:11" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="29" t="s">
+      <c r="B5" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="30"/>
+      <c r="C5" s="43"/>
       <c r="D5" s="26"/>
-      <c r="E5" s="27"/>
-      <c r="F5" s="27"/>
-      <c r="G5" s="27"/>
-      <c r="H5" s="27"/>
-      <c r="I5" s="27"/>
-      <c r="J5" s="27"/>
-      <c r="K5" s="27"/>
-    </row>
-    <row r="6" spans="1:11" ht="18.600000000000001" customHeight="1">
-      <c r="A6" s="28"/>
-      <c r="B6" s="30"/>
-      <c r="C6" s="30"/>
+      <c r="E5" s="46"/>
+      <c r="F5" s="46"/>
+      <c r="G5" s="46"/>
+      <c r="H5" s="46"/>
+      <c r="I5" s="46"/>
+      <c r="J5" s="46"/>
+      <c r="K5" s="46"/>
+    </row>
+    <row r="6" spans="1:11" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="29"/>
+      <c r="B6" s="43"/>
+      <c r="C6" s="43"/>
       <c r="D6" s="26"/>
-      <c r="E6" s="27"/>
-      <c r="F6" s="27"/>
-      <c r="G6" s="27"/>
-      <c r="H6" s="27"/>
-      <c r="I6" s="27"/>
-      <c r="J6" s="27"/>
-      <c r="K6" s="27"/>
-    </row>
-    <row r="7" spans="1:11" ht="18.600000000000001" customHeight="1">
+      <c r="E6" s="46"/>
+      <c r="F6" s="46"/>
+      <c r="G6" s="46"/>
+      <c r="H6" s="46"/>
+      <c r="I6" s="46"/>
+      <c r="J6" s="46"/>
+      <c r="K6" s="46"/>
+    </row>
+    <row r="7" spans="1:11" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="29" t="s">
+      <c r="B7" s="42" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="29"/>
+      <c r="C7" s="42"/>
       <c r="D7" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="25" t="s">
+      <c r="E7" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="F7" s="68"/>
-      <c r="G7" s="68"/>
-      <c r="H7" s="68"/>
-      <c r="I7" s="68"/>
-      <c r="J7" s="68"/>
-      <c r="K7" s="68"/>
-    </row>
-    <row r="8" spans="1:11" ht="18.600000000000001" customHeight="1">
+      <c r="F7" s="45"/>
+      <c r="G7" s="45"/>
+      <c r="H7" s="45"/>
+      <c r="I7" s="45"/>
+      <c r="J7" s="45"/>
+      <c r="K7" s="45"/>
+    </row>
+    <row r="8" spans="1:11" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="26"/>
-      <c r="B8" s="29"/>
-      <c r="C8" s="29"/>
+      <c r="B8" s="42"/>
+      <c r="C8" s="42"/>
       <c r="D8" s="26"/>
-      <c r="E8" s="68"/>
-      <c r="F8" s="68"/>
-      <c r="G8" s="68"/>
-      <c r="H8" s="68"/>
-      <c r="I8" s="68"/>
-      <c r="J8" s="68"/>
-      <c r="K8" s="68"/>
-    </row>
-    <row r="9" spans="1:11" ht="18.600000000000001" customHeight="1">
+      <c r="E8" s="45"/>
+      <c r="F8" s="45"/>
+      <c r="G8" s="45"/>
+      <c r="H8" s="45"/>
+      <c r="I8" s="45"/>
+      <c r="J8" s="45"/>
+      <c r="K8" s="45"/>
+    </row>
+    <row r="9" spans="1:11" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="26"/>
-      <c r="B9" s="29"/>
-      <c r="C9" s="29"/>
+      <c r="B9" s="42"/>
+      <c r="C9" s="42"/>
       <c r="D9" s="26"/>
-      <c r="E9" s="68"/>
-      <c r="F9" s="68"/>
-      <c r="G9" s="68"/>
-      <c r="H9" s="68"/>
-      <c r="I9" s="68"/>
-      <c r="J9" s="68"/>
-      <c r="K9" s="68"/>
-    </row>
-    <row r="10" spans="1:11" ht="18.600000000000001" customHeight="1">
+      <c r="E9" s="45"/>
+      <c r="F9" s="45"/>
+      <c r="G9" s="45"/>
+      <c r="H9" s="45"/>
+      <c r="I9" s="45"/>
+      <c r="J9" s="45"/>
+      <c r="K9" s="45"/>
+    </row>
+    <row r="10" spans="1:11" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="11"/>
       <c r="B10" s="11"/>
       <c r="C10" s="11"/>
@@ -1611,31 +1611,31 @@
       <c r="J10" s="11"/>
       <c r="K10" s="11"/>
     </row>
-    <row r="11" spans="1:11" ht="18.600000000000001" customHeight="1">
+    <row r="11" spans="1:11" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="24" t="s">
+      <c r="B11" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="24"/>
-      <c r="D11" s="24"/>
-      <c r="E11" s="24"/>
-      <c r="F11" s="24"/>
-      <c r="G11" s="24"/>
-      <c r="H11" s="24"/>
-      <c r="I11" s="24"/>
-      <c r="J11" s="24"/>
-      <c r="K11" s="24"/>
-    </row>
-    <row r="12" spans="1:11" ht="18.600000000000001" customHeight="1">
+      <c r="C11" s="25"/>
+      <c r="D11" s="25"/>
+      <c r="E11" s="25"/>
+      <c r="F11" s="25"/>
+      <c r="G11" s="25"/>
+      <c r="H11" s="25"/>
+      <c r="I11" s="25"/>
+      <c r="J11" s="25"/>
+      <c r="K11" s="25"/>
+    </row>
+    <row r="12" spans="1:11" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="B12" s="24" t="s">
+      <c r="B12" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="24"/>
+      <c r="C12" s="25"/>
       <c r="D12" s="10" t="s">
         <v>17</v>
       </c>
@@ -1649,110 +1649,110 @@
       <c r="J12" s="26"/>
       <c r="K12" s="26"/>
     </row>
-    <row r="13" spans="1:11" ht="18.600000000000001" customHeight="1">
+    <row r="13" spans="1:11" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="14"/>
-      <c r="B13" s="31" t="s">
+      <c r="B13" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="C13" s="31"/>
-      <c r="D13" s="31" t="s">
+      <c r="C13" s="27"/>
+      <c r="D13" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="E13" s="24" t="s">
+      <c r="E13" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="F13" s="24"/>
-      <c r="G13" s="24"/>
-      <c r="H13" s="24"/>
-      <c r="I13" s="24"/>
-      <c r="J13" s="24"/>
-      <c r="K13" s="24"/>
-    </row>
-    <row r="14" spans="1:11" ht="18.600000000000001" customHeight="1">
+      <c r="F13" s="25"/>
+      <c r="G13" s="25"/>
+      <c r="H13" s="25"/>
+      <c r="I13" s="25"/>
+      <c r="J13" s="25"/>
+      <c r="K13" s="25"/>
+    </row>
+    <row r="14" spans="1:11" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="15">
         <v>42186</v>
       </c>
-      <c r="B14" s="31"/>
-      <c r="C14" s="31"/>
-      <c r="D14" s="31"/>
-      <c r="E14" s="24"/>
-      <c r="F14" s="24"/>
-      <c r="G14" s="24"/>
-      <c r="H14" s="24"/>
-      <c r="I14" s="24"/>
-      <c r="J14" s="24"/>
-      <c r="K14" s="24"/>
-    </row>
-    <row r="15" spans="1:11" ht="18.600000000000001" customHeight="1">
+      <c r="B14" s="27"/>
+      <c r="C14" s="27"/>
+      <c r="D14" s="27"/>
+      <c r="E14" s="25"/>
+      <c r="F14" s="25"/>
+      <c r="G14" s="25"/>
+      <c r="H14" s="25"/>
+      <c r="I14" s="25"/>
+      <c r="J14" s="25"/>
+      <c r="K14" s="25"/>
+    </row>
+    <row r="15" spans="1:11" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="B15" s="31"/>
-      <c r="C15" s="31"/>
-      <c r="D15" s="31"/>
-      <c r="E15" s="28" t="s">
+      <c r="B15" s="27"/>
+      <c r="C15" s="27"/>
+      <c r="D15" s="27"/>
+      <c r="E15" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="F15" s="28"/>
-      <c r="G15" s="28"/>
-      <c r="H15" s="28"/>
-      <c r="I15" s="28"/>
-      <c r="J15" s="28"/>
-      <c r="K15" s="28"/>
-    </row>
-    <row r="16" spans="1:11" ht="18.600000000000001" customHeight="1">
+      <c r="F15" s="29"/>
+      <c r="G15" s="29"/>
+      <c r="H15" s="29"/>
+      <c r="I15" s="29"/>
+      <c r="J15" s="29"/>
+      <c r="K15" s="29"/>
+    </row>
+    <row r="16" spans="1:11" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="15">
         <v>42248</v>
       </c>
-      <c r="B16" s="31"/>
-      <c r="C16" s="31"/>
-      <c r="D16" s="31"/>
-      <c r="E16" s="24" t="s">
+      <c r="B16" s="27"/>
+      <c r="C16" s="27"/>
+      <c r="D16" s="27"/>
+      <c r="E16" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="F16" s="24"/>
-      <c r="G16" s="24"/>
-      <c r="H16" s="24"/>
-      <c r="I16" s="24"/>
-      <c r="J16" s="24"/>
-      <c r="K16" s="24"/>
-    </row>
-    <row r="17" spans="1:11" ht="18.600000000000001" customHeight="1">
+      <c r="F16" s="25"/>
+      <c r="G16" s="25"/>
+      <c r="H16" s="25"/>
+      <c r="I16" s="25"/>
+      <c r="J16" s="25"/>
+      <c r="K16" s="25"/>
+    </row>
+    <row r="17" spans="1:11" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="16"/>
-      <c r="B17" s="31"/>
-      <c r="C17" s="31"/>
-      <c r="D17" s="31"/>
-      <c r="E17" s="24"/>
-      <c r="F17" s="24"/>
-      <c r="G17" s="24"/>
-      <c r="H17" s="24"/>
-      <c r="I17" s="24"/>
-      <c r="J17" s="24"/>
-      <c r="K17" s="24"/>
-    </row>
-    <row r="18" spans="1:11" ht="18.600000000000001" customHeight="1">
+      <c r="B17" s="27"/>
+      <c r="C17" s="27"/>
+      <c r="D17" s="27"/>
+      <c r="E17" s="25"/>
+      <c r="F17" s="25"/>
+      <c r="G17" s="25"/>
+      <c r="H17" s="25"/>
+      <c r="I17" s="25"/>
+      <c r="J17" s="25"/>
+      <c r="K17" s="25"/>
+    </row>
+    <row r="18" spans="1:11" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="16" t="str">
         <f>IF(OR($A14="",$A16=""),"",IF(DATEDIF($A14,$A16+31,"Y")=0,"",DATEDIF($A14,$A16+31,"Y")&amp;"年")&amp;IF(DATEDIF($A14,$A16+31,"YM")=0,"",DATEDIF($A14,$A16+31,"YM")&amp;"ヶ月"))</f>
         <v>3ヶ月</v>
       </c>
-      <c r="B18" s="31"/>
-      <c r="C18" s="31"/>
-      <c r="D18" s="31"/>
-      <c r="E18" s="28" t="s">
+      <c r="B18" s="27"/>
+      <c r="C18" s="27"/>
+      <c r="D18" s="27"/>
+      <c r="E18" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="F18" s="28"/>
-      <c r="G18" s="28"/>
-      <c r="H18" s="28"/>
-      <c r="I18" s="28"/>
-      <c r="J18" s="28"/>
-      <c r="K18" s="28"/>
-    </row>
-    <row r="19" spans="1:11" ht="23.1" customHeight="1">
+      <c r="F18" s="29"/>
+      <c r="G18" s="29"/>
+      <c r="H18" s="29"/>
+      <c r="I18" s="29"/>
+      <c r="J18" s="29"/>
+      <c r="K18" s="29"/>
+    </row>
+    <row r="19" spans="1:11" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="16"/>
-      <c r="B19" s="31"/>
-      <c r="C19" s="31"/>
-      <c r="D19" s="31"/>
+      <c r="B19" s="27"/>
+      <c r="C19" s="27"/>
+      <c r="D19" s="27"/>
       <c r="E19" s="23" t="s">
         <v>26</v>
       </c>
@@ -1775,11 +1775,11 @@
         <v>32</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="18.600000000000001" customHeight="1">
+    <row r="20" spans="1:11" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="17"/>
-      <c r="B20" s="31"/>
-      <c r="C20" s="31"/>
-      <c r="D20" s="31"/>
+      <c r="B20" s="27"/>
+      <c r="C20" s="27"/>
+      <c r="D20" s="27"/>
       <c r="E20" s="18"/>
       <c r="F20" s="18"/>
       <c r="G20" s="18"/>
@@ -1790,14 +1790,14 @@
       <c r="J20" s="18"/>
       <c r="K20" s="18"/>
     </row>
-    <row r="21" spans="1:11" ht="18.600000000000001" customHeight="1">
+    <row r="21" spans="1:11" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="B21" s="24" t="s">
+      <c r="B21" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="C21" s="24"/>
+      <c r="C21" s="25"/>
       <c r="D21" s="10" t="s">
         <v>17</v>
       </c>
@@ -1811,110 +1811,110 @@
       <c r="J21" s="26"/>
       <c r="K21" s="26"/>
     </row>
-    <row r="22" spans="1:11" ht="18.600000000000001" customHeight="1">
+    <row r="22" spans="1:11" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="14"/>
-      <c r="B22" s="31" t="s">
+      <c r="B22" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="C22" s="31"/>
-      <c r="D22" s="31" t="s">
+      <c r="C22" s="27"/>
+      <c r="D22" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="E22" s="24" t="s">
+      <c r="E22" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="F22" s="24"/>
-      <c r="G22" s="24"/>
-      <c r="H22" s="24"/>
-      <c r="I22" s="24"/>
-      <c r="J22" s="24"/>
-      <c r="K22" s="24"/>
-    </row>
-    <row r="23" spans="1:11" ht="18.600000000000001" customHeight="1">
+      <c r="F22" s="25"/>
+      <c r="G22" s="25"/>
+      <c r="H22" s="25"/>
+      <c r="I22" s="25"/>
+      <c r="J22" s="25"/>
+      <c r="K22" s="25"/>
+    </row>
+    <row r="23" spans="1:11" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="15">
         <v>42278</v>
       </c>
-      <c r="B23" s="31"/>
-      <c r="C23" s="31"/>
-      <c r="D23" s="35"/>
-      <c r="E23" s="24"/>
-      <c r="F23" s="24"/>
-      <c r="G23" s="24"/>
-      <c r="H23" s="24"/>
-      <c r="I23" s="24"/>
-      <c r="J23" s="24"/>
-      <c r="K23" s="24"/>
-    </row>
-    <row r="24" spans="1:11" ht="18.600000000000001" customHeight="1">
+      <c r="B23" s="27"/>
+      <c r="C23" s="27"/>
+      <c r="D23" s="28"/>
+      <c r="E23" s="25"/>
+      <c r="F23" s="25"/>
+      <c r="G23" s="25"/>
+      <c r="H23" s="25"/>
+      <c r="I23" s="25"/>
+      <c r="J23" s="25"/>
+      <c r="K23" s="25"/>
+    </row>
+    <row r="24" spans="1:11" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="B24" s="31"/>
-      <c r="C24" s="31"/>
-      <c r="D24" s="35"/>
-      <c r="E24" s="28" t="s">
+      <c r="B24" s="27"/>
+      <c r="C24" s="27"/>
+      <c r="D24" s="28"/>
+      <c r="E24" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="F24" s="28"/>
-      <c r="G24" s="28"/>
-      <c r="H24" s="28"/>
-      <c r="I24" s="28"/>
-      <c r="J24" s="28"/>
-      <c r="K24" s="28"/>
-    </row>
-    <row r="25" spans="1:11" ht="18.600000000000001" customHeight="1">
+      <c r="F24" s="29"/>
+      <c r="G24" s="29"/>
+      <c r="H24" s="29"/>
+      <c r="I24" s="29"/>
+      <c r="J24" s="29"/>
+      <c r="K24" s="29"/>
+    </row>
+    <row r="25" spans="1:11" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="15">
         <v>43040</v>
       </c>
-      <c r="B25" s="31"/>
-      <c r="C25" s="31"/>
-      <c r="D25" s="35"/>
-      <c r="E25" s="24" t="s">
+      <c r="B25" s="27"/>
+      <c r="C25" s="27"/>
+      <c r="D25" s="28"/>
+      <c r="E25" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="F25" s="24"/>
-      <c r="G25" s="24"/>
-      <c r="H25" s="24"/>
-      <c r="I25" s="24"/>
-      <c r="J25" s="24"/>
-      <c r="K25" s="24"/>
-    </row>
-    <row r="26" spans="1:11" ht="18.600000000000001" customHeight="1">
+      <c r="F25" s="25"/>
+      <c r="G25" s="25"/>
+      <c r="H25" s="25"/>
+      <c r="I25" s="25"/>
+      <c r="J25" s="25"/>
+      <c r="K25" s="25"/>
+    </row>
+    <row r="26" spans="1:11" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="16"/>
-      <c r="B26" s="31"/>
-      <c r="C26" s="31"/>
-      <c r="D26" s="35"/>
-      <c r="E26" s="24"/>
-      <c r="F26" s="24"/>
-      <c r="G26" s="24"/>
-      <c r="H26" s="24"/>
-      <c r="I26" s="24"/>
-      <c r="J26" s="24"/>
-      <c r="K26" s="24"/>
-    </row>
-    <row r="27" spans="1:11" ht="18.600000000000001" customHeight="1">
+      <c r="B26" s="27"/>
+      <c r="C26" s="27"/>
+      <c r="D26" s="28"/>
+      <c r="E26" s="25"/>
+      <c r="F26" s="25"/>
+      <c r="G26" s="25"/>
+      <c r="H26" s="25"/>
+      <c r="I26" s="25"/>
+      <c r="J26" s="25"/>
+      <c r="K26" s="25"/>
+    </row>
+    <row r="27" spans="1:11" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="16" t="str">
         <f>IF(OR($A23="",$A25=""),"",IF(DATEDIF($A23,$A25+31,"Y")=0,"",DATEDIF($A23,$A25+31,"Y")&amp;"年")&amp;IF(DATEDIF($A23,$A25+31,"YM")=0,"",DATEDIF($A23,$A25+31,"YM")&amp;"ヶ月"))</f>
         <v>2年2ヶ月</v>
       </c>
-      <c r="B27" s="31"/>
-      <c r="C27" s="31"/>
-      <c r="D27" s="35"/>
-      <c r="E27" s="28" t="s">
+      <c r="B27" s="27"/>
+      <c r="C27" s="27"/>
+      <c r="D27" s="28"/>
+      <c r="E27" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="F27" s="28"/>
-      <c r="G27" s="28"/>
-      <c r="H27" s="28"/>
-      <c r="I27" s="28"/>
-      <c r="J27" s="28"/>
-      <c r="K27" s="28"/>
-    </row>
-    <row r="28" spans="1:11" ht="23.1" customHeight="1">
+      <c r="F27" s="29"/>
+      <c r="G27" s="29"/>
+      <c r="H27" s="29"/>
+      <c r="I27" s="29"/>
+      <c r="J27" s="29"/>
+      <c r="K27" s="29"/>
+    </row>
+    <row r="28" spans="1:11" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="16"/>
-      <c r="B28" s="31"/>
-      <c r="C28" s="31"/>
-      <c r="D28" s="35"/>
+      <c r="B28" s="27"/>
+      <c r="C28" s="27"/>
+      <c r="D28" s="28"/>
       <c r="E28" s="23" t="s">
         <v>26</v>
       </c>
@@ -1937,11 +1937,11 @@
         <v>32</v>
       </c>
     </row>
-    <row r="29" spans="1:11" ht="18.600000000000001" customHeight="1">
+    <row r="29" spans="1:11" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="17"/>
-      <c r="B29" s="31"/>
-      <c r="C29" s="31"/>
-      <c r="D29" s="35"/>
+      <c r="B29" s="27"/>
+      <c r="C29" s="27"/>
+      <c r="D29" s="28"/>
       <c r="E29" s="18"/>
       <c r="F29" s="18"/>
       <c r="G29" s="18"/>
@@ -1958,14 +1958,14 @@
         <v>39</v>
       </c>
     </row>
-    <row r="30" spans="1:11" ht="18.600000000000001" customHeight="1">
+    <row r="30" spans="1:11" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="B30" s="24" t="s">
+      <c r="B30" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="C30" s="24"/>
+      <c r="C30" s="25"/>
       <c r="D30" s="10" t="s">
         <v>17</v>
       </c>
@@ -1979,110 +1979,110 @@
       <c r="J30" s="26"/>
       <c r="K30" s="26"/>
     </row>
-    <row r="31" spans="1:11" ht="18.600000000000001" customHeight="1">
+    <row r="31" spans="1:11" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="14"/>
-      <c r="B31" s="31" t="s">
+      <c r="B31" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="C31" s="31"/>
-      <c r="D31" s="31" t="s">
+      <c r="C31" s="27"/>
+      <c r="D31" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="E31" s="24" t="s">
+      <c r="E31" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="F31" s="24"/>
-      <c r="G31" s="24"/>
-      <c r="H31" s="24"/>
-      <c r="I31" s="24"/>
-      <c r="J31" s="24"/>
-      <c r="K31" s="24"/>
-    </row>
-    <row r="32" spans="1:11" ht="18.600000000000001" customHeight="1">
+      <c r="F31" s="25"/>
+      <c r="G31" s="25"/>
+      <c r="H31" s="25"/>
+      <c r="I31" s="25"/>
+      <c r="J31" s="25"/>
+      <c r="K31" s="25"/>
+    </row>
+    <row r="32" spans="1:11" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="15">
         <v>43070</v>
       </c>
-      <c r="B32" s="31"/>
-      <c r="C32" s="31"/>
-      <c r="D32" s="35"/>
-      <c r="E32" s="24"/>
-      <c r="F32" s="24"/>
-      <c r="G32" s="24"/>
-      <c r="H32" s="24"/>
-      <c r="I32" s="24"/>
-      <c r="J32" s="24"/>
-      <c r="K32" s="24"/>
-    </row>
-    <row r="33" spans="1:11" ht="18.600000000000001" customHeight="1">
+      <c r="B32" s="27"/>
+      <c r="C32" s="27"/>
+      <c r="D32" s="28"/>
+      <c r="E32" s="25"/>
+      <c r="F32" s="25"/>
+      <c r="G32" s="25"/>
+      <c r="H32" s="25"/>
+      <c r="I32" s="25"/>
+      <c r="J32" s="25"/>
+      <c r="K32" s="25"/>
+    </row>
+    <row r="33" spans="1:11" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="B33" s="31"/>
-      <c r="C33" s="31"/>
-      <c r="D33" s="35"/>
-      <c r="E33" s="28" t="s">
+      <c r="B33" s="27"/>
+      <c r="C33" s="27"/>
+      <c r="D33" s="28"/>
+      <c r="E33" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="F33" s="28"/>
-      <c r="G33" s="28"/>
-      <c r="H33" s="28"/>
-      <c r="I33" s="28"/>
-      <c r="J33" s="28"/>
-      <c r="K33" s="28"/>
-    </row>
-    <row r="34" spans="1:11" ht="18.600000000000001" customHeight="1">
+      <c r="F33" s="29"/>
+      <c r="G33" s="29"/>
+      <c r="H33" s="29"/>
+      <c r="I33" s="29"/>
+      <c r="J33" s="29"/>
+      <c r="K33" s="29"/>
+    </row>
+    <row r="34" spans="1:11" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="15">
         <v>43709</v>
       </c>
-      <c r="B34" s="31"/>
-      <c r="C34" s="31"/>
-      <c r="D34" s="35"/>
-      <c r="E34" s="24" t="s">
+      <c r="B34" s="27"/>
+      <c r="C34" s="27"/>
+      <c r="D34" s="28"/>
+      <c r="E34" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="F34" s="24"/>
-      <c r="G34" s="24"/>
-      <c r="H34" s="24"/>
-      <c r="I34" s="24"/>
-      <c r="J34" s="24"/>
-      <c r="K34" s="24"/>
-    </row>
-    <row r="35" spans="1:11" ht="18.600000000000001" customHeight="1">
+      <c r="F34" s="25"/>
+      <c r="G34" s="25"/>
+      <c r="H34" s="25"/>
+      <c r="I34" s="25"/>
+      <c r="J34" s="25"/>
+      <c r="K34" s="25"/>
+    </row>
+    <row r="35" spans="1:11" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="16"/>
-      <c r="B35" s="31"/>
-      <c r="C35" s="31"/>
-      <c r="D35" s="35"/>
-      <c r="E35" s="24"/>
-      <c r="F35" s="24"/>
-      <c r="G35" s="24"/>
-      <c r="H35" s="24"/>
-      <c r="I35" s="24"/>
-      <c r="J35" s="24"/>
-      <c r="K35" s="24"/>
-    </row>
-    <row r="36" spans="1:11" ht="18.600000000000001" customHeight="1">
+      <c r="B35" s="27"/>
+      <c r="C35" s="27"/>
+      <c r="D35" s="28"/>
+      <c r="E35" s="25"/>
+      <c r="F35" s="25"/>
+      <c r="G35" s="25"/>
+      <c r="H35" s="25"/>
+      <c r="I35" s="25"/>
+      <c r="J35" s="25"/>
+      <c r="K35" s="25"/>
+    </row>
+    <row r="36" spans="1:11" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="16" t="str">
         <f>IF(OR($A32="",$A34=""),"",IF(DATEDIF($A32,$A34+31,"Y")=0,"",DATEDIF($A32,$A34+31,"Y")&amp;"年")&amp;IF(DATEDIF($A32,$A34+31,"YM")=0,"",DATEDIF($A32,$A34+31,"YM")&amp;"ヶ月"))</f>
         <v>1年10ヶ月</v>
       </c>
-      <c r="B36" s="31"/>
-      <c r="C36" s="31"/>
-      <c r="D36" s="35"/>
-      <c r="E36" s="28" t="s">
+      <c r="B36" s="27"/>
+      <c r="C36" s="27"/>
+      <c r="D36" s="28"/>
+      <c r="E36" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="F36" s="28"/>
-      <c r="G36" s="28"/>
-      <c r="H36" s="28"/>
-      <c r="I36" s="28"/>
-      <c r="J36" s="28"/>
-      <c r="K36" s="28"/>
-    </row>
-    <row r="37" spans="1:11" ht="23.1" customHeight="1">
+      <c r="F36" s="29"/>
+      <c r="G36" s="29"/>
+      <c r="H36" s="29"/>
+      <c r="I36" s="29"/>
+      <c r="J36" s="29"/>
+      <c r="K36" s="29"/>
+    </row>
+    <row r="37" spans="1:11" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="16"/>
-      <c r="B37" s="31"/>
-      <c r="C37" s="31"/>
-      <c r="D37" s="35"/>
+      <c r="B37" s="27"/>
+      <c r="C37" s="27"/>
+      <c r="D37" s="28"/>
       <c r="E37" s="23" t="s">
         <v>26</v>
       </c>
@@ -2105,11 +2105,11 @@
         <v>32</v>
       </c>
     </row>
-    <row r="38" spans="1:11" ht="18.600000000000001" customHeight="1">
+    <row r="38" spans="1:11" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="17"/>
-      <c r="B38" s="31"/>
-      <c r="C38" s="31"/>
-      <c r="D38" s="35"/>
+      <c r="B38" s="27"/>
+      <c r="C38" s="27"/>
+      <c r="D38" s="28"/>
       <c r="E38" s="18"/>
       <c r="F38" s="18"/>
       <c r="G38" s="18" t="s">
@@ -2126,14 +2126,14 @@
       </c>
       <c r="K38" s="18"/>
     </row>
-    <row r="39" spans="1:11" ht="18.600000000000001" customHeight="1">
+    <row r="39" spans="1:11" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="B39" s="24" t="s">
+      <c r="B39" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="C39" s="24"/>
+      <c r="C39" s="25"/>
       <c r="D39" s="10" t="s">
         <v>17</v>
       </c>
@@ -2147,110 +2147,110 @@
       <c r="J39" s="26"/>
       <c r="K39" s="26"/>
     </row>
-    <row r="40" spans="1:11" ht="18.600000000000001" customHeight="1">
+    <row r="40" spans="1:11" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="14"/>
-      <c r="B40" s="31" t="s">
+      <c r="B40" s="27" t="s">
         <v>46</v>
       </c>
-      <c r="C40" s="31"/>
-      <c r="D40" s="31" t="s">
+      <c r="C40" s="27"/>
+      <c r="D40" s="27" t="s">
         <v>47</v>
       </c>
-      <c r="E40" s="24" t="s">
+      <c r="E40" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="F40" s="24"/>
-      <c r="G40" s="24"/>
-      <c r="H40" s="24"/>
-      <c r="I40" s="24"/>
-      <c r="J40" s="24"/>
-      <c r="K40" s="24"/>
-    </row>
-    <row r="41" spans="1:11" ht="18.600000000000001" customHeight="1">
+      <c r="F40" s="25"/>
+      <c r="G40" s="25"/>
+      <c r="H40" s="25"/>
+      <c r="I40" s="25"/>
+      <c r="J40" s="25"/>
+      <c r="K40" s="25"/>
+    </row>
+    <row r="41" spans="1:11" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="15">
         <v>43739</v>
       </c>
-      <c r="B41" s="31"/>
-      <c r="C41" s="31"/>
-      <c r="D41" s="35"/>
-      <c r="E41" s="24"/>
-      <c r="F41" s="24"/>
-      <c r="G41" s="24"/>
-      <c r="H41" s="24"/>
-      <c r="I41" s="24"/>
-      <c r="J41" s="24"/>
-      <c r="K41" s="24"/>
-    </row>
-    <row r="42" spans="1:11" ht="18.600000000000001" customHeight="1">
+      <c r="B41" s="27"/>
+      <c r="C41" s="27"/>
+      <c r="D41" s="28"/>
+      <c r="E41" s="25"/>
+      <c r="F41" s="25"/>
+      <c r="G41" s="25"/>
+      <c r="H41" s="25"/>
+      <c r="I41" s="25"/>
+      <c r="J41" s="25"/>
+      <c r="K41" s="25"/>
+    </row>
+    <row r="42" spans="1:11" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="B42" s="31"/>
-      <c r="C42" s="31"/>
-      <c r="D42" s="35"/>
-      <c r="E42" s="28" t="s">
+      <c r="B42" s="27"/>
+      <c r="C42" s="27"/>
+      <c r="D42" s="28"/>
+      <c r="E42" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="F42" s="28"/>
-      <c r="G42" s="28"/>
-      <c r="H42" s="28"/>
-      <c r="I42" s="28"/>
-      <c r="J42" s="28"/>
-      <c r="K42" s="28"/>
-    </row>
-    <row r="43" spans="1:11" ht="18.600000000000001" customHeight="1">
+      <c r="F42" s="29"/>
+      <c r="G42" s="29"/>
+      <c r="H42" s="29"/>
+      <c r="I42" s="29"/>
+      <c r="J42" s="29"/>
+      <c r="K42" s="29"/>
+    </row>
+    <row r="43" spans="1:11" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="15">
         <v>44228</v>
       </c>
-      <c r="B43" s="31"/>
-      <c r="C43" s="31"/>
-      <c r="D43" s="35"/>
-      <c r="E43" s="24" t="s">
+      <c r="B43" s="27"/>
+      <c r="C43" s="27"/>
+      <c r="D43" s="28"/>
+      <c r="E43" s="25" t="s">
         <v>48</v>
       </c>
-      <c r="F43" s="24"/>
-      <c r="G43" s="24"/>
-      <c r="H43" s="24"/>
-      <c r="I43" s="24"/>
-      <c r="J43" s="24"/>
-      <c r="K43" s="24"/>
-    </row>
-    <row r="44" spans="1:11" ht="18.600000000000001" customHeight="1">
+      <c r="F43" s="25"/>
+      <c r="G43" s="25"/>
+      <c r="H43" s="25"/>
+      <c r="I43" s="25"/>
+      <c r="J43" s="25"/>
+      <c r="K43" s="25"/>
+    </row>
+    <row r="44" spans="1:11" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="16"/>
-      <c r="B44" s="31"/>
-      <c r="C44" s="31"/>
-      <c r="D44" s="35"/>
-      <c r="E44" s="24"/>
-      <c r="F44" s="24"/>
-      <c r="G44" s="24"/>
-      <c r="H44" s="24"/>
-      <c r="I44" s="24"/>
-      <c r="J44" s="24"/>
-      <c r="K44" s="24"/>
-    </row>
-    <row r="45" spans="1:11" ht="18.600000000000001" customHeight="1">
+      <c r="B44" s="27"/>
+      <c r="C44" s="27"/>
+      <c r="D44" s="28"/>
+      <c r="E44" s="25"/>
+      <c r="F44" s="25"/>
+      <c r="G44" s="25"/>
+      <c r="H44" s="25"/>
+      <c r="I44" s="25"/>
+      <c r="J44" s="25"/>
+      <c r="K44" s="25"/>
+    </row>
+    <row r="45" spans="1:11" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="16" t="str">
         <f>IF(OR($A41="",$A43=""),"",IF(DATEDIF($A41,$A43+31,"Y")=0,"",DATEDIF($A41,$A43+31,"Y")&amp;"年")&amp;IF(DATEDIF($A41,$A43+31,"YM")=0,"",DATEDIF($A41,$A43+31,"YM")&amp;"ヶ月"))</f>
         <v>1年5ヶ月</v>
       </c>
-      <c r="B45" s="31"/>
-      <c r="C45" s="31"/>
-      <c r="D45" s="35"/>
-      <c r="E45" s="28" t="s">
+      <c r="B45" s="27"/>
+      <c r="C45" s="27"/>
+      <c r="D45" s="28"/>
+      <c r="E45" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="F45" s="28"/>
-      <c r="G45" s="28"/>
-      <c r="H45" s="28"/>
-      <c r="I45" s="28"/>
-      <c r="J45" s="28"/>
-      <c r="K45" s="28"/>
-    </row>
-    <row r="46" spans="1:11" ht="23.1" customHeight="1">
+      <c r="F45" s="29"/>
+      <c r="G45" s="29"/>
+      <c r="H45" s="29"/>
+      <c r="I45" s="29"/>
+      <c r="J45" s="29"/>
+      <c r="K45" s="29"/>
+    </row>
+    <row r="46" spans="1:11" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="16"/>
-      <c r="B46" s="31"/>
-      <c r="C46" s="31"/>
-      <c r="D46" s="35"/>
+      <c r="B46" s="27"/>
+      <c r="C46" s="27"/>
+      <c r="D46" s="28"/>
       <c r="E46" s="23" t="s">
         <v>26</v>
       </c>
@@ -2273,11 +2273,11 @@
         <v>32</v>
       </c>
     </row>
-    <row r="47" spans="1:11" ht="18.600000000000001" customHeight="1">
+    <row r="47" spans="1:11" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="17"/>
-      <c r="B47" s="31"/>
-      <c r="C47" s="31"/>
-      <c r="D47" s="35"/>
+      <c r="B47" s="27"/>
+      <c r="C47" s="27"/>
+      <c r="D47" s="28"/>
       <c r="E47" s="18"/>
       <c r="F47" s="18" t="s">
         <v>39</v>
@@ -2296,7 +2296,7 @@
       </c>
       <c r="K47" s="18"/>
     </row>
-    <row r="48" spans="1:11" ht="18.600000000000001" customHeight="1">
+    <row r="48" spans="1:11" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="11"/>
       <c r="B48" s="11"/>
       <c r="C48" s="11"/>
@@ -2309,31 +2309,31 @@
       <c r="J48" s="11"/>
       <c r="K48" s="11"/>
     </row>
-    <row r="49" spans="1:11" ht="18.600000000000001" customHeight="1">
+    <row r="49" spans="1:11" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="B49" s="24" t="s">
+      <c r="B49" s="25" t="s">
         <v>49</v>
       </c>
-      <c r="C49" s="24"/>
-      <c r="D49" s="24"/>
-      <c r="E49" s="24"/>
-      <c r="F49" s="24"/>
-      <c r="G49" s="24"/>
-      <c r="H49" s="24"/>
-      <c r="I49" s="24"/>
-      <c r="J49" s="24"/>
-      <c r="K49" s="24"/>
-    </row>
-    <row r="50" spans="1:11" ht="18.600000000000001" customHeight="1">
+      <c r="C49" s="25"/>
+      <c r="D49" s="25"/>
+      <c r="E49" s="25"/>
+      <c r="F49" s="25"/>
+      <c r="G49" s="25"/>
+      <c r="H49" s="25"/>
+      <c r="I49" s="25"/>
+      <c r="J49" s="25"/>
+      <c r="K49" s="25"/>
+    </row>
+    <row r="50" spans="1:11" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="B50" s="24" t="s">
+      <c r="B50" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="C50" s="24"/>
+      <c r="C50" s="25"/>
       <c r="D50" s="10" t="s">
         <v>17</v>
       </c>
@@ -2347,110 +2347,110 @@
       <c r="J50" s="26"/>
       <c r="K50" s="26"/>
     </row>
-    <row r="51" spans="1:11" ht="18.600000000000001" customHeight="1">
+    <row r="51" spans="1:11" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="14"/>
-      <c r="B51" s="31" t="s">
+      <c r="B51" s="27" t="s">
         <v>51</v>
       </c>
-      <c r="C51" s="31"/>
-      <c r="D51" s="31" t="s">
+      <c r="C51" s="27"/>
+      <c r="D51" s="27" t="s">
         <v>52</v>
       </c>
-      <c r="E51" s="24" t="s">
+      <c r="E51" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="F51" s="24"/>
-      <c r="G51" s="24"/>
-      <c r="H51" s="24"/>
-      <c r="I51" s="24"/>
-      <c r="J51" s="24"/>
-      <c r="K51" s="24"/>
-    </row>
-    <row r="52" spans="1:11" ht="18.600000000000001" customHeight="1">
+      <c r="F51" s="25"/>
+      <c r="G51" s="25"/>
+      <c r="H51" s="25"/>
+      <c r="I51" s="25"/>
+      <c r="J51" s="25"/>
+      <c r="K51" s="25"/>
+    </row>
+    <row r="52" spans="1:11" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="15">
         <v>44378</v>
       </c>
-      <c r="B52" s="31"/>
-      <c r="C52" s="31"/>
-      <c r="D52" s="35"/>
-      <c r="E52" s="24"/>
-      <c r="F52" s="24"/>
-      <c r="G52" s="24"/>
-      <c r="H52" s="24"/>
-      <c r="I52" s="24"/>
-      <c r="J52" s="24"/>
-      <c r="K52" s="24"/>
-    </row>
-    <row r="53" spans="1:11" ht="18.600000000000001" customHeight="1">
+      <c r="B52" s="27"/>
+      <c r="C52" s="27"/>
+      <c r="D52" s="28"/>
+      <c r="E52" s="25"/>
+      <c r="F52" s="25"/>
+      <c r="G52" s="25"/>
+      <c r="H52" s="25"/>
+      <c r="I52" s="25"/>
+      <c r="J52" s="25"/>
+      <c r="K52" s="25"/>
+    </row>
+    <row r="53" spans="1:11" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="B53" s="31"/>
-      <c r="C53" s="31"/>
-      <c r="D53" s="35"/>
-      <c r="E53" s="28" t="s">
+      <c r="B53" s="27"/>
+      <c r="C53" s="27"/>
+      <c r="D53" s="28"/>
+      <c r="E53" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="F53" s="28"/>
-      <c r="G53" s="28"/>
-      <c r="H53" s="28"/>
-      <c r="I53" s="28"/>
-      <c r="J53" s="28"/>
-      <c r="K53" s="28"/>
-    </row>
-    <row r="54" spans="1:11" ht="18.600000000000001" customHeight="1">
+      <c r="F53" s="29"/>
+      <c r="G53" s="29"/>
+      <c r="H53" s="29"/>
+      <c r="I53" s="29"/>
+      <c r="J53" s="29"/>
+      <c r="K53" s="29"/>
+    </row>
+    <row r="54" spans="1:11" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="15">
         <v>44562</v>
       </c>
-      <c r="B54" s="31"/>
-      <c r="C54" s="31"/>
-      <c r="D54" s="35"/>
-      <c r="E54" s="24" t="s">
+      <c r="B54" s="27"/>
+      <c r="C54" s="27"/>
+      <c r="D54" s="28"/>
+      <c r="E54" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="F54" s="24"/>
-      <c r="G54" s="24"/>
-      <c r="H54" s="24"/>
-      <c r="I54" s="24"/>
-      <c r="J54" s="24"/>
-      <c r="K54" s="24"/>
-    </row>
-    <row r="55" spans="1:11" ht="18.600000000000001" customHeight="1">
+      <c r="F54" s="25"/>
+      <c r="G54" s="25"/>
+      <c r="H54" s="25"/>
+      <c r="I54" s="25"/>
+      <c r="J54" s="25"/>
+      <c r="K54" s="25"/>
+    </row>
+    <row r="55" spans="1:11" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="16"/>
-      <c r="B55" s="31"/>
-      <c r="C55" s="31"/>
-      <c r="D55" s="35"/>
-      <c r="E55" s="24"/>
-      <c r="F55" s="24"/>
-      <c r="G55" s="24"/>
-      <c r="H55" s="24"/>
-      <c r="I55" s="24"/>
-      <c r="J55" s="24"/>
-      <c r="K55" s="24"/>
-    </row>
-    <row r="56" spans="1:11" ht="18.600000000000001" customHeight="1">
+      <c r="B55" s="27"/>
+      <c r="C55" s="27"/>
+      <c r="D55" s="28"/>
+      <c r="E55" s="25"/>
+      <c r="F55" s="25"/>
+      <c r="G55" s="25"/>
+      <c r="H55" s="25"/>
+      <c r="I55" s="25"/>
+      <c r="J55" s="25"/>
+      <c r="K55" s="25"/>
+    </row>
+    <row r="56" spans="1:11" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="16" t="str">
         <f>IF(OR($A52="",$A54=""),"",IF(DATEDIF($A52,$A54+31,"Y")=0,"",DATEDIF($A52,$A54+31,"Y")&amp;"年")&amp;IF(DATEDIF($A52,$A54+31,"YM")=0,"",DATEDIF($A52,$A54+31,"YM")&amp;"ヶ月"))</f>
         <v>7ヶ月</v>
       </c>
-      <c r="B56" s="31"/>
-      <c r="C56" s="31"/>
-      <c r="D56" s="35"/>
-      <c r="E56" s="28" t="s">
+      <c r="B56" s="27"/>
+      <c r="C56" s="27"/>
+      <c r="D56" s="28"/>
+      <c r="E56" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="F56" s="28"/>
-      <c r="G56" s="28"/>
-      <c r="H56" s="28"/>
-      <c r="I56" s="28"/>
-      <c r="J56" s="28"/>
-      <c r="K56" s="28"/>
-    </row>
-    <row r="57" spans="1:11" ht="23.1" customHeight="1">
+      <c r="F56" s="29"/>
+      <c r="G56" s="29"/>
+      <c r="H56" s="29"/>
+      <c r="I56" s="29"/>
+      <c r="J56" s="29"/>
+      <c r="K56" s="29"/>
+    </row>
+    <row r="57" spans="1:11" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="16"/>
-      <c r="B57" s="31"/>
-      <c r="C57" s="31"/>
-      <c r="D57" s="35"/>
+      <c r="B57" s="27"/>
+      <c r="C57" s="27"/>
+      <c r="D57" s="28"/>
       <c r="E57" s="23" t="s">
         <v>26</v>
       </c>
@@ -2473,11 +2473,11 @@
         <v>32</v>
       </c>
     </row>
-    <row r="58" spans="1:11" ht="18.600000000000001" customHeight="1">
+    <row r="58" spans="1:11" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="17"/>
-      <c r="B58" s="31"/>
-      <c r="C58" s="31"/>
-      <c r="D58" s="35"/>
+      <c r="B58" s="27"/>
+      <c r="C58" s="27"/>
+      <c r="D58" s="28"/>
       <c r="E58" s="18"/>
       <c r="F58" s="18"/>
       <c r="G58" s="18"/>
@@ -2490,14 +2490,14 @@
       </c>
       <c r="K58" s="18"/>
     </row>
-    <row r="59" spans="1:11" ht="18.600000000000001" customHeight="1">
+    <row r="59" spans="1:11" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="B59" s="24" t="s">
+      <c r="B59" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="C59" s="24"/>
+      <c r="C59" s="25"/>
       <c r="D59" s="10" t="s">
         <v>17</v>
       </c>
@@ -2511,110 +2511,110 @@
       <c r="J59" s="26"/>
       <c r="K59" s="26"/>
     </row>
-    <row r="60" spans="1:11" ht="18.600000000000001" customHeight="1">
+    <row r="60" spans="1:11" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="14"/>
-      <c r="B60" s="31" t="s">
+      <c r="B60" s="27" t="s">
         <v>55</v>
       </c>
-      <c r="C60" s="31"/>
-      <c r="D60" s="31" t="s">
+      <c r="C60" s="27"/>
+      <c r="D60" s="27" t="s">
         <v>56</v>
       </c>
-      <c r="E60" s="24" t="s">
+      <c r="E60" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="F60" s="24"/>
-      <c r="G60" s="24"/>
-      <c r="H60" s="24"/>
-      <c r="I60" s="24"/>
-      <c r="J60" s="24"/>
-      <c r="K60" s="24"/>
-    </row>
-    <row r="61" spans="1:11" ht="18.600000000000001" customHeight="1">
+      <c r="F60" s="25"/>
+      <c r="G60" s="25"/>
+      <c r="H60" s="25"/>
+      <c r="I60" s="25"/>
+      <c r="J60" s="25"/>
+      <c r="K60" s="25"/>
+    </row>
+    <row r="61" spans="1:11" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="15">
         <v>44593</v>
       </c>
-      <c r="B61" s="31"/>
-      <c r="C61" s="31"/>
-      <c r="D61" s="35"/>
-      <c r="E61" s="24"/>
-      <c r="F61" s="24"/>
-      <c r="G61" s="24"/>
-      <c r="H61" s="24"/>
-      <c r="I61" s="24"/>
-      <c r="J61" s="24"/>
-      <c r="K61" s="24"/>
-    </row>
-    <row r="62" spans="1:11" ht="18.600000000000001" customHeight="1">
+      <c r="B61" s="27"/>
+      <c r="C61" s="27"/>
+      <c r="D61" s="28"/>
+      <c r="E61" s="25"/>
+      <c r="F61" s="25"/>
+      <c r="G61" s="25"/>
+      <c r="H61" s="25"/>
+      <c r="I61" s="25"/>
+      <c r="J61" s="25"/>
+      <c r="K61" s="25"/>
+    </row>
+    <row r="62" spans="1:11" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="B62" s="31"/>
-      <c r="C62" s="31"/>
-      <c r="D62" s="35"/>
-      <c r="E62" s="28" t="s">
+      <c r="B62" s="27"/>
+      <c r="C62" s="27"/>
+      <c r="D62" s="28"/>
+      <c r="E62" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="F62" s="28"/>
-      <c r="G62" s="28"/>
-      <c r="H62" s="28"/>
-      <c r="I62" s="28"/>
-      <c r="J62" s="28"/>
-      <c r="K62" s="28"/>
-    </row>
-    <row r="63" spans="1:11" ht="18.600000000000001" customHeight="1">
+      <c r="F62" s="29"/>
+      <c r="G62" s="29"/>
+      <c r="H62" s="29"/>
+      <c r="I62" s="29"/>
+      <c r="J62" s="29"/>
+      <c r="K62" s="29"/>
+    </row>
+    <row r="63" spans="1:11" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="15">
         <v>44805</v>
       </c>
-      <c r="B63" s="31"/>
-      <c r="C63" s="31"/>
-      <c r="D63" s="35"/>
-      <c r="E63" s="24" t="s">
+      <c r="B63" s="27"/>
+      <c r="C63" s="27"/>
+      <c r="D63" s="28"/>
+      <c r="E63" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="F63" s="24"/>
-      <c r="G63" s="24"/>
-      <c r="H63" s="24"/>
-      <c r="I63" s="24"/>
-      <c r="J63" s="24"/>
-      <c r="K63" s="24"/>
-    </row>
-    <row r="64" spans="1:11" ht="18.600000000000001" customHeight="1">
+      <c r="F63" s="25"/>
+      <c r="G63" s="25"/>
+      <c r="H63" s="25"/>
+      <c r="I63" s="25"/>
+      <c r="J63" s="25"/>
+      <c r="K63" s="25"/>
+    </row>
+    <row r="64" spans="1:11" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="16"/>
-      <c r="B64" s="31"/>
-      <c r="C64" s="31"/>
-      <c r="D64" s="35"/>
-      <c r="E64" s="24"/>
-      <c r="F64" s="24"/>
-      <c r="G64" s="24"/>
-      <c r="H64" s="24"/>
-      <c r="I64" s="24"/>
-      <c r="J64" s="24"/>
-      <c r="K64" s="24"/>
-    </row>
-    <row r="65" spans="1:11" ht="18.600000000000001" customHeight="1">
+      <c r="B64" s="27"/>
+      <c r="C64" s="27"/>
+      <c r="D64" s="28"/>
+      <c r="E64" s="25"/>
+      <c r="F64" s="25"/>
+      <c r="G64" s="25"/>
+      <c r="H64" s="25"/>
+      <c r="I64" s="25"/>
+      <c r="J64" s="25"/>
+      <c r="K64" s="25"/>
+    </row>
+    <row r="65" spans="1:11" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="16" t="str">
         <f>IF(OR($A61="",$A63=""),"",IF(DATEDIF($A61,$A63+31,"Y")=0,"",DATEDIF($A61,$A63+31,"Y")&amp;"年")&amp;IF(DATEDIF($A61,$A63+31,"YM")=0,"",DATEDIF($A61,$A63+31,"YM")&amp;"ヶ月"))</f>
         <v>8ヶ月</v>
       </c>
-      <c r="B65" s="31"/>
-      <c r="C65" s="31"/>
-      <c r="D65" s="35"/>
-      <c r="E65" s="28" t="s">
+      <c r="B65" s="27"/>
+      <c r="C65" s="27"/>
+      <c r="D65" s="28"/>
+      <c r="E65" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="F65" s="28"/>
-      <c r="G65" s="28"/>
-      <c r="H65" s="28"/>
-      <c r="I65" s="28"/>
-      <c r="J65" s="28"/>
-      <c r="K65" s="28"/>
-    </row>
-    <row r="66" spans="1:11" ht="23.1" customHeight="1">
+      <c r="F65" s="29"/>
+      <c r="G65" s="29"/>
+      <c r="H65" s="29"/>
+      <c r="I65" s="29"/>
+      <c r="J65" s="29"/>
+      <c r="K65" s="29"/>
+    </row>
+    <row r="66" spans="1:11" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="16"/>
-      <c r="B66" s="31"/>
-      <c r="C66" s="31"/>
-      <c r="D66" s="35"/>
+      <c r="B66" s="27"/>
+      <c r="C66" s="27"/>
+      <c r="D66" s="28"/>
       <c r="E66" s="23" t="s">
         <v>26</v>
       </c>
@@ -2637,11 +2637,11 @@
         <v>32</v>
       </c>
     </row>
-    <row r="67" spans="1:11" ht="18.600000000000001" customHeight="1">
+    <row r="67" spans="1:11" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="17"/>
-      <c r="B67" s="31"/>
-      <c r="C67" s="31"/>
-      <c r="D67" s="35"/>
+      <c r="B67" s="27"/>
+      <c r="C67" s="27"/>
+      <c r="D67" s="28"/>
       <c r="E67" s="18"/>
       <c r="F67" s="18"/>
       <c r="G67" s="18"/>
@@ -2652,14 +2652,14 @@
         <v>33</v>
       </c>
     </row>
-    <row r="68" spans="1:11" ht="18.600000000000001" customHeight="1">
+    <row r="68" spans="1:11" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="B68" s="24" t="s">
+      <c r="B68" s="25" t="s">
         <v>58</v>
       </c>
-      <c r="C68" s="24"/>
+      <c r="C68" s="25"/>
       <c r="D68" s="10" t="s">
         <v>17</v>
       </c>
@@ -2673,110 +2673,110 @@
       <c r="J68" s="26"/>
       <c r="K68" s="26"/>
     </row>
-    <row r="69" spans="1:11" ht="18.600000000000001" customHeight="1">
+    <row r="69" spans="1:11" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="14"/>
-      <c r="B69" s="31" t="s">
+      <c r="B69" s="27" t="s">
         <v>59</v>
       </c>
-      <c r="C69" s="31"/>
-      <c r="D69" s="31" t="s">
+      <c r="C69" s="27"/>
+      <c r="D69" s="27" t="s">
         <v>60</v>
       </c>
-      <c r="E69" s="24" t="s">
+      <c r="E69" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="F69" s="24"/>
-      <c r="G69" s="24"/>
-      <c r="H69" s="24"/>
-      <c r="I69" s="24"/>
-      <c r="J69" s="24"/>
-      <c r="K69" s="24"/>
-    </row>
-    <row r="70" spans="1:11" ht="18.600000000000001" customHeight="1">
+      <c r="F69" s="25"/>
+      <c r="G69" s="25"/>
+      <c r="H69" s="25"/>
+      <c r="I69" s="25"/>
+      <c r="J69" s="25"/>
+      <c r="K69" s="25"/>
+    </row>
+    <row r="70" spans="1:11" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="15">
         <v>44835</v>
       </c>
-      <c r="B70" s="31"/>
-      <c r="C70" s="31"/>
-      <c r="D70" s="35"/>
-      <c r="E70" s="24"/>
-      <c r="F70" s="24"/>
-      <c r="G70" s="24"/>
-      <c r="H70" s="24"/>
-      <c r="I70" s="24"/>
-      <c r="J70" s="24"/>
-      <c r="K70" s="24"/>
-    </row>
-    <row r="71" spans="1:11" ht="18.600000000000001" customHeight="1">
+      <c r="B70" s="27"/>
+      <c r="C70" s="27"/>
+      <c r="D70" s="28"/>
+      <c r="E70" s="25"/>
+      <c r="F70" s="25"/>
+      <c r="G70" s="25"/>
+      <c r="H70" s="25"/>
+      <c r="I70" s="25"/>
+      <c r="J70" s="25"/>
+      <c r="K70" s="25"/>
+    </row>
+    <row r="71" spans="1:11" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="B71" s="31"/>
-      <c r="C71" s="31"/>
-      <c r="D71" s="35"/>
-      <c r="E71" s="28" t="s">
+      <c r="B71" s="27"/>
+      <c r="C71" s="27"/>
+      <c r="D71" s="28"/>
+      <c r="E71" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="F71" s="28"/>
-      <c r="G71" s="28"/>
-      <c r="H71" s="28"/>
-      <c r="I71" s="28"/>
-      <c r="J71" s="28"/>
-      <c r="K71" s="28"/>
-    </row>
-    <row r="72" spans="1:11" ht="18.600000000000001" customHeight="1">
+      <c r="F71" s="29"/>
+      <c r="G71" s="29"/>
+      <c r="H71" s="29"/>
+      <c r="I71" s="29"/>
+      <c r="J71" s="29"/>
+      <c r="K71" s="29"/>
+    </row>
+    <row r="72" spans="1:11" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="15">
         <v>44986</v>
       </c>
-      <c r="B72" s="31"/>
-      <c r="C72" s="31"/>
-      <c r="D72" s="35"/>
-      <c r="E72" s="24" t="s">
+      <c r="B72" s="27"/>
+      <c r="C72" s="27"/>
+      <c r="D72" s="28"/>
+      <c r="E72" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="F72" s="24"/>
-      <c r="G72" s="24"/>
-      <c r="H72" s="24"/>
-      <c r="I72" s="24"/>
-      <c r="J72" s="24"/>
-      <c r="K72" s="24"/>
-    </row>
-    <row r="73" spans="1:11" ht="18.600000000000001" customHeight="1">
+      <c r="F72" s="25"/>
+      <c r="G72" s="25"/>
+      <c r="H72" s="25"/>
+      <c r="I72" s="25"/>
+      <c r="J72" s="25"/>
+      <c r="K72" s="25"/>
+    </row>
+    <row r="73" spans="1:11" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="16"/>
-      <c r="B73" s="31"/>
-      <c r="C73" s="31"/>
-      <c r="D73" s="35"/>
-      <c r="E73" s="24"/>
-      <c r="F73" s="24"/>
-      <c r="G73" s="24"/>
-      <c r="H73" s="24"/>
-      <c r="I73" s="24"/>
-      <c r="J73" s="24"/>
-      <c r="K73" s="24"/>
-    </row>
-    <row r="74" spans="1:11" ht="18.600000000000001" customHeight="1">
+      <c r="B73" s="27"/>
+      <c r="C73" s="27"/>
+      <c r="D73" s="28"/>
+      <c r="E73" s="25"/>
+      <c r="F73" s="25"/>
+      <c r="G73" s="25"/>
+      <c r="H73" s="25"/>
+      <c r="I73" s="25"/>
+      <c r="J73" s="25"/>
+      <c r="K73" s="25"/>
+    </row>
+    <row r="74" spans="1:11" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="16" t="str">
         <f>IF(OR($A70="",$A72=""),"",IF(DATEDIF($A70,$A72+31,"Y")=0,"",DATEDIF($A70,$A72+31,"Y")&amp;"年")&amp;IF(DATEDIF($A70,$A72+31,"YM")=0,"",DATEDIF($A70,$A72+31,"YM")&amp;"ヶ月"))</f>
         <v>6ヶ月</v>
       </c>
-      <c r="B74" s="31"/>
-      <c r="C74" s="31"/>
-      <c r="D74" s="35"/>
-      <c r="E74" s="28" t="s">
+      <c r="B74" s="27"/>
+      <c r="C74" s="27"/>
+      <c r="D74" s="28"/>
+      <c r="E74" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="F74" s="28"/>
-      <c r="G74" s="28"/>
-      <c r="H74" s="28"/>
-      <c r="I74" s="28"/>
-      <c r="J74" s="28"/>
-      <c r="K74" s="28"/>
-    </row>
-    <row r="75" spans="1:11" ht="23.1" customHeight="1">
+      <c r="F74" s="29"/>
+      <c r="G74" s="29"/>
+      <c r="H74" s="29"/>
+      <c r="I74" s="29"/>
+      <c r="J74" s="29"/>
+      <c r="K74" s="29"/>
+    </row>
+    <row r="75" spans="1:11" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="16"/>
-      <c r="B75" s="31"/>
-      <c r="C75" s="31"/>
-      <c r="D75" s="35"/>
+      <c r="B75" s="27"/>
+      <c r="C75" s="27"/>
+      <c r="D75" s="28"/>
       <c r="E75" s="23" t="s">
         <v>26</v>
       </c>
@@ -2799,11 +2799,11 @@
         <v>32</v>
       </c>
     </row>
-    <row r="76" spans="1:11" ht="18.600000000000001" customHeight="1">
+    <row r="76" spans="1:11" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="17"/>
-      <c r="B76" s="31"/>
-      <c r="C76" s="31"/>
-      <c r="D76" s="35"/>
+      <c r="B76" s="27"/>
+      <c r="C76" s="27"/>
+      <c r="D76" s="28"/>
       <c r="E76" s="18"/>
       <c r="F76" s="18"/>
       <c r="G76" s="18"/>
@@ -2816,7 +2816,7 @@
       </c>
       <c r="K76" s="18"/>
     </row>
-    <row r="77" spans="1:11" ht="18.600000000000001" customHeight="1">
+    <row r="77" spans="1:11" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="11"/>
       <c r="B77" s="11"/>
       <c r="C77" s="11"/>
@@ -2829,139 +2829,122 @@
       <c r="J77" s="11"/>
       <c r="K77" s="11"/>
     </row>
-    <row r="78" spans="1:11" ht="18.600000000000001" customHeight="1">
-      <c r="A78" s="32" t="s">
+    <row r="78" spans="1:11" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="39" t="s">
         <v>61</v>
       </c>
-      <c r="B78" s="33"/>
-      <c r="C78" s="33"/>
-      <c r="D78" s="33"/>
-      <c r="E78" s="33"/>
-      <c r="F78" s="33"/>
-      <c r="G78" s="33"/>
-      <c r="H78" s="33"/>
-      <c r="I78" s="33"/>
-      <c r="J78" s="33"/>
-      <c r="K78" s="34"/>
-    </row>
-    <row r="79" spans="1:11" ht="18.600000000000001" customHeight="1">
-      <c r="A79" s="59" t="s">
+      <c r="B78" s="40"/>
+      <c r="C78" s="40"/>
+      <c r="D78" s="40"/>
+      <c r="E78" s="40"/>
+      <c r="F78" s="40"/>
+      <c r="G78" s="40"/>
+      <c r="H78" s="40"/>
+      <c r="I78" s="40"/>
+      <c r="J78" s="40"/>
+      <c r="K78" s="41"/>
+    </row>
+    <row r="79" spans="1:11" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="30" t="s">
         <v>62</v>
       </c>
-      <c r="B79" s="60"/>
-      <c r="C79" s="60"/>
-      <c r="D79" s="60"/>
-      <c r="E79" s="60"/>
-      <c r="F79" s="60"/>
-      <c r="G79" s="60"/>
-      <c r="H79" s="60"/>
-      <c r="I79" s="60"/>
-      <c r="J79" s="60"/>
-      <c r="K79" s="61"/>
-    </row>
-    <row r="80" spans="1:11" ht="18.600000000000001" customHeight="1">
-      <c r="A80" s="62"/>
-      <c r="B80" s="63"/>
-      <c r="C80" s="63"/>
-      <c r="D80" s="63"/>
-      <c r="E80" s="63"/>
-      <c r="F80" s="63"/>
-      <c r="G80" s="63"/>
-      <c r="H80" s="63"/>
-      <c r="I80" s="63"/>
-      <c r="J80" s="63"/>
-      <c r="K80" s="64"/>
-    </row>
-    <row r="81" spans="1:11" ht="18.600000000000001" customHeight="1">
-      <c r="A81" s="62"/>
-      <c r="B81" s="63"/>
-      <c r="C81" s="63"/>
-      <c r="D81" s="63"/>
-      <c r="E81" s="63"/>
-      <c r="F81" s="63"/>
-      <c r="G81" s="63"/>
-      <c r="H81" s="63"/>
-      <c r="I81" s="63"/>
-      <c r="J81" s="63"/>
-      <c r="K81" s="64"/>
-    </row>
-    <row r="82" spans="1:11" ht="18.600000000000001" customHeight="1">
-      <c r="A82" s="62"/>
-      <c r="B82" s="63"/>
-      <c r="C82" s="63"/>
-      <c r="D82" s="63"/>
-      <c r="E82" s="63"/>
-      <c r="F82" s="63"/>
-      <c r="G82" s="63"/>
-      <c r="H82" s="63"/>
-      <c r="I82" s="63"/>
-      <c r="J82" s="63"/>
-      <c r="K82" s="64"/>
-    </row>
-    <row r="83" spans="1:11" ht="18.600000000000001" customHeight="1">
-      <c r="A83" s="62"/>
-      <c r="B83" s="63"/>
-      <c r="C83" s="63"/>
-      <c r="D83" s="63"/>
-      <c r="E83" s="63"/>
-      <c r="F83" s="63"/>
-      <c r="G83" s="63"/>
-      <c r="H83" s="63"/>
-      <c r="I83" s="63"/>
-      <c r="J83" s="63"/>
-      <c r="K83" s="64"/>
-    </row>
-    <row r="84" spans="1:11" ht="18.600000000000001" customHeight="1">
-      <c r="A84" s="65"/>
-      <c r="B84" s="66"/>
-      <c r="C84" s="66"/>
-      <c r="D84" s="66"/>
-      <c r="E84" s="66"/>
-      <c r="F84" s="66"/>
-      <c r="G84" s="66"/>
-      <c r="H84" s="66"/>
-      <c r="I84" s="66"/>
-      <c r="J84" s="66"/>
-      <c r="K84" s="67"/>
+      <c r="B79" s="31"/>
+      <c r="C79" s="31"/>
+      <c r="D79" s="31"/>
+      <c r="E79" s="31"/>
+      <c r="F79" s="31"/>
+      <c r="G79" s="31"/>
+      <c r="H79" s="31"/>
+      <c r="I79" s="31"/>
+      <c r="J79" s="31"/>
+      <c r="K79" s="32"/>
+    </row>
+    <row r="80" spans="1:11" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="33"/>
+      <c r="B80" s="34"/>
+      <c r="C80" s="34"/>
+      <c r="D80" s="34"/>
+      <c r="E80" s="34"/>
+      <c r="F80" s="34"/>
+      <c r="G80" s="34"/>
+      <c r="H80" s="34"/>
+      <c r="I80" s="34"/>
+      <c r="J80" s="34"/>
+      <c r="K80" s="35"/>
+    </row>
+    <row r="81" spans="1:11" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="33"/>
+      <c r="B81" s="34"/>
+      <c r="C81" s="34"/>
+      <c r="D81" s="34"/>
+      <c r="E81" s="34"/>
+      <c r="F81" s="34"/>
+      <c r="G81" s="34"/>
+      <c r="H81" s="34"/>
+      <c r="I81" s="34"/>
+      <c r="J81" s="34"/>
+      <c r="K81" s="35"/>
+    </row>
+    <row r="82" spans="1:11" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="33"/>
+      <c r="B82" s="34"/>
+      <c r="C82" s="34"/>
+      <c r="D82" s="34"/>
+      <c r="E82" s="34"/>
+      <c r="F82" s="34"/>
+      <c r="G82" s="34"/>
+      <c r="H82" s="34"/>
+      <c r="I82" s="34"/>
+      <c r="J82" s="34"/>
+      <c r="K82" s="35"/>
+    </row>
+    <row r="83" spans="1:11" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="33"/>
+      <c r="B83" s="34"/>
+      <c r="C83" s="34"/>
+      <c r="D83" s="34"/>
+      <c r="E83" s="34"/>
+      <c r="F83" s="34"/>
+      <c r="G83" s="34"/>
+      <c r="H83" s="34"/>
+      <c r="I83" s="34"/>
+      <c r="J83" s="34"/>
+      <c r="K83" s="35"/>
+    </row>
+    <row r="84" spans="1:11" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="36"/>
+      <c r="B84" s="37"/>
+      <c r="C84" s="37"/>
+      <c r="D84" s="37"/>
+      <c r="E84" s="37"/>
+      <c r="F84" s="37"/>
+      <c r="G84" s="37"/>
+      <c r="H84" s="37"/>
+      <c r="I84" s="37"/>
+      <c r="J84" s="37"/>
+      <c r="K84" s="38"/>
     </row>
   </sheetData>
   <mergeCells count="71">
-    <mergeCell ref="E1:K1"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="E59:K59"/>
-    <mergeCell ref="B60:C67"/>
-    <mergeCell ref="D60:D67"/>
-    <mergeCell ref="E60:K61"/>
-    <mergeCell ref="E62:K62"/>
-    <mergeCell ref="E63:K64"/>
-    <mergeCell ref="E65:K65"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="E68:K68"/>
-    <mergeCell ref="B69:C76"/>
-    <mergeCell ref="D69:D76"/>
-    <mergeCell ref="E69:K70"/>
-    <mergeCell ref="E71:K71"/>
-    <mergeCell ref="E72:K73"/>
-    <mergeCell ref="E74:K74"/>
-    <mergeCell ref="B51:C58"/>
-    <mergeCell ref="D51:D58"/>
-    <mergeCell ref="E51:K52"/>
-    <mergeCell ref="E53:K53"/>
-    <mergeCell ref="E54:K55"/>
-    <mergeCell ref="E56:K56"/>
-    <mergeCell ref="E39:K39"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B49:K49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="E50:K50"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="E34:K35"/>
-    <mergeCell ref="E36:K36"/>
-    <mergeCell ref="B40:C47"/>
-    <mergeCell ref="D40:D47"/>
-    <mergeCell ref="E42:K42"/>
-    <mergeCell ref="E43:K44"/>
-    <mergeCell ref="E45:K45"/>
+    <mergeCell ref="B11:K11"/>
+    <mergeCell ref="E7:K9"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:D6"/>
+    <mergeCell ref="E3:K6"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:C6"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="B7:C9"/>
+    <mergeCell ref="D7:D9"/>
+    <mergeCell ref="E12:K12"/>
+    <mergeCell ref="B13:C20"/>
+    <mergeCell ref="D13:D20"/>
+    <mergeCell ref="E13:K14"/>
+    <mergeCell ref="E15:K15"/>
+    <mergeCell ref="E16:K17"/>
+    <mergeCell ref="E18:K18"/>
+    <mergeCell ref="B12:C12"/>
     <mergeCell ref="A79:K84"/>
     <mergeCell ref="A78:K78"/>
     <mergeCell ref="E40:K41"/>
@@ -2978,25 +2961,42 @@
     <mergeCell ref="E31:K32"/>
     <mergeCell ref="E33:K33"/>
     <mergeCell ref="E27:K27"/>
-    <mergeCell ref="E12:K12"/>
-    <mergeCell ref="B13:C20"/>
-    <mergeCell ref="D13:D20"/>
-    <mergeCell ref="E13:K14"/>
-    <mergeCell ref="E15:K15"/>
-    <mergeCell ref="E16:K17"/>
-    <mergeCell ref="E18:K18"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:C6"/>
-    <mergeCell ref="A7:A9"/>
-    <mergeCell ref="B7:C9"/>
-    <mergeCell ref="D7:D9"/>
-    <mergeCell ref="B11:K11"/>
-    <mergeCell ref="E7:K9"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:D6"/>
-    <mergeCell ref="E3:K6"/>
-    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B49:K49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="E50:K50"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="E34:K35"/>
+    <mergeCell ref="E36:K36"/>
+    <mergeCell ref="B40:C47"/>
+    <mergeCell ref="D40:D47"/>
+    <mergeCell ref="E42:K42"/>
+    <mergeCell ref="E43:K44"/>
+    <mergeCell ref="E45:K45"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="E68:K68"/>
+    <mergeCell ref="B69:C76"/>
+    <mergeCell ref="D69:D76"/>
+    <mergeCell ref="E69:K70"/>
+    <mergeCell ref="E71:K71"/>
+    <mergeCell ref="E72:K73"/>
+    <mergeCell ref="E74:K74"/>
+    <mergeCell ref="E1:K1"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="E59:K59"/>
+    <mergeCell ref="B60:C67"/>
+    <mergeCell ref="D60:D67"/>
+    <mergeCell ref="E60:K61"/>
+    <mergeCell ref="E62:K62"/>
+    <mergeCell ref="E63:K64"/>
+    <mergeCell ref="E65:K65"/>
+    <mergeCell ref="B51:C58"/>
+    <mergeCell ref="D51:D58"/>
+    <mergeCell ref="E51:K52"/>
+    <mergeCell ref="E53:K53"/>
+    <mergeCell ref="E54:K55"/>
+    <mergeCell ref="E56:K56"/>
+    <mergeCell ref="E39:K39"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3018,31 +3018,31 @@
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12"/>
+  <sheetFormatPr defaultColWidth="8.73046875" defaultRowHeight="12" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.75" style="5" customWidth="1"/>
-    <col min="2" max="2" width="9.625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="8.75" style="2"/>
-    <col min="4" max="4" width="45.125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="11.125" style="2" customWidth="1"/>
-    <col min="6" max="12" width="3.75" style="2" customWidth="1"/>
-    <col min="13" max="13" width="1.75" style="5" customWidth="1"/>
-    <col min="14" max="14" width="8.75" style="5"/>
-    <col min="15" max="16384" width="8.75" style="2"/>
+    <col min="1" max="1" width="8.73046875" style="5" customWidth="1"/>
+    <col min="2" max="2" width="9.59765625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="8.73046875" style="2"/>
+    <col min="4" max="4" width="45.1328125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="11.1328125" style="2" customWidth="1"/>
+    <col min="6" max="12" width="3.73046875" style="2" customWidth="1"/>
+    <col min="13" max="13" width="1.73046875" style="5" customWidth="1"/>
+    <col min="14" max="14" width="8.73046875" style="5"/>
+    <col min="15" max="16384" width="8.73046875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12" s="5" customFormat="1" ht="18.600000000000001" customHeight="1">
-      <c r="F1" s="36" t="s">
+    <row r="1" spans="2:12" s="5" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F1" s="65" t="s">
         <v>63</v>
       </c>
-      <c r="G1" s="36"/>
-      <c r="H1" s="36"/>
-      <c r="I1" s="37"/>
-      <c r="J1" s="37"/>
-      <c r="K1" s="37"/>
-      <c r="L1" s="37"/>
-    </row>
-    <row r="2" spans="2:12" s="5" customFormat="1" ht="18.600000000000001" customHeight="1">
+      <c r="G1" s="65"/>
+      <c r="H1" s="65"/>
+      <c r="I1" s="66"/>
+      <c r="J1" s="66"/>
+      <c r="K1" s="66"/>
+      <c r="L1" s="66"/>
+    </row>
+    <row r="2" spans="2:12" s="5" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="6" t="s">
         <v>0</v>
       </c>
@@ -3057,86 +3057,86 @@
       <c r="K2" s="7"/>
       <c r="L2" s="7"/>
     </row>
-    <row r="3" spans="2:12" ht="18.600000000000001" customHeight="1">
+    <row r="3" spans="2:12" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="53" t="s">
+      <c r="C3" s="50" t="s">
         <v>64</v>
       </c>
-      <c r="D3" s="53"/>
-      <c r="E3" s="38" t="s">
+      <c r="D3" s="50"/>
+      <c r="E3" s="52" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="39" t="s">
+      <c r="F3" s="67" t="s">
         <v>65</v>
       </c>
-      <c r="G3" s="39"/>
-      <c r="H3" s="39"/>
-      <c r="I3" s="39"/>
-      <c r="J3" s="39"/>
-      <c r="K3" s="39"/>
-      <c r="L3" s="39"/>
-    </row>
-    <row r="4" spans="2:12" ht="18.600000000000001" customHeight="1">
+      <c r="G3" s="67"/>
+      <c r="H3" s="67"/>
+      <c r="I3" s="67"/>
+      <c r="J3" s="67"/>
+      <c r="K3" s="67"/>
+      <c r="L3" s="67"/>
+    </row>
+    <row r="4" spans="2:12" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="53" t="s">
+      <c r="C4" s="50" t="s">
         <v>66</v>
       </c>
-      <c r="D4" s="53"/>
-      <c r="E4" s="38"/>
-      <c r="F4" s="39"/>
-      <c r="G4" s="39"/>
-      <c r="H4" s="39"/>
-      <c r="I4" s="39"/>
-      <c r="J4" s="39"/>
-      <c r="K4" s="39"/>
-      <c r="L4" s="39"/>
-    </row>
-    <row r="5" spans="2:12" ht="18.600000000000001" customHeight="1">
-      <c r="B5" s="55" t="s">
+      <c r="D4" s="50"/>
+      <c r="E4" s="52"/>
+      <c r="F4" s="67"/>
+      <c r="G4" s="67"/>
+      <c r="H4" s="67"/>
+      <c r="I4" s="67"/>
+      <c r="J4" s="67"/>
+      <c r="K4" s="67"/>
+      <c r="L4" s="67"/>
+    </row>
+    <row r="5" spans="2:12" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="54" t="s">
+      <c r="C5" s="49" t="s">
         <v>67</v>
       </c>
-      <c r="D5" s="53"/>
-      <c r="E5" s="38"/>
-      <c r="F5" s="39"/>
-      <c r="G5" s="39"/>
-      <c r="H5" s="39"/>
-      <c r="I5" s="39"/>
-      <c r="J5" s="39"/>
-      <c r="K5" s="39"/>
-      <c r="L5" s="39"/>
-    </row>
-    <row r="6" spans="2:12" ht="18.600000000000001" customHeight="1">
-      <c r="B6" s="55"/>
-      <c r="C6" s="53"/>
-      <c r="D6" s="53"/>
-      <c r="E6" s="38"/>
-      <c r="F6" s="39"/>
-      <c r="G6" s="39"/>
-      <c r="H6" s="39"/>
-      <c r="I6" s="39"/>
-      <c r="J6" s="39"/>
-      <c r="K6" s="39"/>
-      <c r="L6" s="39"/>
-    </row>
-    <row r="7" spans="2:12" ht="18.600000000000001" customHeight="1">
-      <c r="B7" s="38" t="s">
+      <c r="D5" s="50"/>
+      <c r="E5" s="52"/>
+      <c r="F5" s="67"/>
+      <c r="G5" s="67"/>
+      <c r="H5" s="67"/>
+      <c r="I5" s="67"/>
+      <c r="J5" s="67"/>
+      <c r="K5" s="67"/>
+      <c r="L5" s="67"/>
+    </row>
+    <row r="6" spans="2:12" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="51"/>
+      <c r="C6" s="50"/>
+      <c r="D6" s="50"/>
+      <c r="E6" s="52"/>
+      <c r="F6" s="67"/>
+      <c r="G6" s="67"/>
+      <c r="H6" s="67"/>
+      <c r="I6" s="67"/>
+      <c r="J6" s="67"/>
+      <c r="K6" s="67"/>
+      <c r="L6" s="67"/>
+    </row>
+    <row r="7" spans="2:12" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="52" t="s">
         <v>68</v>
       </c>
-      <c r="C7" s="54" t="s">
+      <c r="C7" s="49" t="s">
         <v>69</v>
       </c>
-      <c r="D7" s="54"/>
-      <c r="E7" s="38" t="s">
+      <c r="D7" s="49"/>
+      <c r="E7" s="52" t="s">
         <v>70</v>
       </c>
-      <c r="F7" s="40" t="s">
+      <c r="F7" s="68" t="s">
         <v>71</v>
       </c>
       <c r="G7" s="69"/>
@@ -3146,11 +3146,11 @@
       <c r="K7" s="69"/>
       <c r="L7" s="69"/>
     </row>
-    <row r="8" spans="2:12" ht="18.600000000000001" customHeight="1">
-      <c r="B8" s="38"/>
-      <c r="C8" s="54"/>
-      <c r="D8" s="54"/>
-      <c r="E8" s="38"/>
+    <row r="8" spans="2:12" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="52"/>
+      <c r="C8" s="49"/>
+      <c r="D8" s="49"/>
+      <c r="E8" s="52"/>
       <c r="F8" s="69"/>
       <c r="G8" s="69"/>
       <c r="H8" s="69"/>
@@ -3159,11 +3159,11 @@
       <c r="K8" s="69"/>
       <c r="L8" s="69"/>
     </row>
-    <row r="9" spans="2:12" ht="18.600000000000001" customHeight="1">
-      <c r="B9" s="38"/>
-      <c r="C9" s="54"/>
-      <c r="D9" s="54"/>
-      <c r="E9" s="38"/>
+    <row r="9" spans="2:12" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="52"/>
+      <c r="C9" s="49"/>
+      <c r="D9" s="49"/>
+      <c r="E9" s="52"/>
       <c r="F9" s="69"/>
       <c r="G9" s="69"/>
       <c r="H9" s="69"/>
@@ -3172,25 +3172,25 @@
       <c r="K9" s="69"/>
       <c r="L9" s="69"/>
     </row>
-    <row r="10" spans="2:12" s="5" customFormat="1" ht="18.600000000000001" customHeight="1"/>
-    <row r="11" spans="2:12" ht="18.600000000000001" customHeight="1">
+    <row r="10" spans="2:12" s="5" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="2:12" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="53" t="s">
+      <c r="C11" s="50" t="s">
         <v>72</v>
       </c>
-      <c r="D11" s="53"/>
-      <c r="E11" s="53"/>
-      <c r="F11" s="53"/>
-      <c r="G11" s="53"/>
-      <c r="H11" s="53"/>
-      <c r="I11" s="53"/>
-      <c r="J11" s="53"/>
-      <c r="K11" s="53"/>
-      <c r="L11" s="53"/>
-    </row>
-    <row r="12" spans="2:12" ht="18.600000000000001" customHeight="1">
+      <c r="D11" s="50"/>
+      <c r="E11" s="50"/>
+      <c r="F11" s="50"/>
+      <c r="G11" s="50"/>
+      <c r="H11" s="50"/>
+      <c r="I11" s="50"/>
+      <c r="J11" s="50"/>
+      <c r="K11" s="50"/>
+      <c r="L11" s="50"/>
+    </row>
+    <row r="12" spans="2:12" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
         <v>15</v>
       </c>
@@ -3201,113 +3201,113 @@
       <c r="E12" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F12" s="38" t="s">
+      <c r="F12" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="G12" s="38"/>
-      <c r="H12" s="38"/>
-      <c r="I12" s="38"/>
-      <c r="J12" s="38"/>
-      <c r="K12" s="38"/>
-      <c r="L12" s="38"/>
-    </row>
-    <row r="13" spans="2:12" ht="18.600000000000001" customHeight="1">
-      <c r="B13" s="56" t="s">
+      <c r="G12" s="52"/>
+      <c r="H12" s="52"/>
+      <c r="I12" s="52"/>
+      <c r="J12" s="52"/>
+      <c r="K12" s="52"/>
+      <c r="L12" s="52"/>
+    </row>
+    <row r="13" spans="2:12" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="47" t="s">
         <v>74</v>
       </c>
-      <c r="C13" s="56" t="s">
+      <c r="C13" s="47" t="s">
         <v>75</v>
       </c>
-      <c r="D13" s="57"/>
-      <c r="E13" s="56" t="s">
+      <c r="D13" s="48"/>
+      <c r="E13" s="47" t="s">
         <v>76</v>
       </c>
-      <c r="F13" s="54" t="s">
+      <c r="F13" s="49" t="s">
         <v>77</v>
       </c>
-      <c r="G13" s="53"/>
-      <c r="H13" s="53"/>
-      <c r="I13" s="53"/>
-      <c r="J13" s="53"/>
-      <c r="K13" s="53"/>
-      <c r="L13" s="53"/>
-    </row>
-    <row r="14" spans="2:12" ht="18.600000000000001" customHeight="1">
-      <c r="B14" s="57"/>
-      <c r="C14" s="57"/>
-      <c r="D14" s="57"/>
-      <c r="E14" s="57"/>
-      <c r="F14" s="53"/>
-      <c r="G14" s="53"/>
-      <c r="H14" s="53"/>
-      <c r="I14" s="53"/>
-      <c r="J14" s="53"/>
-      <c r="K14" s="53"/>
-      <c r="L14" s="53"/>
-    </row>
-    <row r="15" spans="2:12" ht="18.600000000000001" customHeight="1">
-      <c r="B15" s="57"/>
-      <c r="C15" s="57"/>
-      <c r="D15" s="57"/>
-      <c r="E15" s="57"/>
-      <c r="F15" s="55" t="s">
+      <c r="G13" s="50"/>
+      <c r="H13" s="50"/>
+      <c r="I13" s="50"/>
+      <c r="J13" s="50"/>
+      <c r="K13" s="50"/>
+      <c r="L13" s="50"/>
+    </row>
+    <row r="14" spans="2:12" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="48"/>
+      <c r="C14" s="48"/>
+      <c r="D14" s="48"/>
+      <c r="E14" s="48"/>
+      <c r="F14" s="50"/>
+      <c r="G14" s="50"/>
+      <c r="H14" s="50"/>
+      <c r="I14" s="50"/>
+      <c r="J14" s="50"/>
+      <c r="K14" s="50"/>
+      <c r="L14" s="50"/>
+    </row>
+    <row r="15" spans="2:12" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="48"/>
+      <c r="C15" s="48"/>
+      <c r="D15" s="48"/>
+      <c r="E15" s="48"/>
+      <c r="F15" s="51" t="s">
         <v>23</v>
       </c>
-      <c r="G15" s="55"/>
-      <c r="H15" s="55"/>
-      <c r="I15" s="55"/>
-      <c r="J15" s="55"/>
-      <c r="K15" s="55"/>
-      <c r="L15" s="55"/>
-    </row>
-    <row r="16" spans="2:12" ht="18.600000000000001" customHeight="1">
-      <c r="B16" s="57"/>
-      <c r="C16" s="57"/>
-      <c r="D16" s="57"/>
-      <c r="E16" s="57"/>
-      <c r="F16" s="53" t="s">
+      <c r="G15" s="51"/>
+      <c r="H15" s="51"/>
+      <c r="I15" s="51"/>
+      <c r="J15" s="51"/>
+      <c r="K15" s="51"/>
+      <c r="L15" s="51"/>
+    </row>
+    <row r="16" spans="2:12" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="48"/>
+      <c r="C16" s="48"/>
+      <c r="D16" s="48"/>
+      <c r="E16" s="48"/>
+      <c r="F16" s="50" t="s">
         <v>78</v>
       </c>
-      <c r="G16" s="53"/>
-      <c r="H16" s="53"/>
-      <c r="I16" s="53"/>
-      <c r="J16" s="53"/>
-      <c r="K16" s="53"/>
-      <c r="L16" s="53"/>
-    </row>
-    <row r="17" spans="2:12" ht="18.600000000000001" customHeight="1">
-      <c r="B17" s="57"/>
-      <c r="C17" s="57"/>
-      <c r="D17" s="57"/>
-      <c r="E17" s="57"/>
-      <c r="F17" s="53"/>
-      <c r="G17" s="53"/>
-      <c r="H17" s="53"/>
-      <c r="I17" s="53"/>
-      <c r="J17" s="53"/>
-      <c r="K17" s="53"/>
-      <c r="L17" s="53"/>
-    </row>
-    <row r="18" spans="2:12" ht="18.600000000000001" customHeight="1">
-      <c r="B18" s="57"/>
-      <c r="C18" s="57"/>
-      <c r="D18" s="57"/>
-      <c r="E18" s="57"/>
-      <c r="F18" s="55" t="s">
+      <c r="G16" s="50"/>
+      <c r="H16" s="50"/>
+      <c r="I16" s="50"/>
+      <c r="J16" s="50"/>
+      <c r="K16" s="50"/>
+      <c r="L16" s="50"/>
+    </row>
+    <row r="17" spans="2:12" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="48"/>
+      <c r="C17" s="48"/>
+      <c r="D17" s="48"/>
+      <c r="E17" s="48"/>
+      <c r="F17" s="50"/>
+      <c r="G17" s="50"/>
+      <c r="H17" s="50"/>
+      <c r="I17" s="50"/>
+      <c r="J17" s="50"/>
+      <c r="K17" s="50"/>
+      <c r="L17" s="50"/>
+    </row>
+    <row r="18" spans="2:12" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="48"/>
+      <c r="C18" s="48"/>
+      <c r="D18" s="48"/>
+      <c r="E18" s="48"/>
+      <c r="F18" s="51" t="s">
         <v>25</v>
       </c>
-      <c r="G18" s="55"/>
-      <c r="H18" s="55"/>
-      <c r="I18" s="55"/>
-      <c r="J18" s="55"/>
-      <c r="K18" s="55"/>
-      <c r="L18" s="55"/>
-    </row>
-    <row r="19" spans="2:12" ht="23.1" customHeight="1">
-      <c r="B19" s="57"/>
-      <c r="C19" s="57"/>
-      <c r="D19" s="57"/>
-      <c r="E19" s="57"/>
+      <c r="G18" s="51"/>
+      <c r="H18" s="51"/>
+      <c r="I18" s="51"/>
+      <c r="J18" s="51"/>
+      <c r="K18" s="51"/>
+      <c r="L18" s="51"/>
+    </row>
+    <row r="19" spans="2:12" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="48"/>
+      <c r="C19" s="48"/>
+      <c r="D19" s="48"/>
+      <c r="E19" s="48"/>
       <c r="F19" s="4" t="s">
         <v>26</v>
       </c>
@@ -3330,11 +3330,11 @@
         <v>32</v>
       </c>
     </row>
-    <row r="20" spans="2:12" ht="18.600000000000001" customHeight="1">
-      <c r="B20" s="57"/>
-      <c r="C20" s="57"/>
-      <c r="D20" s="57"/>
-      <c r="E20" s="57"/>
+    <row r="20" spans="2:12" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="48"/>
+      <c r="C20" s="48"/>
+      <c r="D20" s="48"/>
+      <c r="E20" s="48"/>
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
       <c r="H20" s="3" t="s">
@@ -3349,7 +3349,7 @@
       <c r="K20" s="3"/>
       <c r="L20" s="3"/>
     </row>
-    <row r="21" spans="2:12" ht="18.600000000000001" customHeight="1">
+    <row r="21" spans="2:12" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="1" t="s">
         <v>15</v>
       </c>
@@ -3360,113 +3360,113 @@
       <c r="E21" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F21" s="38" t="s">
+      <c r="F21" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="G21" s="38"/>
-      <c r="H21" s="38"/>
-      <c r="I21" s="38"/>
-      <c r="J21" s="38"/>
-      <c r="K21" s="38"/>
-      <c r="L21" s="38"/>
-    </row>
-    <row r="22" spans="2:12" ht="18.600000000000001" customHeight="1">
-      <c r="B22" s="56" t="s">
+      <c r="G21" s="52"/>
+      <c r="H21" s="52"/>
+      <c r="I21" s="52"/>
+      <c r="J21" s="52"/>
+      <c r="K21" s="52"/>
+      <c r="L21" s="52"/>
+    </row>
+    <row r="22" spans="2:12" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="47" t="s">
         <v>74</v>
       </c>
-      <c r="C22" s="56" t="s">
+      <c r="C22" s="47" t="s">
         <v>81</v>
       </c>
-      <c r="D22" s="57"/>
-      <c r="E22" s="56" t="s">
+      <c r="D22" s="48"/>
+      <c r="E22" s="47" t="s">
         <v>82</v>
       </c>
-      <c r="F22" s="54" t="s">
+      <c r="F22" s="49" t="s">
         <v>83</v>
       </c>
-      <c r="G22" s="53"/>
-      <c r="H22" s="53"/>
-      <c r="I22" s="53"/>
-      <c r="J22" s="53"/>
-      <c r="K22" s="53"/>
-      <c r="L22" s="53"/>
-    </row>
-    <row r="23" spans="2:12" ht="18.600000000000001" customHeight="1">
-      <c r="B23" s="57"/>
-      <c r="C23" s="57"/>
-      <c r="D23" s="57"/>
-      <c r="E23" s="57"/>
-      <c r="F23" s="53"/>
-      <c r="G23" s="53"/>
-      <c r="H23" s="53"/>
-      <c r="I23" s="53"/>
-      <c r="J23" s="53"/>
-      <c r="K23" s="53"/>
-      <c r="L23" s="53"/>
-    </row>
-    <row r="24" spans="2:12" ht="18.600000000000001" customHeight="1">
-      <c r="B24" s="57"/>
-      <c r="C24" s="57"/>
-      <c r="D24" s="57"/>
-      <c r="E24" s="57"/>
-      <c r="F24" s="55" t="s">
+      <c r="G22" s="50"/>
+      <c r="H22" s="50"/>
+      <c r="I22" s="50"/>
+      <c r="J22" s="50"/>
+      <c r="K22" s="50"/>
+      <c r="L22" s="50"/>
+    </row>
+    <row r="23" spans="2:12" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="48"/>
+      <c r="C23" s="48"/>
+      <c r="D23" s="48"/>
+      <c r="E23" s="48"/>
+      <c r="F23" s="50"/>
+      <c r="G23" s="50"/>
+      <c r="H23" s="50"/>
+      <c r="I23" s="50"/>
+      <c r="J23" s="50"/>
+      <c r="K23" s="50"/>
+      <c r="L23" s="50"/>
+    </row>
+    <row r="24" spans="2:12" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="48"/>
+      <c r="C24" s="48"/>
+      <c r="D24" s="48"/>
+      <c r="E24" s="48"/>
+      <c r="F24" s="51" t="s">
         <v>23</v>
       </c>
-      <c r="G24" s="55"/>
-      <c r="H24" s="55"/>
-      <c r="I24" s="55"/>
-      <c r="J24" s="55"/>
-      <c r="K24" s="55"/>
-      <c r="L24" s="55"/>
-    </row>
-    <row r="25" spans="2:12" ht="18.600000000000001" customHeight="1">
-      <c r="B25" s="57"/>
-      <c r="C25" s="57"/>
-      <c r="D25" s="57"/>
-      <c r="E25" s="57"/>
-      <c r="F25" s="53" t="s">
+      <c r="G24" s="51"/>
+      <c r="H24" s="51"/>
+      <c r="I24" s="51"/>
+      <c r="J24" s="51"/>
+      <c r="K24" s="51"/>
+      <c r="L24" s="51"/>
+    </row>
+    <row r="25" spans="2:12" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="48"/>
+      <c r="C25" s="48"/>
+      <c r="D25" s="48"/>
+      <c r="E25" s="48"/>
+      <c r="F25" s="50" t="s">
         <v>84</v>
       </c>
-      <c r="G25" s="53"/>
-      <c r="H25" s="53"/>
-      <c r="I25" s="53"/>
-      <c r="J25" s="53"/>
-      <c r="K25" s="53"/>
-      <c r="L25" s="53"/>
-    </row>
-    <row r="26" spans="2:12" ht="18.600000000000001" customHeight="1">
-      <c r="B26" s="57"/>
-      <c r="C26" s="57"/>
-      <c r="D26" s="57"/>
-      <c r="E26" s="57"/>
-      <c r="F26" s="53"/>
-      <c r="G26" s="53"/>
-      <c r="H26" s="53"/>
-      <c r="I26" s="53"/>
-      <c r="J26" s="53"/>
-      <c r="K26" s="53"/>
-      <c r="L26" s="53"/>
-    </row>
-    <row r="27" spans="2:12" ht="18.600000000000001" customHeight="1">
-      <c r="B27" s="57"/>
-      <c r="C27" s="57"/>
-      <c r="D27" s="57"/>
-      <c r="E27" s="57"/>
-      <c r="F27" s="55" t="s">
+      <c r="G25" s="50"/>
+      <c r="H25" s="50"/>
+      <c r="I25" s="50"/>
+      <c r="J25" s="50"/>
+      <c r="K25" s="50"/>
+      <c r="L25" s="50"/>
+    </row>
+    <row r="26" spans="2:12" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="48"/>
+      <c r="C26" s="48"/>
+      <c r="D26" s="48"/>
+      <c r="E26" s="48"/>
+      <c r="F26" s="50"/>
+      <c r="G26" s="50"/>
+      <c r="H26" s="50"/>
+      <c r="I26" s="50"/>
+      <c r="J26" s="50"/>
+      <c r="K26" s="50"/>
+      <c r="L26" s="50"/>
+    </row>
+    <row r="27" spans="2:12" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="48"/>
+      <c r="C27" s="48"/>
+      <c r="D27" s="48"/>
+      <c r="E27" s="48"/>
+      <c r="F27" s="51" t="s">
         <v>25</v>
       </c>
-      <c r="G27" s="55"/>
-      <c r="H27" s="55"/>
-      <c r="I27" s="55"/>
-      <c r="J27" s="55"/>
-      <c r="K27" s="55"/>
-      <c r="L27" s="55"/>
-    </row>
-    <row r="28" spans="2:12" ht="23.1" customHeight="1">
-      <c r="B28" s="57"/>
-      <c r="C28" s="57"/>
-      <c r="D28" s="57"/>
-      <c r="E28" s="57"/>
+      <c r="G27" s="51"/>
+      <c r="H27" s="51"/>
+      <c r="I27" s="51"/>
+      <c r="J27" s="51"/>
+      <c r="K27" s="51"/>
+      <c r="L27" s="51"/>
+    </row>
+    <row r="28" spans="2:12" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="48"/>
+      <c r="C28" s="48"/>
+      <c r="D28" s="48"/>
+      <c r="E28" s="48"/>
       <c r="F28" s="4" t="s">
         <v>26</v>
       </c>
@@ -3489,11 +3489,11 @@
         <v>32</v>
       </c>
     </row>
-    <row r="29" spans="2:12" ht="18.600000000000001" customHeight="1">
-      <c r="B29" s="57"/>
-      <c r="C29" s="57"/>
-      <c r="D29" s="57"/>
-      <c r="E29" s="57"/>
+    <row r="29" spans="2:12" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="48"/>
+      <c r="C29" s="48"/>
+      <c r="D29" s="48"/>
+      <c r="E29" s="48"/>
       <c r="F29" s="3"/>
       <c r="G29" s="3"/>
       <c r="H29" s="3" t="s">
@@ -3510,25 +3510,25 @@
       </c>
       <c r="L29" s="3"/>
     </row>
-    <row r="30" spans="2:12" s="5" customFormat="1" ht="18.600000000000001" customHeight="1"/>
-    <row r="31" spans="2:12" ht="18.600000000000001" customHeight="1">
+    <row r="30" spans="2:12" s="5" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="31" spans="2:12" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C31" s="53" t="s">
+      <c r="C31" s="50" t="s">
         <v>85</v>
       </c>
-      <c r="D31" s="53"/>
-      <c r="E31" s="53"/>
-      <c r="F31" s="53"/>
-      <c r="G31" s="53"/>
-      <c r="H31" s="53"/>
-      <c r="I31" s="53"/>
-      <c r="J31" s="53"/>
-      <c r="K31" s="53"/>
-      <c r="L31" s="53"/>
-    </row>
-    <row r="32" spans="2:12" ht="18.600000000000001" customHeight="1">
+      <c r="D31" s="50"/>
+      <c r="E31" s="50"/>
+      <c r="F31" s="50"/>
+      <c r="G31" s="50"/>
+      <c r="H31" s="50"/>
+      <c r="I31" s="50"/>
+      <c r="J31" s="50"/>
+      <c r="K31" s="50"/>
+      <c r="L31" s="50"/>
+    </row>
+    <row r="32" spans="2:12" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="1" t="s">
         <v>15</v>
       </c>
@@ -3539,113 +3539,113 @@
       <c r="E32" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F32" s="38" t="s">
+      <c r="F32" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="G32" s="38"/>
-      <c r="H32" s="38"/>
-      <c r="I32" s="38"/>
-      <c r="J32" s="38"/>
-      <c r="K32" s="38"/>
-      <c r="L32" s="38"/>
-    </row>
-    <row r="33" spans="2:12" ht="18.600000000000001" customHeight="1">
-      <c r="B33" s="56" t="s">
+      <c r="G32" s="52"/>
+      <c r="H32" s="52"/>
+      <c r="I32" s="52"/>
+      <c r="J32" s="52"/>
+      <c r="K32" s="52"/>
+      <c r="L32" s="52"/>
+    </row>
+    <row r="33" spans="2:12" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B33" s="47" t="s">
         <v>74</v>
       </c>
-      <c r="C33" s="56" t="s">
+      <c r="C33" s="47" t="s">
         <v>87</v>
       </c>
-      <c r="D33" s="57"/>
-      <c r="E33" s="56" t="s">
+      <c r="D33" s="48"/>
+      <c r="E33" s="47" t="s">
         <v>88</v>
       </c>
-      <c r="F33" s="54" t="s">
+      <c r="F33" s="49" t="s">
         <v>83</v>
       </c>
-      <c r="G33" s="53"/>
-      <c r="H33" s="53"/>
-      <c r="I33" s="53"/>
-      <c r="J33" s="53"/>
-      <c r="K33" s="53"/>
-      <c r="L33" s="53"/>
-    </row>
-    <row r="34" spans="2:12" ht="18.600000000000001" customHeight="1">
-      <c r="B34" s="57"/>
-      <c r="C34" s="57"/>
-      <c r="D34" s="57"/>
-      <c r="E34" s="57"/>
-      <c r="F34" s="53"/>
-      <c r="G34" s="53"/>
-      <c r="H34" s="53"/>
-      <c r="I34" s="53"/>
-      <c r="J34" s="53"/>
-      <c r="K34" s="53"/>
-      <c r="L34" s="53"/>
-    </row>
-    <row r="35" spans="2:12" ht="18.600000000000001" customHeight="1">
-      <c r="B35" s="57"/>
-      <c r="C35" s="57"/>
-      <c r="D35" s="57"/>
-      <c r="E35" s="57"/>
-      <c r="F35" s="55" t="s">
+      <c r="G33" s="50"/>
+      <c r="H33" s="50"/>
+      <c r="I33" s="50"/>
+      <c r="J33" s="50"/>
+      <c r="K33" s="50"/>
+      <c r="L33" s="50"/>
+    </row>
+    <row r="34" spans="2:12" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B34" s="48"/>
+      <c r="C34" s="48"/>
+      <c r="D34" s="48"/>
+      <c r="E34" s="48"/>
+      <c r="F34" s="50"/>
+      <c r="G34" s="50"/>
+      <c r="H34" s="50"/>
+      <c r="I34" s="50"/>
+      <c r="J34" s="50"/>
+      <c r="K34" s="50"/>
+      <c r="L34" s="50"/>
+    </row>
+    <row r="35" spans="2:12" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B35" s="48"/>
+      <c r="C35" s="48"/>
+      <c r="D35" s="48"/>
+      <c r="E35" s="48"/>
+      <c r="F35" s="51" t="s">
         <v>23</v>
       </c>
-      <c r="G35" s="55"/>
-      <c r="H35" s="55"/>
-      <c r="I35" s="55"/>
-      <c r="J35" s="55"/>
-      <c r="K35" s="55"/>
-      <c r="L35" s="55"/>
-    </row>
-    <row r="36" spans="2:12" ht="18.600000000000001" customHeight="1">
-      <c r="B36" s="57"/>
-      <c r="C36" s="57"/>
-      <c r="D36" s="57"/>
-      <c r="E36" s="57"/>
-      <c r="F36" s="53" t="s">
+      <c r="G35" s="51"/>
+      <c r="H35" s="51"/>
+      <c r="I35" s="51"/>
+      <c r="J35" s="51"/>
+      <c r="K35" s="51"/>
+      <c r="L35" s="51"/>
+    </row>
+    <row r="36" spans="2:12" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B36" s="48"/>
+      <c r="C36" s="48"/>
+      <c r="D36" s="48"/>
+      <c r="E36" s="48"/>
+      <c r="F36" s="50" t="s">
         <v>89</v>
       </c>
-      <c r="G36" s="53"/>
-      <c r="H36" s="53"/>
-      <c r="I36" s="53"/>
-      <c r="J36" s="53"/>
-      <c r="K36" s="53"/>
-      <c r="L36" s="53"/>
-    </row>
-    <row r="37" spans="2:12" ht="18.600000000000001" customHeight="1">
-      <c r="B37" s="57"/>
-      <c r="C37" s="57"/>
-      <c r="D37" s="57"/>
-      <c r="E37" s="57"/>
-      <c r="F37" s="53"/>
-      <c r="G37" s="53"/>
-      <c r="H37" s="53"/>
-      <c r="I37" s="53"/>
-      <c r="J37" s="53"/>
-      <c r="K37" s="53"/>
-      <c r="L37" s="53"/>
-    </row>
-    <row r="38" spans="2:12" ht="18.600000000000001" customHeight="1">
-      <c r="B38" s="57"/>
-      <c r="C38" s="57"/>
-      <c r="D38" s="57"/>
-      <c r="E38" s="57"/>
-      <c r="F38" s="55" t="s">
+      <c r="G36" s="50"/>
+      <c r="H36" s="50"/>
+      <c r="I36" s="50"/>
+      <c r="J36" s="50"/>
+      <c r="K36" s="50"/>
+      <c r="L36" s="50"/>
+    </row>
+    <row r="37" spans="2:12" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B37" s="48"/>
+      <c r="C37" s="48"/>
+      <c r="D37" s="48"/>
+      <c r="E37" s="48"/>
+      <c r="F37" s="50"/>
+      <c r="G37" s="50"/>
+      <c r="H37" s="50"/>
+      <c r="I37" s="50"/>
+      <c r="J37" s="50"/>
+      <c r="K37" s="50"/>
+      <c r="L37" s="50"/>
+    </row>
+    <row r="38" spans="2:12" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B38" s="48"/>
+      <c r="C38" s="48"/>
+      <c r="D38" s="48"/>
+      <c r="E38" s="48"/>
+      <c r="F38" s="51" t="s">
         <v>25</v>
       </c>
-      <c r="G38" s="55"/>
-      <c r="H38" s="55"/>
-      <c r="I38" s="55"/>
-      <c r="J38" s="55"/>
-      <c r="K38" s="55"/>
-      <c r="L38" s="55"/>
-    </row>
-    <row r="39" spans="2:12" ht="23.1" customHeight="1">
-      <c r="B39" s="57"/>
-      <c r="C39" s="57"/>
-      <c r="D39" s="57"/>
-      <c r="E39" s="57"/>
+      <c r="G38" s="51"/>
+      <c r="H38" s="51"/>
+      <c r="I38" s="51"/>
+      <c r="J38" s="51"/>
+      <c r="K38" s="51"/>
+      <c r="L38" s="51"/>
+    </row>
+    <row r="39" spans="2:12" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B39" s="48"/>
+      <c r="C39" s="48"/>
+      <c r="D39" s="48"/>
+      <c r="E39" s="48"/>
       <c r="F39" s="4" t="s">
         <v>26</v>
       </c>
@@ -3668,11 +3668,11 @@
         <v>32</v>
       </c>
     </row>
-    <row r="40" spans="2:12" ht="18.600000000000001" customHeight="1">
-      <c r="B40" s="57"/>
-      <c r="C40" s="57"/>
-      <c r="D40" s="57"/>
-      <c r="E40" s="57"/>
+    <row r="40" spans="2:12" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B40" s="48"/>
+      <c r="C40" s="48"/>
+      <c r="D40" s="48"/>
+      <c r="E40" s="48"/>
       <c r="F40" s="3" t="s">
         <v>79</v>
       </c>
@@ -3695,7 +3695,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="41" spans="2:12" ht="18.600000000000001" customHeight="1">
+    <row r="41" spans="2:12" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="1" t="s">
         <v>15</v>
       </c>
@@ -3706,113 +3706,113 @@
       <c r="E41" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F41" s="38" t="s">
+      <c r="F41" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="G41" s="38"/>
-      <c r="H41" s="38"/>
-      <c r="I41" s="38"/>
-      <c r="J41" s="38"/>
-      <c r="K41" s="38"/>
-      <c r="L41" s="38"/>
-    </row>
-    <row r="42" spans="2:12" ht="18.600000000000001" customHeight="1">
-      <c r="B42" s="56" t="s">
+      <c r="G41" s="52"/>
+      <c r="H41" s="52"/>
+      <c r="I41" s="52"/>
+      <c r="J41" s="52"/>
+      <c r="K41" s="52"/>
+      <c r="L41" s="52"/>
+    </row>
+    <row r="42" spans="2:12" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B42" s="47" t="s">
         <v>91</v>
       </c>
-      <c r="C42" s="56" t="s">
+      <c r="C42" s="47" t="s">
         <v>92</v>
       </c>
-      <c r="D42" s="57"/>
-      <c r="E42" s="56" t="s">
+      <c r="D42" s="48"/>
+      <c r="E42" s="47" t="s">
         <v>93</v>
       </c>
-      <c r="F42" s="53" t="s">
+      <c r="F42" s="50" t="s">
         <v>94</v>
       </c>
-      <c r="G42" s="53"/>
-      <c r="H42" s="53"/>
-      <c r="I42" s="53"/>
-      <c r="J42" s="53"/>
-      <c r="K42" s="53"/>
-      <c r="L42" s="53"/>
-    </row>
-    <row r="43" spans="2:12" ht="18.600000000000001" customHeight="1">
-      <c r="B43" s="57"/>
-      <c r="C43" s="57"/>
-      <c r="D43" s="57"/>
-      <c r="E43" s="57"/>
-      <c r="F43" s="53"/>
-      <c r="G43" s="53"/>
-      <c r="H43" s="53"/>
-      <c r="I43" s="53"/>
-      <c r="J43" s="53"/>
-      <c r="K43" s="53"/>
-      <c r="L43" s="53"/>
-    </row>
-    <row r="44" spans="2:12" ht="18.600000000000001" customHeight="1">
-      <c r="B44" s="57"/>
-      <c r="C44" s="57"/>
-      <c r="D44" s="57"/>
-      <c r="E44" s="57"/>
-      <c r="F44" s="55" t="s">
+      <c r="G42" s="50"/>
+      <c r="H42" s="50"/>
+      <c r="I42" s="50"/>
+      <c r="J42" s="50"/>
+      <c r="K42" s="50"/>
+      <c r="L42" s="50"/>
+    </row>
+    <row r="43" spans="2:12" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B43" s="48"/>
+      <c r="C43" s="48"/>
+      <c r="D43" s="48"/>
+      <c r="E43" s="48"/>
+      <c r="F43" s="50"/>
+      <c r="G43" s="50"/>
+      <c r="H43" s="50"/>
+      <c r="I43" s="50"/>
+      <c r="J43" s="50"/>
+      <c r="K43" s="50"/>
+      <c r="L43" s="50"/>
+    </row>
+    <row r="44" spans="2:12" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B44" s="48"/>
+      <c r="C44" s="48"/>
+      <c r="D44" s="48"/>
+      <c r="E44" s="48"/>
+      <c r="F44" s="51" t="s">
         <v>23</v>
       </c>
-      <c r="G44" s="55"/>
-      <c r="H44" s="55"/>
-      <c r="I44" s="55"/>
-      <c r="J44" s="55"/>
-      <c r="K44" s="55"/>
-      <c r="L44" s="55"/>
-    </row>
-    <row r="45" spans="2:12" ht="18.600000000000001" customHeight="1">
-      <c r="B45" s="57"/>
-      <c r="C45" s="57"/>
-      <c r="D45" s="57"/>
-      <c r="E45" s="57"/>
-      <c r="F45" s="53" t="s">
+      <c r="G44" s="51"/>
+      <c r="H44" s="51"/>
+      <c r="I44" s="51"/>
+      <c r="J44" s="51"/>
+      <c r="K44" s="51"/>
+      <c r="L44" s="51"/>
+    </row>
+    <row r="45" spans="2:12" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B45" s="48"/>
+      <c r="C45" s="48"/>
+      <c r="D45" s="48"/>
+      <c r="E45" s="48"/>
+      <c r="F45" s="50" t="s">
         <v>95</v>
       </c>
-      <c r="G45" s="53"/>
-      <c r="H45" s="53"/>
-      <c r="I45" s="53"/>
-      <c r="J45" s="53"/>
-      <c r="K45" s="53"/>
-      <c r="L45" s="53"/>
-    </row>
-    <row r="46" spans="2:12" ht="18.600000000000001" customHeight="1">
-      <c r="B46" s="57"/>
-      <c r="C46" s="57"/>
-      <c r="D46" s="57"/>
-      <c r="E46" s="57"/>
-      <c r="F46" s="53"/>
-      <c r="G46" s="53"/>
-      <c r="H46" s="53"/>
-      <c r="I46" s="53"/>
-      <c r="J46" s="53"/>
-      <c r="K46" s="53"/>
-      <c r="L46" s="53"/>
-    </row>
-    <row r="47" spans="2:12" ht="18.600000000000001" customHeight="1">
-      <c r="B47" s="57"/>
-      <c r="C47" s="57"/>
-      <c r="D47" s="57"/>
-      <c r="E47" s="57"/>
-      <c r="F47" s="55" t="s">
+      <c r="G45" s="50"/>
+      <c r="H45" s="50"/>
+      <c r="I45" s="50"/>
+      <c r="J45" s="50"/>
+      <c r="K45" s="50"/>
+      <c r="L45" s="50"/>
+    </row>
+    <row r="46" spans="2:12" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B46" s="48"/>
+      <c r="C46" s="48"/>
+      <c r="D46" s="48"/>
+      <c r="E46" s="48"/>
+      <c r="F46" s="50"/>
+      <c r="G46" s="50"/>
+      <c r="H46" s="50"/>
+      <c r="I46" s="50"/>
+      <c r="J46" s="50"/>
+      <c r="K46" s="50"/>
+      <c r="L46" s="50"/>
+    </row>
+    <row r="47" spans="2:12" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B47" s="48"/>
+      <c r="C47" s="48"/>
+      <c r="D47" s="48"/>
+      <c r="E47" s="48"/>
+      <c r="F47" s="51" t="s">
         <v>25</v>
       </c>
-      <c r="G47" s="55"/>
-      <c r="H47" s="55"/>
-      <c r="I47" s="55"/>
-      <c r="J47" s="55"/>
-      <c r="K47" s="55"/>
-      <c r="L47" s="55"/>
-    </row>
-    <row r="48" spans="2:12" ht="23.1" customHeight="1">
-      <c r="B48" s="57"/>
-      <c r="C48" s="57"/>
-      <c r="D48" s="57"/>
-      <c r="E48" s="57"/>
+      <c r="G47" s="51"/>
+      <c r="H47" s="51"/>
+      <c r="I47" s="51"/>
+      <c r="J47" s="51"/>
+      <c r="K47" s="51"/>
+      <c r="L47" s="51"/>
+    </row>
+    <row r="48" spans="2:12" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B48" s="48"/>
+      <c r="C48" s="48"/>
+      <c r="D48" s="48"/>
+      <c r="E48" s="48"/>
       <c r="F48" s="4" t="s">
         <v>26</v>
       </c>
@@ -3835,11 +3835,11 @@
         <v>32</v>
       </c>
     </row>
-    <row r="49" spans="2:14" ht="18.600000000000001" customHeight="1">
-      <c r="B49" s="57"/>
-      <c r="C49" s="57"/>
-      <c r="D49" s="57"/>
-      <c r="E49" s="57"/>
+    <row r="49" spans="2:14" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B49" s="48"/>
+      <c r="C49" s="48"/>
+      <c r="D49" s="48"/>
+      <c r="E49" s="48"/>
       <c r="F49" s="3" t="s">
         <v>79</v>
       </c>
@@ -3856,7 +3856,7 @@
       <c r="K49" s="3"/>
       <c r="L49" s="3"/>
     </row>
-    <row r="50" spans="2:14" ht="18.600000000000001" customHeight="1">
+    <row r="50" spans="2:14" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B50" s="5"/>
       <c r="C50" s="5"/>
       <c r="D50" s="5"/>
@@ -3870,125 +3870,105 @@
       <c r="L50" s="5"/>
       <c r="N50" s="2"/>
     </row>
-    <row r="51" spans="2:14" ht="18.600000000000001" customHeight="1">
-      <c r="B51" s="41" t="s">
+    <row r="51" spans="2:14" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B51" s="53" t="s">
         <v>61</v>
       </c>
-      <c r="C51" s="42"/>
-      <c r="D51" s="42"/>
-      <c r="E51" s="42"/>
-      <c r="F51" s="42"/>
-      <c r="G51" s="42"/>
-      <c r="H51" s="42"/>
-      <c r="I51" s="42"/>
-      <c r="J51" s="42"/>
-      <c r="K51" s="42"/>
-      <c r="L51" s="43"/>
+      <c r="C51" s="54"/>
+      <c r="D51" s="54"/>
+      <c r="E51" s="54"/>
+      <c r="F51" s="54"/>
+      <c r="G51" s="54"/>
+      <c r="H51" s="54"/>
+      <c r="I51" s="54"/>
+      <c r="J51" s="54"/>
+      <c r="K51" s="54"/>
+      <c r="L51" s="55"/>
       <c r="N51" s="2"/>
     </row>
-    <row r="52" spans="2:14" ht="18.600000000000001" customHeight="1">
-      <c r="B52" s="44" t="s">
+    <row r="52" spans="2:14" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B52" s="56" t="s">
         <v>96</v>
       </c>
-      <c r="C52" s="45"/>
-      <c r="D52" s="45"/>
-      <c r="E52" s="45"/>
-      <c r="F52" s="45"/>
-      <c r="G52" s="45"/>
-      <c r="H52" s="45"/>
-      <c r="I52" s="45"/>
-      <c r="J52" s="45"/>
-      <c r="K52" s="45"/>
-      <c r="L52" s="46"/>
+      <c r="C52" s="57"/>
+      <c r="D52" s="57"/>
+      <c r="E52" s="57"/>
+      <c r="F52" s="57"/>
+      <c r="G52" s="57"/>
+      <c r="H52" s="57"/>
+      <c r="I52" s="57"/>
+      <c r="J52" s="57"/>
+      <c r="K52" s="57"/>
+      <c r="L52" s="58"/>
       <c r="N52" s="2"/>
     </row>
-    <row r="53" spans="2:14" ht="18.600000000000001" customHeight="1">
-      <c r="B53" s="47"/>
-      <c r="C53" s="48"/>
-      <c r="D53" s="48"/>
-      <c r="E53" s="48"/>
-      <c r="F53" s="48"/>
-      <c r="G53" s="48"/>
-      <c r="H53" s="48"/>
-      <c r="I53" s="48"/>
-      <c r="J53" s="48"/>
-      <c r="K53" s="48"/>
-      <c r="L53" s="49"/>
+    <row r="53" spans="2:14" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B53" s="59"/>
+      <c r="C53" s="60"/>
+      <c r="D53" s="60"/>
+      <c r="E53" s="60"/>
+      <c r="F53" s="60"/>
+      <c r="G53" s="60"/>
+      <c r="H53" s="60"/>
+      <c r="I53" s="60"/>
+      <c r="J53" s="60"/>
+      <c r="K53" s="60"/>
+      <c r="L53" s="61"/>
       <c r="N53" s="2"/>
     </row>
-    <row r="54" spans="2:14" ht="18.600000000000001" customHeight="1">
-      <c r="B54" s="47"/>
-      <c r="C54" s="48"/>
-      <c r="D54" s="48"/>
-      <c r="E54" s="48"/>
-      <c r="F54" s="48"/>
-      <c r="G54" s="48"/>
-      <c r="H54" s="48"/>
-      <c r="I54" s="48"/>
-      <c r="J54" s="48"/>
-      <c r="K54" s="48"/>
-      <c r="L54" s="49"/>
+    <row r="54" spans="2:14" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B54" s="59"/>
+      <c r="C54" s="60"/>
+      <c r="D54" s="60"/>
+      <c r="E54" s="60"/>
+      <c r="F54" s="60"/>
+      <c r="G54" s="60"/>
+      <c r="H54" s="60"/>
+      <c r="I54" s="60"/>
+      <c r="J54" s="60"/>
+      <c r="K54" s="60"/>
+      <c r="L54" s="61"/>
       <c r="N54" s="2"/>
     </row>
-    <row r="55" spans="2:14" ht="18.600000000000001" customHeight="1">
-      <c r="B55" s="47"/>
-      <c r="C55" s="48"/>
-      <c r="D55" s="48"/>
-      <c r="E55" s="48"/>
-      <c r="F55" s="48"/>
-      <c r="G55" s="48"/>
-      <c r="H55" s="48"/>
-      <c r="I55" s="48"/>
-      <c r="J55" s="48"/>
-      <c r="K55" s="48"/>
-      <c r="L55" s="49"/>
+    <row r="55" spans="2:14" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B55" s="59"/>
+      <c r="C55" s="60"/>
+      <c r="D55" s="60"/>
+      <c r="E55" s="60"/>
+      <c r="F55" s="60"/>
+      <c r="G55" s="60"/>
+      <c r="H55" s="60"/>
+      <c r="I55" s="60"/>
+      <c r="J55" s="60"/>
+      <c r="K55" s="60"/>
+      <c r="L55" s="61"/>
       <c r="N55" s="2"/>
     </row>
-    <row r="56" spans="2:14" ht="18.600000000000001" customHeight="1">
-      <c r="B56" s="50"/>
-      <c r="C56" s="51"/>
-      <c r="D56" s="51"/>
-      <c r="E56" s="51"/>
-      <c r="F56" s="51"/>
-      <c r="G56" s="51"/>
-      <c r="H56" s="51"/>
-      <c r="I56" s="51"/>
-      <c r="J56" s="51"/>
-      <c r="K56" s="51"/>
-      <c r="L56" s="52"/>
+    <row r="56" spans="2:14" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B56" s="62"/>
+      <c r="C56" s="63"/>
+      <c r="D56" s="63"/>
+      <c r="E56" s="63"/>
+      <c r="F56" s="63"/>
+      <c r="G56" s="63"/>
+      <c r="H56" s="63"/>
+      <c r="I56" s="63"/>
+      <c r="J56" s="63"/>
+      <c r="K56" s="63"/>
+      <c r="L56" s="64"/>
       <c r="N56" s="2"/>
     </row>
-    <row r="57" spans="2:14" s="5" customFormat="1"/>
-    <row r="58" spans="2:14" s="5" customFormat="1"/>
-    <row r="59" spans="2:14" s="5" customFormat="1"/>
+    <row r="57" spans="2:14" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="58" spans="2:14" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="59" spans="2:14" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="48">
-    <mergeCell ref="B22:B29"/>
-    <mergeCell ref="C22:D29"/>
-    <mergeCell ref="E22:E29"/>
-    <mergeCell ref="F22:L23"/>
-    <mergeCell ref="F24:L24"/>
-    <mergeCell ref="F25:L26"/>
-    <mergeCell ref="F27:L27"/>
-    <mergeCell ref="B42:B49"/>
-    <mergeCell ref="C42:D49"/>
-    <mergeCell ref="E42:E49"/>
-    <mergeCell ref="F42:L43"/>
-    <mergeCell ref="F44:L44"/>
-    <mergeCell ref="B33:B40"/>
-    <mergeCell ref="C33:D40"/>
-    <mergeCell ref="E33:E40"/>
-    <mergeCell ref="F33:L34"/>
-    <mergeCell ref="F35:L35"/>
-    <mergeCell ref="F36:L37"/>
-    <mergeCell ref="F38:L38"/>
-    <mergeCell ref="E13:E20"/>
-    <mergeCell ref="C31:L31"/>
-    <mergeCell ref="F41:L41"/>
-    <mergeCell ref="F45:L46"/>
-    <mergeCell ref="F47:L47"/>
-    <mergeCell ref="F21:L21"/>
-    <mergeCell ref="F32:L32"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="I1:L1"/>
+    <mergeCell ref="E7:E9"/>
+    <mergeCell ref="E3:E6"/>
+    <mergeCell ref="F3:L6"/>
+    <mergeCell ref="F7:L9"/>
     <mergeCell ref="B51:L51"/>
     <mergeCell ref="B52:L56"/>
     <mergeCell ref="C3:D3"/>
@@ -4005,12 +3985,32 @@
     <mergeCell ref="F15:L15"/>
     <mergeCell ref="F18:L18"/>
     <mergeCell ref="B13:B20"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="I1:L1"/>
-    <mergeCell ref="E7:E9"/>
-    <mergeCell ref="E3:E6"/>
-    <mergeCell ref="F3:L6"/>
-    <mergeCell ref="F7:L9"/>
+    <mergeCell ref="E13:E20"/>
+    <mergeCell ref="C31:L31"/>
+    <mergeCell ref="F41:L41"/>
+    <mergeCell ref="F45:L46"/>
+    <mergeCell ref="F47:L47"/>
+    <mergeCell ref="F21:L21"/>
+    <mergeCell ref="F32:L32"/>
+    <mergeCell ref="B33:B40"/>
+    <mergeCell ref="C33:D40"/>
+    <mergeCell ref="E33:E40"/>
+    <mergeCell ref="F33:L34"/>
+    <mergeCell ref="F35:L35"/>
+    <mergeCell ref="F36:L37"/>
+    <mergeCell ref="F38:L38"/>
+    <mergeCell ref="B42:B49"/>
+    <mergeCell ref="C42:D49"/>
+    <mergeCell ref="E42:E49"/>
+    <mergeCell ref="F42:L43"/>
+    <mergeCell ref="F44:L44"/>
+    <mergeCell ref="B22:B29"/>
+    <mergeCell ref="C22:D29"/>
+    <mergeCell ref="E22:E29"/>
+    <mergeCell ref="F22:L23"/>
+    <mergeCell ref="F24:L24"/>
+    <mergeCell ref="F25:L26"/>
+    <mergeCell ref="F27:L27"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/02 職務経歴書/スキルシート.xlsx
+++ b/02 職務経歴書/スキルシート.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27424"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9486EDC-098B-4E22-B012-41EDE9A04B3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{74A3D0F0-6C63-4953-AFF7-8F442E76FA78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="21420" yWindow="-16455" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -148,7 +148,9 @@
 【概要】
 メンバーとして、実装前のシステムの単体テストを担当。
 【ポイント】
-お客様・協力会社様とのコミュニケーションの大切さを学びました。</t>
+初めてのプロジェクト参画で分からないことが多く、常駐先の協力会社の方ともコミュニケーションが上手く取れませんでした。
+その結果、確認不足によるテストの手戻りが発生してしましました。
+以上の経験から、お客様・協力会社様とのコミュニケーションの大切さを学びました。</t>
   </si>
   <si>
     <t>Windows
@@ -256,7 +258,8 @@
 銀行のクレジット決済時の承認システムの追加開発。
 メンバーとして、実装前のシステムの単体・結合テスト、実装後の保守・運用を担当。
 【ポイント】
-お客様とのやり取りで重大な失敗をしてしまい、その後の信頼回復に努めて、以前と同様に案件を任せていただけるようになりました。</t>
+お客様とのやり取りで重大な失敗をしてしまい、その後の信頼回復のために、マニュアル作成を行い、その後のやり取りでもフィードバックを欠かさず続け、マニュアルの品質を向上させていきました。
+その結果、以前と同様に案件を任せていただけるようになりました。</t>
   </si>
   <si>
     <t>Linux
@@ -373,31 +376,6 @@
 メンバーとして、データマートの構築と移行に伴う、SQLを使ったデータの変換、作成　テストデータ作成およびテスト実施などを担当
 【ポイント】
 Excel関数を用いて、SQL文を自動作成するシートを作成し、効率的な業務に貢献することができました。</t>
-    <rPh sb="82" eb="84">
-      <t>カンスウ</t>
-    </rPh>
-    <rPh sb="85" eb="86">
-      <t>モチ</t>
-    </rPh>
-    <rPh sb="92" eb="93">
-      <t>ブン</t>
-    </rPh>
-    <rPh sb="94" eb="98">
-      <t>ジドウサクセイ</t>
-    </rPh>
-    <rPh sb="104" eb="106">
-      <t>サクセイ</t>
-    </rPh>
-    <rPh sb="108" eb="111">
-      <t>コウリツテキ</t>
-    </rPh>
-    <rPh sb="112" eb="114">
-      <t>ギョウム</t>
-    </rPh>
-    <rPh sb="115" eb="128">
-      <t>コウケン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>Windows
@@ -414,11 +392,16 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>エンジニアを志した最大の理由は、システム開発を通じて、自らの手でより多くの方々に価値を提供できるサービスを開発できるという魅力を感じたからです。
-これまでの業務でも、日々お客様から感謝の言葉をいただくことがあり、そのやりがいを強く感じてきました。
-しかし、IT技術を駆使することで、より効率的に、より多くの方々に価値を提供できると考えています。
-そのために、必要なプログラミング知識（特にLaravel/PHP、HTML/CSS）を学習するだけでなく、実際の開発現場で必要とされるであろうGit/GitHubも積極的に利用してきました。
-これまでにプログラミング技術だけでなく、チーム開発に不可欠な知識も習得してきましたので、貴社に入社後も、業務で必要な知識を迅速に習得し活用していけると考えています。</t>
+    <t xml:space="preserve">
+大学を卒業し、2社で経験を積んできました。
+基本設計から開発まで経験しました。
+私は「プログラミング言語でモノづくりがしたい」という志望動機から出発して就職活動を進めてきましたが、前職では主にテスターとして業務に携わり、将来的にシステムエンジニアとしての成長が難しいかもしれないと感じました。
+同時に、自身の障害特性も考慮し、会社側からの理解が得られない中での働き続けることも難しいと感じています。
+このため、最近では事業所でLaravel/PHPの学習に力を入れています。
+御社では、障害がある方々に理解を示し、かつWeb開発事業に関わることができる環境が整っています。
+私は、御社ならば長期的な視点で考え、システムエンジニアとしての成長を実感しながら働くことができるのではないかと考え、志望いたしました。
+御社での経験を通じて、自身のスキルを向上させ、成長していくことを心から楽しみにしております。
+</t>
   </si>
   <si>
     <t>作成日：</t>
@@ -614,7 +597,6 @@
     <t xml:space="preserve">
 大学を卒業し、2社で経験を積んできました。要件定義から開発まで一貫した経験があり、管理も行いつつ開発ができる点が私の強みだと思っています。また基幹システムの経験があり、生産管理や顧客管理などの業務知識がある点も強みだと思います。
 今後は今までの経験を活用し、更に貴社にて成長し貢献して参りたいと思います。一度面接のお時間を頂戴できれば幸いでございます。よろしくお願い致します。</t>
-    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -625,7 +607,7 @@
     <numFmt numFmtId="176" formatCode="yyyy&quot;年&quot;m&quot;月&quot;;@"/>
     <numFmt numFmtId="177" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -754,7 +736,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -938,6 +920,55 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1017,74 +1048,104 @@
     <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="177" fontId="10" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1092,67 +1153,37 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1435,40 +1466,40 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K84"/>
+  <dimension ref="A1:K87"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A63" workbookViewId="0">
+      <selection activeCell="A79" sqref="A79:K87"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.73046875" defaultRowHeight="12" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12"/>
   <cols>
     <col min="1" max="1" width="11" style="19" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.73046875" style="19"/>
-    <col min="3" max="3" width="45.1328125" style="19" customWidth="1"/>
-    <col min="4" max="4" width="11.1328125" style="19" customWidth="1"/>
-    <col min="5" max="11" width="3.73046875" style="19" customWidth="1"/>
-    <col min="12" max="12" width="14.1328125" style="19" customWidth="1"/>
-    <col min="13" max="16384" width="8.73046875" style="19"/>
+    <col min="2" max="2" width="8.75" style="19"/>
+    <col min="3" max="3" width="45.125" style="19" customWidth="1"/>
+    <col min="4" max="4" width="11.125" style="19" customWidth="1"/>
+    <col min="5" max="11" width="3.75" style="19" customWidth="1"/>
+    <col min="12" max="12" width="14.125" style="19" customWidth="1"/>
+    <col min="13" max="16384" width="8.75" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="15" customHeight="1">
       <c r="A1" s="11"/>
       <c r="B1" s="11"/>
       <c r="C1" s="11"/>
       <c r="D1" s="11"/>
-      <c r="E1" s="24" t="str">
+      <c r="E1" s="36" t="str">
         <f ca="1">"作成日："&amp;TEXT(TODAY(),"yyyy年m月d日")</f>
         <v>作成日：2024年2月28日</v>
       </c>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
-      <c r="J1" s="24"/>
-      <c r="K1" s="24"/>
-    </row>
-    <row r="2" spans="1:11" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
+      <c r="I1" s="36"/>
+      <c r="J1" s="36"/>
+      <c r="K1" s="36"/>
+    </row>
+    <row r="2" spans="1:11" ht="18.600000000000001" customHeight="1">
       <c r="A2" s="20" t="s">
         <v>0</v>
       </c>
@@ -1483,122 +1514,122 @@
       <c r="J2" s="21"/>
       <c r="K2" s="21"/>
     </row>
-    <row r="3" spans="1:11" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" ht="18.600000000000001" customHeight="1">
       <c r="A3" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="25" t="s">
+      <c r="B3" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="25"/>
+      <c r="C3" s="24"/>
       <c r="D3" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="46" t="s">
+      <c r="E3" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="46"/>
-      <c r="G3" s="46"/>
-      <c r="H3" s="46"/>
-      <c r="I3" s="46"/>
-      <c r="J3" s="46"/>
-      <c r="K3" s="46"/>
-    </row>
-    <row r="4" spans="1:11" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F3" s="27"/>
+      <c r="G3" s="27"/>
+      <c r="H3" s="27"/>
+      <c r="I3" s="27"/>
+      <c r="J3" s="27"/>
+      <c r="K3" s="27"/>
+    </row>
+    <row r="4" spans="1:11" ht="18.600000000000001" customHeight="1">
       <c r="A4" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="25" t="s">
+      <c r="B4" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="25"/>
+      <c r="C4" s="24"/>
       <c r="D4" s="26"/>
-      <c r="E4" s="46"/>
-      <c r="F4" s="46"/>
-      <c r="G4" s="46"/>
-      <c r="H4" s="46"/>
-      <c r="I4" s="46"/>
-      <c r="J4" s="46"/>
-      <c r="K4" s="46"/>
-    </row>
-    <row r="5" spans="1:11" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="29" t="s">
+      <c r="E4" s="27"/>
+      <c r="F4" s="27"/>
+      <c r="G4" s="27"/>
+      <c r="H4" s="27"/>
+      <c r="I4" s="27"/>
+      <c r="J4" s="27"/>
+      <c r="K4" s="27"/>
+    </row>
+    <row r="5" spans="1:11" ht="18.600000000000001" customHeight="1">
+      <c r="A5" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="42" t="s">
+      <c r="B5" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="43"/>
+      <c r="C5" s="30"/>
       <c r="D5" s="26"/>
-      <c r="E5" s="46"/>
-      <c r="F5" s="46"/>
-      <c r="G5" s="46"/>
-      <c r="H5" s="46"/>
-      <c r="I5" s="46"/>
-      <c r="J5" s="46"/>
-      <c r="K5" s="46"/>
-    </row>
-    <row r="6" spans="1:11" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="29"/>
-      <c r="B6" s="43"/>
-      <c r="C6" s="43"/>
+      <c r="E5" s="27"/>
+      <c r="F5" s="27"/>
+      <c r="G5" s="27"/>
+      <c r="H5" s="27"/>
+      <c r="I5" s="27"/>
+      <c r="J5" s="27"/>
+      <c r="K5" s="27"/>
+    </row>
+    <row r="6" spans="1:11" ht="18.600000000000001" customHeight="1">
+      <c r="A6" s="28"/>
+      <c r="B6" s="30"/>
+      <c r="C6" s="30"/>
       <c r="D6" s="26"/>
-      <c r="E6" s="46"/>
-      <c r="F6" s="46"/>
-      <c r="G6" s="46"/>
-      <c r="H6" s="46"/>
-      <c r="I6" s="46"/>
-      <c r="J6" s="46"/>
-      <c r="K6" s="46"/>
-    </row>
-    <row r="7" spans="1:11" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E6" s="27"/>
+      <c r="F6" s="27"/>
+      <c r="G6" s="27"/>
+      <c r="H6" s="27"/>
+      <c r="I6" s="27"/>
+      <c r="J6" s="27"/>
+      <c r="K6" s="27"/>
+    </row>
+    <row r="7" spans="1:11" ht="18.600000000000001" customHeight="1">
       <c r="A7" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="42" t="s">
+      <c r="B7" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="42"/>
+      <c r="C7" s="29"/>
       <c r="D7" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="44" t="s">
+      <c r="E7" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="F7" s="45"/>
-      <c r="G7" s="45"/>
-      <c r="H7" s="45"/>
-      <c r="I7" s="45"/>
-      <c r="J7" s="45"/>
-      <c r="K7" s="45"/>
-    </row>
-    <row r="8" spans="1:11" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F7" s="68"/>
+      <c r="G7" s="68"/>
+      <c r="H7" s="68"/>
+      <c r="I7" s="68"/>
+      <c r="J7" s="68"/>
+      <c r="K7" s="68"/>
+    </row>
+    <row r="8" spans="1:11" ht="18.600000000000001" customHeight="1">
       <c r="A8" s="26"/>
-      <c r="B8" s="42"/>
-      <c r="C8" s="42"/>
+      <c r="B8" s="29"/>
+      <c r="C8" s="29"/>
       <c r="D8" s="26"/>
-      <c r="E8" s="45"/>
-      <c r="F8" s="45"/>
-      <c r="G8" s="45"/>
-      <c r="H8" s="45"/>
-      <c r="I8" s="45"/>
-      <c r="J8" s="45"/>
-      <c r="K8" s="45"/>
-    </row>
-    <row r="9" spans="1:11" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E8" s="68"/>
+      <c r="F8" s="68"/>
+      <c r="G8" s="68"/>
+      <c r="H8" s="68"/>
+      <c r="I8" s="68"/>
+      <c r="J8" s="68"/>
+      <c r="K8" s="68"/>
+    </row>
+    <row r="9" spans="1:11" ht="18.600000000000001" customHeight="1">
       <c r="A9" s="26"/>
-      <c r="B9" s="42"/>
-      <c r="C9" s="42"/>
+      <c r="B9" s="29"/>
+      <c r="C9" s="29"/>
       <c r="D9" s="26"/>
-      <c r="E9" s="45"/>
-      <c r="F9" s="45"/>
-      <c r="G9" s="45"/>
-      <c r="H9" s="45"/>
-      <c r="I9" s="45"/>
-      <c r="J9" s="45"/>
-      <c r="K9" s="45"/>
-    </row>
-    <row r="10" spans="1:11" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E9" s="68"/>
+      <c r="F9" s="68"/>
+      <c r="G9" s="68"/>
+      <c r="H9" s="68"/>
+      <c r="I9" s="68"/>
+      <c r="J9" s="68"/>
+      <c r="K9" s="68"/>
+    </row>
+    <row r="10" spans="1:11" ht="18.600000000000001" customHeight="1">
       <c r="A10" s="11"/>
       <c r="B10" s="11"/>
       <c r="C10" s="11"/>
@@ -1611,31 +1642,31 @@
       <c r="J10" s="11"/>
       <c r="K10" s="11"/>
     </row>
-    <row r="11" spans="1:11" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" ht="18.600000000000001" customHeight="1">
       <c r="A11" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="25" t="s">
+      <c r="B11" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="25"/>
-      <c r="D11" s="25"/>
-      <c r="E11" s="25"/>
-      <c r="F11" s="25"/>
-      <c r="G11" s="25"/>
-      <c r="H11" s="25"/>
-      <c r="I11" s="25"/>
-      <c r="J11" s="25"/>
-      <c r="K11" s="25"/>
-    </row>
-    <row r="12" spans="1:11" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C11" s="24"/>
+      <c r="D11" s="24"/>
+      <c r="E11" s="24"/>
+      <c r="F11" s="24"/>
+      <c r="G11" s="24"/>
+      <c r="H11" s="24"/>
+      <c r="I11" s="24"/>
+      <c r="J11" s="24"/>
+      <c r="K11" s="24"/>
+    </row>
+    <row r="12" spans="1:11" ht="18.600000000000001" customHeight="1">
       <c r="A12" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="B12" s="25" t="s">
+      <c r="B12" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="25"/>
+      <c r="C12" s="24"/>
       <c r="D12" s="10" t="s">
         <v>17</v>
       </c>
@@ -1649,110 +1680,110 @@
       <c r="J12" s="26"/>
       <c r="K12" s="26"/>
     </row>
-    <row r="13" spans="1:11" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" ht="18.600000000000001" customHeight="1">
       <c r="A13" s="14"/>
-      <c r="B13" s="27" t="s">
+      <c r="B13" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="C13" s="27"/>
-      <c r="D13" s="27" t="s">
+      <c r="C13" s="31"/>
+      <c r="D13" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="E13" s="25" t="s">
+      <c r="E13" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="F13" s="25"/>
-      <c r="G13" s="25"/>
-      <c r="H13" s="25"/>
-      <c r="I13" s="25"/>
-      <c r="J13" s="25"/>
-      <c r="K13" s="25"/>
-    </row>
-    <row r="14" spans="1:11" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F13" s="24"/>
+      <c r="G13" s="24"/>
+      <c r="H13" s="24"/>
+      <c r="I13" s="24"/>
+      <c r="J13" s="24"/>
+      <c r="K13" s="24"/>
+    </row>
+    <row r="14" spans="1:11" ht="18.600000000000001" customHeight="1">
       <c r="A14" s="15">
         <v>42186</v>
       </c>
-      <c r="B14" s="27"/>
-      <c r="C14" s="27"/>
-      <c r="D14" s="27"/>
-      <c r="E14" s="25"/>
-      <c r="F14" s="25"/>
-      <c r="G14" s="25"/>
-      <c r="H14" s="25"/>
-      <c r="I14" s="25"/>
-      <c r="J14" s="25"/>
-      <c r="K14" s="25"/>
-    </row>
-    <row r="15" spans="1:11" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="31"/>
+      <c r="C14" s="31"/>
+      <c r="D14" s="31"/>
+      <c r="E14" s="24"/>
+      <c r="F14" s="24"/>
+      <c r="G14" s="24"/>
+      <c r="H14" s="24"/>
+      <c r="I14" s="24"/>
+      <c r="J14" s="24"/>
+      <c r="K14" s="24"/>
+    </row>
+    <row r="15" spans="1:11" ht="18.600000000000001" customHeight="1">
       <c r="A15" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="B15" s="27"/>
-      <c r="C15" s="27"/>
-      <c r="D15" s="27"/>
-      <c r="E15" s="29" t="s">
+      <c r="B15" s="31"/>
+      <c r="C15" s="31"/>
+      <c r="D15" s="31"/>
+      <c r="E15" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="F15" s="29"/>
-      <c r="G15" s="29"/>
-      <c r="H15" s="29"/>
-      <c r="I15" s="29"/>
-      <c r="J15" s="29"/>
-      <c r="K15" s="29"/>
-    </row>
-    <row r="16" spans="1:11" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F15" s="28"/>
+      <c r="G15" s="28"/>
+      <c r="H15" s="28"/>
+      <c r="I15" s="28"/>
+      <c r="J15" s="28"/>
+      <c r="K15" s="28"/>
+    </row>
+    <row r="16" spans="1:11" ht="18.600000000000001" customHeight="1">
       <c r="A16" s="15">
         <v>42248</v>
       </c>
-      <c r="B16" s="27"/>
-      <c r="C16" s="27"/>
-      <c r="D16" s="27"/>
-      <c r="E16" s="25" t="s">
+      <c r="B16" s="31"/>
+      <c r="C16" s="31"/>
+      <c r="D16" s="31"/>
+      <c r="E16" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="F16" s="25"/>
-      <c r="G16" s="25"/>
-      <c r="H16" s="25"/>
-      <c r="I16" s="25"/>
-      <c r="J16" s="25"/>
-      <c r="K16" s="25"/>
-    </row>
-    <row r="17" spans="1:11" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F16" s="24"/>
+      <c r="G16" s="24"/>
+      <c r="H16" s="24"/>
+      <c r="I16" s="24"/>
+      <c r="J16" s="24"/>
+      <c r="K16" s="24"/>
+    </row>
+    <row r="17" spans="1:11" ht="18.600000000000001" customHeight="1">
       <c r="A17" s="16"/>
-      <c r="B17" s="27"/>
-      <c r="C17" s="27"/>
-      <c r="D17" s="27"/>
-      <c r="E17" s="25"/>
-      <c r="F17" s="25"/>
-      <c r="G17" s="25"/>
-      <c r="H17" s="25"/>
-      <c r="I17" s="25"/>
-      <c r="J17" s="25"/>
-      <c r="K17" s="25"/>
-    </row>
-    <row r="18" spans="1:11" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="31"/>
+      <c r="C17" s="31"/>
+      <c r="D17" s="31"/>
+      <c r="E17" s="24"/>
+      <c r="F17" s="24"/>
+      <c r="G17" s="24"/>
+      <c r="H17" s="24"/>
+      <c r="I17" s="24"/>
+      <c r="J17" s="24"/>
+      <c r="K17" s="24"/>
+    </row>
+    <row r="18" spans="1:11" ht="18.600000000000001" customHeight="1">
       <c r="A18" s="16" t="str">
         <f>IF(OR($A14="",$A16=""),"",IF(DATEDIF($A14,$A16+31,"Y")=0,"",DATEDIF($A14,$A16+31,"Y")&amp;"年")&amp;IF(DATEDIF($A14,$A16+31,"YM")=0,"",DATEDIF($A14,$A16+31,"YM")&amp;"ヶ月"))</f>
         <v>3ヶ月</v>
       </c>
-      <c r="B18" s="27"/>
-      <c r="C18" s="27"/>
-      <c r="D18" s="27"/>
-      <c r="E18" s="29" t="s">
+      <c r="B18" s="31"/>
+      <c r="C18" s="31"/>
+      <c r="D18" s="31"/>
+      <c r="E18" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="F18" s="29"/>
-      <c r="G18" s="29"/>
-      <c r="H18" s="29"/>
-      <c r="I18" s="29"/>
-      <c r="J18" s="29"/>
-      <c r="K18" s="29"/>
-    </row>
-    <row r="19" spans="1:11" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F18" s="28"/>
+      <c r="G18" s="28"/>
+      <c r="H18" s="28"/>
+      <c r="I18" s="28"/>
+      <c r="J18" s="28"/>
+      <c r="K18" s="28"/>
+    </row>
+    <row r="19" spans="1:11" ht="23.1" customHeight="1">
       <c r="A19" s="16"/>
-      <c r="B19" s="27"/>
-      <c r="C19" s="27"/>
-      <c r="D19" s="27"/>
+      <c r="B19" s="31"/>
+      <c r="C19" s="31"/>
+      <c r="D19" s="31"/>
       <c r="E19" s="23" t="s">
         <v>26</v>
       </c>
@@ -1775,11 +1806,11 @@
         <v>32</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" ht="18.600000000000001" customHeight="1">
       <c r="A20" s="17"/>
-      <c r="B20" s="27"/>
-      <c r="C20" s="27"/>
-      <c r="D20" s="27"/>
+      <c r="B20" s="31"/>
+      <c r="C20" s="31"/>
+      <c r="D20" s="31"/>
       <c r="E20" s="18"/>
       <c r="F20" s="18"/>
       <c r="G20" s="18"/>
@@ -1790,14 +1821,14 @@
       <c r="J20" s="18"/>
       <c r="K20" s="18"/>
     </row>
-    <row r="21" spans="1:11" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" ht="18.600000000000001" customHeight="1">
       <c r="A21" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="B21" s="25" t="s">
+      <c r="B21" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="C21" s="25"/>
+      <c r="C21" s="24"/>
       <c r="D21" s="10" t="s">
         <v>17</v>
       </c>
@@ -1811,110 +1842,110 @@
       <c r="J21" s="26"/>
       <c r="K21" s="26"/>
     </row>
-    <row r="22" spans="1:11" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" ht="18.600000000000001" customHeight="1">
       <c r="A22" s="14"/>
-      <c r="B22" s="27" t="s">
+      <c r="B22" s="31" t="s">
         <v>35</v>
       </c>
-      <c r="C22" s="27"/>
-      <c r="D22" s="27" t="s">
+      <c r="C22" s="31"/>
+      <c r="D22" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="E22" s="25" t="s">
+      <c r="E22" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="F22" s="25"/>
-      <c r="G22" s="25"/>
-      <c r="H22" s="25"/>
-      <c r="I22" s="25"/>
-      <c r="J22" s="25"/>
-      <c r="K22" s="25"/>
-    </row>
-    <row r="23" spans="1:11" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F22" s="24"/>
+      <c r="G22" s="24"/>
+      <c r="H22" s="24"/>
+      <c r="I22" s="24"/>
+      <c r="J22" s="24"/>
+      <c r="K22" s="24"/>
+    </row>
+    <row r="23" spans="1:11" ht="18.600000000000001" customHeight="1">
       <c r="A23" s="15">
         <v>42278</v>
       </c>
-      <c r="B23" s="27"/>
-      <c r="C23" s="27"/>
-      <c r="D23" s="28"/>
-      <c r="E23" s="25"/>
-      <c r="F23" s="25"/>
-      <c r="G23" s="25"/>
-      <c r="H23" s="25"/>
-      <c r="I23" s="25"/>
-      <c r="J23" s="25"/>
-      <c r="K23" s="25"/>
-    </row>
-    <row r="24" spans="1:11" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="31"/>
+      <c r="C23" s="31"/>
+      <c r="D23" s="35"/>
+      <c r="E23" s="24"/>
+      <c r="F23" s="24"/>
+      <c r="G23" s="24"/>
+      <c r="H23" s="24"/>
+      <c r="I23" s="24"/>
+      <c r="J23" s="24"/>
+      <c r="K23" s="24"/>
+    </row>
+    <row r="24" spans="1:11" ht="18.600000000000001" customHeight="1">
       <c r="A24" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="B24" s="27"/>
-      <c r="C24" s="27"/>
-      <c r="D24" s="28"/>
-      <c r="E24" s="29" t="s">
+      <c r="B24" s="31"/>
+      <c r="C24" s="31"/>
+      <c r="D24" s="35"/>
+      <c r="E24" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="F24" s="29"/>
-      <c r="G24" s="29"/>
-      <c r="H24" s="29"/>
-      <c r="I24" s="29"/>
-      <c r="J24" s="29"/>
-      <c r="K24" s="29"/>
-    </row>
-    <row r="25" spans="1:11" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F24" s="28"/>
+      <c r="G24" s="28"/>
+      <c r="H24" s="28"/>
+      <c r="I24" s="28"/>
+      <c r="J24" s="28"/>
+      <c r="K24" s="28"/>
+    </row>
+    <row r="25" spans="1:11" ht="18.600000000000001" customHeight="1">
       <c r="A25" s="15">
         <v>43040</v>
       </c>
-      <c r="B25" s="27"/>
-      <c r="C25" s="27"/>
-      <c r="D25" s="28"/>
-      <c r="E25" s="25" t="s">
+      <c r="B25" s="31"/>
+      <c r="C25" s="31"/>
+      <c r="D25" s="35"/>
+      <c r="E25" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="F25" s="25"/>
-      <c r="G25" s="25"/>
-      <c r="H25" s="25"/>
-      <c r="I25" s="25"/>
-      <c r="J25" s="25"/>
-      <c r="K25" s="25"/>
-    </row>
-    <row r="26" spans="1:11" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F25" s="24"/>
+      <c r="G25" s="24"/>
+      <c r="H25" s="24"/>
+      <c r="I25" s="24"/>
+      <c r="J25" s="24"/>
+      <c r="K25" s="24"/>
+    </row>
+    <row r="26" spans="1:11" ht="18.600000000000001" customHeight="1">
       <c r="A26" s="16"/>
-      <c r="B26" s="27"/>
-      <c r="C26" s="27"/>
-      <c r="D26" s="28"/>
-      <c r="E26" s="25"/>
-      <c r="F26" s="25"/>
-      <c r="G26" s="25"/>
-      <c r="H26" s="25"/>
-      <c r="I26" s="25"/>
-      <c r="J26" s="25"/>
-      <c r="K26" s="25"/>
-    </row>
-    <row r="27" spans="1:11" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="31"/>
+      <c r="C26" s="31"/>
+      <c r="D26" s="35"/>
+      <c r="E26" s="24"/>
+      <c r="F26" s="24"/>
+      <c r="G26" s="24"/>
+      <c r="H26" s="24"/>
+      <c r="I26" s="24"/>
+      <c r="J26" s="24"/>
+      <c r="K26" s="24"/>
+    </row>
+    <row r="27" spans="1:11" ht="18.600000000000001" customHeight="1">
       <c r="A27" s="16" t="str">
         <f>IF(OR($A23="",$A25=""),"",IF(DATEDIF($A23,$A25+31,"Y")=0,"",DATEDIF($A23,$A25+31,"Y")&amp;"年")&amp;IF(DATEDIF($A23,$A25+31,"YM")=0,"",DATEDIF($A23,$A25+31,"YM")&amp;"ヶ月"))</f>
         <v>2年2ヶ月</v>
       </c>
-      <c r="B27" s="27"/>
-      <c r="C27" s="27"/>
-      <c r="D27" s="28"/>
-      <c r="E27" s="29" t="s">
+      <c r="B27" s="31"/>
+      <c r="C27" s="31"/>
+      <c r="D27" s="35"/>
+      <c r="E27" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="F27" s="29"/>
-      <c r="G27" s="29"/>
-      <c r="H27" s="29"/>
-      <c r="I27" s="29"/>
-      <c r="J27" s="29"/>
-      <c r="K27" s="29"/>
-    </row>
-    <row r="28" spans="1:11" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F27" s="28"/>
+      <c r="G27" s="28"/>
+      <c r="H27" s="28"/>
+      <c r="I27" s="28"/>
+      <c r="J27" s="28"/>
+      <c r="K27" s="28"/>
+    </row>
+    <row r="28" spans="1:11" ht="23.1" customHeight="1">
       <c r="A28" s="16"/>
-      <c r="B28" s="27"/>
-      <c r="C28" s="27"/>
-      <c r="D28" s="28"/>
+      <c r="B28" s="31"/>
+      <c r="C28" s="31"/>
+      <c r="D28" s="35"/>
       <c r="E28" s="23" t="s">
         <v>26</v>
       </c>
@@ -1937,11 +1968,11 @@
         <v>32</v>
       </c>
     </row>
-    <row r="29" spans="1:11" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" ht="18.600000000000001" customHeight="1">
       <c r="A29" s="17"/>
-      <c r="B29" s="27"/>
-      <c r="C29" s="27"/>
-      <c r="D29" s="28"/>
+      <c r="B29" s="31"/>
+      <c r="C29" s="31"/>
+      <c r="D29" s="35"/>
       <c r="E29" s="18"/>
       <c r="F29" s="18"/>
       <c r="G29" s="18"/>
@@ -1958,14 +1989,14 @@
         <v>39</v>
       </c>
     </row>
-    <row r="30" spans="1:11" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" ht="18.600000000000001" customHeight="1">
       <c r="A30" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="B30" s="25" t="s">
+      <c r="B30" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="C30" s="25"/>
+      <c r="C30" s="24"/>
       <c r="D30" s="10" t="s">
         <v>17</v>
       </c>
@@ -1979,110 +2010,110 @@
       <c r="J30" s="26"/>
       <c r="K30" s="26"/>
     </row>
-    <row r="31" spans="1:11" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" ht="18.600000000000001" customHeight="1">
       <c r="A31" s="14"/>
-      <c r="B31" s="27" t="s">
+      <c r="B31" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="C31" s="27"/>
-      <c r="D31" s="27" t="s">
+      <c r="C31" s="31"/>
+      <c r="D31" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="E31" s="25" t="s">
+      <c r="E31" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="F31" s="25"/>
-      <c r="G31" s="25"/>
-      <c r="H31" s="25"/>
-      <c r="I31" s="25"/>
-      <c r="J31" s="25"/>
-      <c r="K31" s="25"/>
-    </row>
-    <row r="32" spans="1:11" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F31" s="24"/>
+      <c r="G31" s="24"/>
+      <c r="H31" s="24"/>
+      <c r="I31" s="24"/>
+      <c r="J31" s="24"/>
+      <c r="K31" s="24"/>
+    </row>
+    <row r="32" spans="1:11" ht="18.600000000000001" customHeight="1">
       <c r="A32" s="15">
         <v>43070</v>
       </c>
-      <c r="B32" s="27"/>
-      <c r="C32" s="27"/>
-      <c r="D32" s="28"/>
-      <c r="E32" s="25"/>
-      <c r="F32" s="25"/>
-      <c r="G32" s="25"/>
-      <c r="H32" s="25"/>
-      <c r="I32" s="25"/>
-      <c r="J32" s="25"/>
-      <c r="K32" s="25"/>
-    </row>
-    <row r="33" spans="1:11" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="31"/>
+      <c r="C32" s="31"/>
+      <c r="D32" s="35"/>
+      <c r="E32" s="24"/>
+      <c r="F32" s="24"/>
+      <c r="G32" s="24"/>
+      <c r="H32" s="24"/>
+      <c r="I32" s="24"/>
+      <c r="J32" s="24"/>
+      <c r="K32" s="24"/>
+    </row>
+    <row r="33" spans="1:11" ht="18.600000000000001" customHeight="1">
       <c r="A33" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="B33" s="27"/>
-      <c r="C33" s="27"/>
-      <c r="D33" s="28"/>
-      <c r="E33" s="29" t="s">
+      <c r="B33" s="31"/>
+      <c r="C33" s="31"/>
+      <c r="D33" s="35"/>
+      <c r="E33" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="F33" s="29"/>
-      <c r="G33" s="29"/>
-      <c r="H33" s="29"/>
-      <c r="I33" s="29"/>
-      <c r="J33" s="29"/>
-      <c r="K33" s="29"/>
-    </row>
-    <row r="34" spans="1:11" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F33" s="28"/>
+      <c r="G33" s="28"/>
+      <c r="H33" s="28"/>
+      <c r="I33" s="28"/>
+      <c r="J33" s="28"/>
+      <c r="K33" s="28"/>
+    </row>
+    <row r="34" spans="1:11" ht="18.600000000000001" customHeight="1">
       <c r="A34" s="15">
         <v>43709</v>
       </c>
-      <c r="B34" s="27"/>
-      <c r="C34" s="27"/>
-      <c r="D34" s="28"/>
-      <c r="E34" s="25" t="s">
+      <c r="B34" s="31"/>
+      <c r="C34" s="31"/>
+      <c r="D34" s="35"/>
+      <c r="E34" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="F34" s="25"/>
-      <c r="G34" s="25"/>
-      <c r="H34" s="25"/>
-      <c r="I34" s="25"/>
-      <c r="J34" s="25"/>
-      <c r="K34" s="25"/>
-    </row>
-    <row r="35" spans="1:11" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F34" s="24"/>
+      <c r="G34" s="24"/>
+      <c r="H34" s="24"/>
+      <c r="I34" s="24"/>
+      <c r="J34" s="24"/>
+      <c r="K34" s="24"/>
+    </row>
+    <row r="35" spans="1:11" ht="18.600000000000001" customHeight="1">
       <c r="A35" s="16"/>
-      <c r="B35" s="27"/>
-      <c r="C35" s="27"/>
-      <c r="D35" s="28"/>
-      <c r="E35" s="25"/>
-      <c r="F35" s="25"/>
-      <c r="G35" s="25"/>
-      <c r="H35" s="25"/>
-      <c r="I35" s="25"/>
-      <c r="J35" s="25"/>
-      <c r="K35" s="25"/>
-    </row>
-    <row r="36" spans="1:11" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B35" s="31"/>
+      <c r="C35" s="31"/>
+      <c r="D35" s="35"/>
+      <c r="E35" s="24"/>
+      <c r="F35" s="24"/>
+      <c r="G35" s="24"/>
+      <c r="H35" s="24"/>
+      <c r="I35" s="24"/>
+      <c r="J35" s="24"/>
+      <c r="K35" s="24"/>
+    </row>
+    <row r="36" spans="1:11" ht="18.600000000000001" customHeight="1">
       <c r="A36" s="16" t="str">
         <f>IF(OR($A32="",$A34=""),"",IF(DATEDIF($A32,$A34+31,"Y")=0,"",DATEDIF($A32,$A34+31,"Y")&amp;"年")&amp;IF(DATEDIF($A32,$A34+31,"YM")=0,"",DATEDIF($A32,$A34+31,"YM")&amp;"ヶ月"))</f>
         <v>1年10ヶ月</v>
       </c>
-      <c r="B36" s="27"/>
-      <c r="C36" s="27"/>
-      <c r="D36" s="28"/>
-      <c r="E36" s="29" t="s">
+      <c r="B36" s="31"/>
+      <c r="C36" s="31"/>
+      <c r="D36" s="35"/>
+      <c r="E36" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="F36" s="29"/>
-      <c r="G36" s="29"/>
-      <c r="H36" s="29"/>
-      <c r="I36" s="29"/>
-      <c r="J36" s="29"/>
-      <c r="K36" s="29"/>
-    </row>
-    <row r="37" spans="1:11" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F36" s="28"/>
+      <c r="G36" s="28"/>
+      <c r="H36" s="28"/>
+      <c r="I36" s="28"/>
+      <c r="J36" s="28"/>
+      <c r="K36" s="28"/>
+    </row>
+    <row r="37" spans="1:11" ht="23.1" customHeight="1">
       <c r="A37" s="16"/>
-      <c r="B37" s="27"/>
-      <c r="C37" s="27"/>
-      <c r="D37" s="28"/>
+      <c r="B37" s="31"/>
+      <c r="C37" s="31"/>
+      <c r="D37" s="35"/>
       <c r="E37" s="23" t="s">
         <v>26</v>
       </c>
@@ -2105,11 +2136,11 @@
         <v>32</v>
       </c>
     </row>
-    <row r="38" spans="1:11" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" ht="18.600000000000001" customHeight="1">
       <c r="A38" s="17"/>
-      <c r="B38" s="27"/>
-      <c r="C38" s="27"/>
-      <c r="D38" s="28"/>
+      <c r="B38" s="31"/>
+      <c r="C38" s="31"/>
+      <c r="D38" s="35"/>
       <c r="E38" s="18"/>
       <c r="F38" s="18"/>
       <c r="G38" s="18" t="s">
@@ -2126,14 +2157,14 @@
       </c>
       <c r="K38" s="18"/>
     </row>
-    <row r="39" spans="1:11" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" ht="18.600000000000001" customHeight="1">
       <c r="A39" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="B39" s="25" t="s">
+      <c r="B39" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="C39" s="25"/>
+      <c r="C39" s="24"/>
       <c r="D39" s="10" t="s">
         <v>17</v>
       </c>
@@ -2147,110 +2178,110 @@
       <c r="J39" s="26"/>
       <c r="K39" s="26"/>
     </row>
-    <row r="40" spans="1:11" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" ht="18.600000000000001" customHeight="1">
       <c r="A40" s="14"/>
-      <c r="B40" s="27" t="s">
+      <c r="B40" s="31" t="s">
         <v>46</v>
       </c>
-      <c r="C40" s="27"/>
-      <c r="D40" s="27" t="s">
+      <c r="C40" s="31"/>
+      <c r="D40" s="31" t="s">
         <v>47</v>
       </c>
-      <c r="E40" s="25" t="s">
+      <c r="E40" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="F40" s="25"/>
-      <c r="G40" s="25"/>
-      <c r="H40" s="25"/>
-      <c r="I40" s="25"/>
-      <c r="J40" s="25"/>
-      <c r="K40" s="25"/>
-    </row>
-    <row r="41" spans="1:11" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F40" s="24"/>
+      <c r="G40" s="24"/>
+      <c r="H40" s="24"/>
+      <c r="I40" s="24"/>
+      <c r="J40" s="24"/>
+      <c r="K40" s="24"/>
+    </row>
+    <row r="41" spans="1:11" ht="18.600000000000001" customHeight="1">
       <c r="A41" s="15">
         <v>43739</v>
       </c>
-      <c r="B41" s="27"/>
-      <c r="C41" s="27"/>
-      <c r="D41" s="28"/>
-      <c r="E41" s="25"/>
-      <c r="F41" s="25"/>
-      <c r="G41" s="25"/>
-      <c r="H41" s="25"/>
-      <c r="I41" s="25"/>
-      <c r="J41" s="25"/>
-      <c r="K41" s="25"/>
-    </row>
-    <row r="42" spans="1:11" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B41" s="31"/>
+      <c r="C41" s="31"/>
+      <c r="D41" s="35"/>
+      <c r="E41" s="24"/>
+      <c r="F41" s="24"/>
+      <c r="G41" s="24"/>
+      <c r="H41" s="24"/>
+      <c r="I41" s="24"/>
+      <c r="J41" s="24"/>
+      <c r="K41" s="24"/>
+    </row>
+    <row r="42" spans="1:11" ht="18.600000000000001" customHeight="1">
       <c r="A42" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="B42" s="27"/>
-      <c r="C42" s="27"/>
-      <c r="D42" s="28"/>
-      <c r="E42" s="29" t="s">
+      <c r="B42" s="31"/>
+      <c r="C42" s="31"/>
+      <c r="D42" s="35"/>
+      <c r="E42" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="F42" s="29"/>
-      <c r="G42" s="29"/>
-      <c r="H42" s="29"/>
-      <c r="I42" s="29"/>
-      <c r="J42" s="29"/>
-      <c r="K42" s="29"/>
-    </row>
-    <row r="43" spans="1:11" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F42" s="28"/>
+      <c r="G42" s="28"/>
+      <c r="H42" s="28"/>
+      <c r="I42" s="28"/>
+      <c r="J42" s="28"/>
+      <c r="K42" s="28"/>
+    </row>
+    <row r="43" spans="1:11" ht="18.600000000000001" customHeight="1">
       <c r="A43" s="15">
         <v>44228</v>
       </c>
-      <c r="B43" s="27"/>
-      <c r="C43" s="27"/>
-      <c r="D43" s="28"/>
-      <c r="E43" s="25" t="s">
+      <c r="B43" s="31"/>
+      <c r="C43" s="31"/>
+      <c r="D43" s="35"/>
+      <c r="E43" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="F43" s="25"/>
-      <c r="G43" s="25"/>
-      <c r="H43" s="25"/>
-      <c r="I43" s="25"/>
-      <c r="J43" s="25"/>
-      <c r="K43" s="25"/>
-    </row>
-    <row r="44" spans="1:11" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F43" s="24"/>
+      <c r="G43" s="24"/>
+      <c r="H43" s="24"/>
+      <c r="I43" s="24"/>
+      <c r="J43" s="24"/>
+      <c r="K43" s="24"/>
+    </row>
+    <row r="44" spans="1:11" ht="18.600000000000001" customHeight="1">
       <c r="A44" s="16"/>
-      <c r="B44" s="27"/>
-      <c r="C44" s="27"/>
-      <c r="D44" s="28"/>
-      <c r="E44" s="25"/>
-      <c r="F44" s="25"/>
-      <c r="G44" s="25"/>
-      <c r="H44" s="25"/>
-      <c r="I44" s="25"/>
-      <c r="J44" s="25"/>
-      <c r="K44" s="25"/>
-    </row>
-    <row r="45" spans="1:11" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B44" s="31"/>
+      <c r="C44" s="31"/>
+      <c r="D44" s="35"/>
+      <c r="E44" s="24"/>
+      <c r="F44" s="24"/>
+      <c r="G44" s="24"/>
+      <c r="H44" s="24"/>
+      <c r="I44" s="24"/>
+      <c r="J44" s="24"/>
+      <c r="K44" s="24"/>
+    </row>
+    <row r="45" spans="1:11" ht="18.600000000000001" customHeight="1">
       <c r="A45" s="16" t="str">
         <f>IF(OR($A41="",$A43=""),"",IF(DATEDIF($A41,$A43+31,"Y")=0,"",DATEDIF($A41,$A43+31,"Y")&amp;"年")&amp;IF(DATEDIF($A41,$A43+31,"YM")=0,"",DATEDIF($A41,$A43+31,"YM")&amp;"ヶ月"))</f>
         <v>1年5ヶ月</v>
       </c>
-      <c r="B45" s="27"/>
-      <c r="C45" s="27"/>
-      <c r="D45" s="28"/>
-      <c r="E45" s="29" t="s">
+      <c r="B45" s="31"/>
+      <c r="C45" s="31"/>
+      <c r="D45" s="35"/>
+      <c r="E45" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="F45" s="29"/>
-      <c r="G45" s="29"/>
-      <c r="H45" s="29"/>
-      <c r="I45" s="29"/>
-      <c r="J45" s="29"/>
-      <c r="K45" s="29"/>
-    </row>
-    <row r="46" spans="1:11" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F45" s="28"/>
+      <c r="G45" s="28"/>
+      <c r="H45" s="28"/>
+      <c r="I45" s="28"/>
+      <c r="J45" s="28"/>
+      <c r="K45" s="28"/>
+    </row>
+    <row r="46" spans="1:11" ht="23.1" customHeight="1">
       <c r="A46" s="16"/>
-      <c r="B46" s="27"/>
-      <c r="C46" s="27"/>
-      <c r="D46" s="28"/>
+      <c r="B46" s="31"/>
+      <c r="C46" s="31"/>
+      <c r="D46" s="35"/>
       <c r="E46" s="23" t="s">
         <v>26</v>
       </c>
@@ -2273,11 +2304,11 @@
         <v>32</v>
       </c>
     </row>
-    <row r="47" spans="1:11" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" ht="18.600000000000001" customHeight="1">
       <c r="A47" s="17"/>
-      <c r="B47" s="27"/>
-      <c r="C47" s="27"/>
-      <c r="D47" s="28"/>
+      <c r="B47" s="31"/>
+      <c r="C47" s="31"/>
+      <c r="D47" s="35"/>
       <c r="E47" s="18"/>
       <c r="F47" s="18" t="s">
         <v>39</v>
@@ -2296,7 +2327,7 @@
       </c>
       <c r="K47" s="18"/>
     </row>
-    <row r="48" spans="1:11" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" ht="18.600000000000001" customHeight="1">
       <c r="A48" s="11"/>
       <c r="B48" s="11"/>
       <c r="C48" s="11"/>
@@ -2309,31 +2340,31 @@
       <c r="J48" s="11"/>
       <c r="K48" s="11"/>
     </row>
-    <row r="49" spans="1:11" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" ht="18.600000000000001" customHeight="1">
       <c r="A49" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="B49" s="25" t="s">
+      <c r="B49" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="C49" s="25"/>
-      <c r="D49" s="25"/>
-      <c r="E49" s="25"/>
-      <c r="F49" s="25"/>
-      <c r="G49" s="25"/>
-      <c r="H49" s="25"/>
-      <c r="I49" s="25"/>
-      <c r="J49" s="25"/>
-      <c r="K49" s="25"/>
-    </row>
-    <row r="50" spans="1:11" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C49" s="24"/>
+      <c r="D49" s="24"/>
+      <c r="E49" s="24"/>
+      <c r="F49" s="24"/>
+      <c r="G49" s="24"/>
+      <c r="H49" s="24"/>
+      <c r="I49" s="24"/>
+      <c r="J49" s="24"/>
+      <c r="K49" s="24"/>
+    </row>
+    <row r="50" spans="1:11" ht="18.600000000000001" customHeight="1">
       <c r="A50" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="B50" s="25" t="s">
+      <c r="B50" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="C50" s="25"/>
+      <c r="C50" s="24"/>
       <c r="D50" s="10" t="s">
         <v>17</v>
       </c>
@@ -2347,110 +2378,110 @@
       <c r="J50" s="26"/>
       <c r="K50" s="26"/>
     </row>
-    <row r="51" spans="1:11" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" ht="18.600000000000001" customHeight="1">
       <c r="A51" s="14"/>
-      <c r="B51" s="27" t="s">
+      <c r="B51" s="31" t="s">
         <v>51</v>
       </c>
-      <c r="C51" s="27"/>
-      <c r="D51" s="27" t="s">
+      <c r="C51" s="31"/>
+      <c r="D51" s="31" t="s">
         <v>52</v>
       </c>
-      <c r="E51" s="25" t="s">
+      <c r="E51" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="F51" s="25"/>
-      <c r="G51" s="25"/>
-      <c r="H51" s="25"/>
-      <c r="I51" s="25"/>
-      <c r="J51" s="25"/>
-      <c r="K51" s="25"/>
-    </row>
-    <row r="52" spans="1:11" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F51" s="24"/>
+      <c r="G51" s="24"/>
+      <c r="H51" s="24"/>
+      <c r="I51" s="24"/>
+      <c r="J51" s="24"/>
+      <c r="K51" s="24"/>
+    </row>
+    <row r="52" spans="1:11" ht="18.600000000000001" customHeight="1">
       <c r="A52" s="15">
         <v>44378</v>
       </c>
-      <c r="B52" s="27"/>
-      <c r="C52" s="27"/>
-      <c r="D52" s="28"/>
-      <c r="E52" s="25"/>
-      <c r="F52" s="25"/>
-      <c r="G52" s="25"/>
-      <c r="H52" s="25"/>
-      <c r="I52" s="25"/>
-      <c r="J52" s="25"/>
-      <c r="K52" s="25"/>
-    </row>
-    <row r="53" spans="1:11" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B52" s="31"/>
+      <c r="C52" s="31"/>
+      <c r="D52" s="35"/>
+      <c r="E52" s="24"/>
+      <c r="F52" s="24"/>
+      <c r="G52" s="24"/>
+      <c r="H52" s="24"/>
+      <c r="I52" s="24"/>
+      <c r="J52" s="24"/>
+      <c r="K52" s="24"/>
+    </row>
+    <row r="53" spans="1:11" ht="18.600000000000001" customHeight="1">
       <c r="A53" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="B53" s="27"/>
-      <c r="C53" s="27"/>
-      <c r="D53" s="28"/>
-      <c r="E53" s="29" t="s">
+      <c r="B53" s="31"/>
+      <c r="C53" s="31"/>
+      <c r="D53" s="35"/>
+      <c r="E53" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="F53" s="29"/>
-      <c r="G53" s="29"/>
-      <c r="H53" s="29"/>
-      <c r="I53" s="29"/>
-      <c r="J53" s="29"/>
-      <c r="K53" s="29"/>
-    </row>
-    <row r="54" spans="1:11" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F53" s="28"/>
+      <c r="G53" s="28"/>
+      <c r="H53" s="28"/>
+      <c r="I53" s="28"/>
+      <c r="J53" s="28"/>
+      <c r="K53" s="28"/>
+    </row>
+    <row r="54" spans="1:11" ht="18.600000000000001" customHeight="1">
       <c r="A54" s="15">
         <v>44562</v>
       </c>
-      <c r="B54" s="27"/>
-      <c r="C54" s="27"/>
-      <c r="D54" s="28"/>
-      <c r="E54" s="25" t="s">
+      <c r="B54" s="31"/>
+      <c r="C54" s="31"/>
+      <c r="D54" s="35"/>
+      <c r="E54" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="F54" s="25"/>
-      <c r="G54" s="25"/>
-      <c r="H54" s="25"/>
-      <c r="I54" s="25"/>
-      <c r="J54" s="25"/>
-      <c r="K54" s="25"/>
-    </row>
-    <row r="55" spans="1:11" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F54" s="24"/>
+      <c r="G54" s="24"/>
+      <c r="H54" s="24"/>
+      <c r="I54" s="24"/>
+      <c r="J54" s="24"/>
+      <c r="K54" s="24"/>
+    </row>
+    <row r="55" spans="1:11" ht="18.600000000000001" customHeight="1">
       <c r="A55" s="16"/>
-      <c r="B55" s="27"/>
-      <c r="C55" s="27"/>
-      <c r="D55" s="28"/>
-      <c r="E55" s="25"/>
-      <c r="F55" s="25"/>
-      <c r="G55" s="25"/>
-      <c r="H55" s="25"/>
-      <c r="I55" s="25"/>
-      <c r="J55" s="25"/>
-      <c r="K55" s="25"/>
-    </row>
-    <row r="56" spans="1:11" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B55" s="31"/>
+      <c r="C55" s="31"/>
+      <c r="D55" s="35"/>
+      <c r="E55" s="24"/>
+      <c r="F55" s="24"/>
+      <c r="G55" s="24"/>
+      <c r="H55" s="24"/>
+      <c r="I55" s="24"/>
+      <c r="J55" s="24"/>
+      <c r="K55" s="24"/>
+    </row>
+    <row r="56" spans="1:11" ht="18.600000000000001" customHeight="1">
       <c r="A56" s="16" t="str">
         <f>IF(OR($A52="",$A54=""),"",IF(DATEDIF($A52,$A54+31,"Y")=0,"",DATEDIF($A52,$A54+31,"Y")&amp;"年")&amp;IF(DATEDIF($A52,$A54+31,"YM")=0,"",DATEDIF($A52,$A54+31,"YM")&amp;"ヶ月"))</f>
         <v>7ヶ月</v>
       </c>
-      <c r="B56" s="27"/>
-      <c r="C56" s="27"/>
-      <c r="D56" s="28"/>
-      <c r="E56" s="29" t="s">
+      <c r="B56" s="31"/>
+      <c r="C56" s="31"/>
+      <c r="D56" s="35"/>
+      <c r="E56" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="F56" s="29"/>
-      <c r="G56" s="29"/>
-      <c r="H56" s="29"/>
-      <c r="I56" s="29"/>
-      <c r="J56" s="29"/>
-      <c r="K56" s="29"/>
-    </row>
-    <row r="57" spans="1:11" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F56" s="28"/>
+      <c r="G56" s="28"/>
+      <c r="H56" s="28"/>
+      <c r="I56" s="28"/>
+      <c r="J56" s="28"/>
+      <c r="K56" s="28"/>
+    </row>
+    <row r="57" spans="1:11" ht="23.1" customHeight="1">
       <c r="A57" s="16"/>
-      <c r="B57" s="27"/>
-      <c r="C57" s="27"/>
-      <c r="D57" s="28"/>
+      <c r="B57" s="31"/>
+      <c r="C57" s="31"/>
+      <c r="D57" s="35"/>
       <c r="E57" s="23" t="s">
         <v>26</v>
       </c>
@@ -2473,11 +2504,11 @@
         <v>32</v>
       </c>
     </row>
-    <row r="58" spans="1:11" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" ht="18.600000000000001" customHeight="1">
       <c r="A58" s="17"/>
-      <c r="B58" s="27"/>
-      <c r="C58" s="27"/>
-      <c r="D58" s="28"/>
+      <c r="B58" s="31"/>
+      <c r="C58" s="31"/>
+      <c r="D58" s="35"/>
       <c r="E58" s="18"/>
       <c r="F58" s="18"/>
       <c r="G58" s="18"/>
@@ -2490,14 +2521,14 @@
       </c>
       <c r="K58" s="18"/>
     </row>
-    <row r="59" spans="1:11" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" ht="18.600000000000001" customHeight="1">
       <c r="A59" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="B59" s="25" t="s">
+      <c r="B59" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="C59" s="25"/>
+      <c r="C59" s="24"/>
       <c r="D59" s="10" t="s">
         <v>17</v>
       </c>
@@ -2511,110 +2542,110 @@
       <c r="J59" s="26"/>
       <c r="K59" s="26"/>
     </row>
-    <row r="60" spans="1:11" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" ht="18.600000000000001" customHeight="1">
       <c r="A60" s="14"/>
-      <c r="B60" s="27" t="s">
+      <c r="B60" s="31" t="s">
         <v>55</v>
       </c>
-      <c r="C60" s="27"/>
-      <c r="D60" s="27" t="s">
+      <c r="C60" s="31"/>
+      <c r="D60" s="31" t="s">
         <v>56</v>
       </c>
-      <c r="E60" s="25" t="s">
+      <c r="E60" s="24" t="s">
         <v>57</v>
       </c>
-      <c r="F60" s="25"/>
-      <c r="G60" s="25"/>
-      <c r="H60" s="25"/>
-      <c r="I60" s="25"/>
-      <c r="J60" s="25"/>
-      <c r="K60" s="25"/>
-    </row>
-    <row r="61" spans="1:11" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F60" s="24"/>
+      <c r="G60" s="24"/>
+      <c r="H60" s="24"/>
+      <c r="I60" s="24"/>
+      <c r="J60" s="24"/>
+      <c r="K60" s="24"/>
+    </row>
+    <row r="61" spans="1:11" ht="18.600000000000001" customHeight="1">
       <c r="A61" s="15">
         <v>44593</v>
       </c>
-      <c r="B61" s="27"/>
-      <c r="C61" s="27"/>
-      <c r="D61" s="28"/>
-      <c r="E61" s="25"/>
-      <c r="F61" s="25"/>
-      <c r="G61" s="25"/>
-      <c r="H61" s="25"/>
-      <c r="I61" s="25"/>
-      <c r="J61" s="25"/>
-      <c r="K61" s="25"/>
-    </row>
-    <row r="62" spans="1:11" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B61" s="31"/>
+      <c r="C61" s="31"/>
+      <c r="D61" s="35"/>
+      <c r="E61" s="24"/>
+      <c r="F61" s="24"/>
+      <c r="G61" s="24"/>
+      <c r="H61" s="24"/>
+      <c r="I61" s="24"/>
+      <c r="J61" s="24"/>
+      <c r="K61" s="24"/>
+    </row>
+    <row r="62" spans="1:11" ht="18.600000000000001" customHeight="1">
       <c r="A62" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="B62" s="27"/>
-      <c r="C62" s="27"/>
-      <c r="D62" s="28"/>
-      <c r="E62" s="29" t="s">
+      <c r="B62" s="31"/>
+      <c r="C62" s="31"/>
+      <c r="D62" s="35"/>
+      <c r="E62" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="F62" s="29"/>
-      <c r="G62" s="29"/>
-      <c r="H62" s="29"/>
-      <c r="I62" s="29"/>
-      <c r="J62" s="29"/>
-      <c r="K62" s="29"/>
-    </row>
-    <row r="63" spans="1:11" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F62" s="28"/>
+      <c r="G62" s="28"/>
+      <c r="H62" s="28"/>
+      <c r="I62" s="28"/>
+      <c r="J62" s="28"/>
+      <c r="K62" s="28"/>
+    </row>
+    <row r="63" spans="1:11" ht="18.600000000000001" customHeight="1">
       <c r="A63" s="15">
         <v>44805</v>
       </c>
-      <c r="B63" s="27"/>
-      <c r="C63" s="27"/>
-      <c r="D63" s="28"/>
-      <c r="E63" s="25" t="s">
+      <c r="B63" s="31"/>
+      <c r="C63" s="31"/>
+      <c r="D63" s="35"/>
+      <c r="E63" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="F63" s="25"/>
-      <c r="G63" s="25"/>
-      <c r="H63" s="25"/>
-      <c r="I63" s="25"/>
-      <c r="J63" s="25"/>
-      <c r="K63" s="25"/>
-    </row>
-    <row r="64" spans="1:11" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F63" s="24"/>
+      <c r="G63" s="24"/>
+      <c r="H63" s="24"/>
+      <c r="I63" s="24"/>
+      <c r="J63" s="24"/>
+      <c r="K63" s="24"/>
+    </row>
+    <row r="64" spans="1:11" ht="18.600000000000001" customHeight="1">
       <c r="A64" s="16"/>
-      <c r="B64" s="27"/>
-      <c r="C64" s="27"/>
-      <c r="D64" s="28"/>
-      <c r="E64" s="25"/>
-      <c r="F64" s="25"/>
-      <c r="G64" s="25"/>
-      <c r="H64" s="25"/>
-      <c r="I64" s="25"/>
-      <c r="J64" s="25"/>
-      <c r="K64" s="25"/>
-    </row>
-    <row r="65" spans="1:11" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B64" s="31"/>
+      <c r="C64" s="31"/>
+      <c r="D64" s="35"/>
+      <c r="E64" s="24"/>
+      <c r="F64" s="24"/>
+      <c r="G64" s="24"/>
+      <c r="H64" s="24"/>
+      <c r="I64" s="24"/>
+      <c r="J64" s="24"/>
+      <c r="K64" s="24"/>
+    </row>
+    <row r="65" spans="1:11" ht="18.600000000000001" customHeight="1">
       <c r="A65" s="16" t="str">
         <f>IF(OR($A61="",$A63=""),"",IF(DATEDIF($A61,$A63+31,"Y")=0,"",DATEDIF($A61,$A63+31,"Y")&amp;"年")&amp;IF(DATEDIF($A61,$A63+31,"YM")=0,"",DATEDIF($A61,$A63+31,"YM")&amp;"ヶ月"))</f>
         <v>8ヶ月</v>
       </c>
-      <c r="B65" s="27"/>
-      <c r="C65" s="27"/>
-      <c r="D65" s="28"/>
-      <c r="E65" s="29" t="s">
+      <c r="B65" s="31"/>
+      <c r="C65" s="31"/>
+      <c r="D65" s="35"/>
+      <c r="E65" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="F65" s="29"/>
-      <c r="G65" s="29"/>
-      <c r="H65" s="29"/>
-      <c r="I65" s="29"/>
-      <c r="J65" s="29"/>
-      <c r="K65" s="29"/>
-    </row>
-    <row r="66" spans="1:11" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F65" s="28"/>
+      <c r="G65" s="28"/>
+      <c r="H65" s="28"/>
+      <c r="I65" s="28"/>
+      <c r="J65" s="28"/>
+      <c r="K65" s="28"/>
+    </row>
+    <row r="66" spans="1:11" ht="23.1" customHeight="1">
       <c r="A66" s="16"/>
-      <c r="B66" s="27"/>
-      <c r="C66" s="27"/>
-      <c r="D66" s="28"/>
+      <c r="B66" s="31"/>
+      <c r="C66" s="31"/>
+      <c r="D66" s="35"/>
       <c r="E66" s="23" t="s">
         <v>26</v>
       </c>
@@ -2637,11 +2668,11 @@
         <v>32</v>
       </c>
     </row>
-    <row r="67" spans="1:11" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" ht="18.600000000000001" customHeight="1">
       <c r="A67" s="17"/>
-      <c r="B67" s="27"/>
-      <c r="C67" s="27"/>
-      <c r="D67" s="28"/>
+      <c r="B67" s="31"/>
+      <c r="C67" s="31"/>
+      <c r="D67" s="35"/>
       <c r="E67" s="18"/>
       <c r="F67" s="18"/>
       <c r="G67" s="18"/>
@@ -2652,14 +2683,14 @@
         <v>33</v>
       </c>
     </row>
-    <row r="68" spans="1:11" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" ht="18.600000000000001" customHeight="1">
       <c r="A68" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="B68" s="25" t="s">
+      <c r="B68" s="24" t="s">
         <v>58</v>
       </c>
-      <c r="C68" s="25"/>
+      <c r="C68" s="24"/>
       <c r="D68" s="10" t="s">
         <v>17</v>
       </c>
@@ -2673,110 +2704,110 @@
       <c r="J68" s="26"/>
       <c r="K68" s="26"/>
     </row>
-    <row r="69" spans="1:11" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" ht="18.600000000000001" customHeight="1">
       <c r="A69" s="14"/>
-      <c r="B69" s="27" t="s">
+      <c r="B69" s="31" t="s">
         <v>59</v>
       </c>
-      <c r="C69" s="27"/>
-      <c r="D69" s="27" t="s">
+      <c r="C69" s="31"/>
+      <c r="D69" s="31" t="s">
         <v>60</v>
       </c>
-      <c r="E69" s="25" t="s">
+      <c r="E69" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="F69" s="25"/>
-      <c r="G69" s="25"/>
-      <c r="H69" s="25"/>
-      <c r="I69" s="25"/>
-      <c r="J69" s="25"/>
-      <c r="K69" s="25"/>
-    </row>
-    <row r="70" spans="1:11" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F69" s="24"/>
+      <c r="G69" s="24"/>
+      <c r="H69" s="24"/>
+      <c r="I69" s="24"/>
+      <c r="J69" s="24"/>
+      <c r="K69" s="24"/>
+    </row>
+    <row r="70" spans="1:11" ht="18.600000000000001" customHeight="1">
       <c r="A70" s="15">
         <v>44835</v>
       </c>
-      <c r="B70" s="27"/>
-      <c r="C70" s="27"/>
-      <c r="D70" s="28"/>
-      <c r="E70" s="25"/>
-      <c r="F70" s="25"/>
-      <c r="G70" s="25"/>
-      <c r="H70" s="25"/>
-      <c r="I70" s="25"/>
-      <c r="J70" s="25"/>
-      <c r="K70" s="25"/>
-    </row>
-    <row r="71" spans="1:11" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B70" s="31"/>
+      <c r="C70" s="31"/>
+      <c r="D70" s="35"/>
+      <c r="E70" s="24"/>
+      <c r="F70" s="24"/>
+      <c r="G70" s="24"/>
+      <c r="H70" s="24"/>
+      <c r="I70" s="24"/>
+      <c r="J70" s="24"/>
+      <c r="K70" s="24"/>
+    </row>
+    <row r="71" spans="1:11" ht="18.600000000000001" customHeight="1">
       <c r="A71" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="B71" s="27"/>
-      <c r="C71" s="27"/>
-      <c r="D71" s="28"/>
-      <c r="E71" s="29" t="s">
+      <c r="B71" s="31"/>
+      <c r="C71" s="31"/>
+      <c r="D71" s="35"/>
+      <c r="E71" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="F71" s="29"/>
-      <c r="G71" s="29"/>
-      <c r="H71" s="29"/>
-      <c r="I71" s="29"/>
-      <c r="J71" s="29"/>
-      <c r="K71" s="29"/>
-    </row>
-    <row r="72" spans="1:11" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F71" s="28"/>
+      <c r="G71" s="28"/>
+      <c r="H71" s="28"/>
+      <c r="I71" s="28"/>
+      <c r="J71" s="28"/>
+      <c r="K71" s="28"/>
+    </row>
+    <row r="72" spans="1:11" ht="18.600000000000001" customHeight="1">
       <c r="A72" s="15">
         <v>44986</v>
       </c>
-      <c r="B72" s="27"/>
-      <c r="C72" s="27"/>
-      <c r="D72" s="28"/>
-      <c r="E72" s="25" t="s">
+      <c r="B72" s="31"/>
+      <c r="C72" s="31"/>
+      <c r="D72" s="35"/>
+      <c r="E72" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="F72" s="25"/>
-      <c r="G72" s="25"/>
-      <c r="H72" s="25"/>
-      <c r="I72" s="25"/>
-      <c r="J72" s="25"/>
-      <c r="K72" s="25"/>
-    </row>
-    <row r="73" spans="1:11" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F72" s="24"/>
+      <c r="G72" s="24"/>
+      <c r="H72" s="24"/>
+      <c r="I72" s="24"/>
+      <c r="J72" s="24"/>
+      <c r="K72" s="24"/>
+    </row>
+    <row r="73" spans="1:11" ht="18.600000000000001" customHeight="1">
       <c r="A73" s="16"/>
-      <c r="B73" s="27"/>
-      <c r="C73" s="27"/>
-      <c r="D73" s="28"/>
-      <c r="E73" s="25"/>
-      <c r="F73" s="25"/>
-      <c r="G73" s="25"/>
-      <c r="H73" s="25"/>
-      <c r="I73" s="25"/>
-      <c r="J73" s="25"/>
-      <c r="K73" s="25"/>
-    </row>
-    <row r="74" spans="1:11" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B73" s="31"/>
+      <c r="C73" s="31"/>
+      <c r="D73" s="35"/>
+      <c r="E73" s="24"/>
+      <c r="F73" s="24"/>
+      <c r="G73" s="24"/>
+      <c r="H73" s="24"/>
+      <c r="I73" s="24"/>
+      <c r="J73" s="24"/>
+      <c r="K73" s="24"/>
+    </row>
+    <row r="74" spans="1:11" ht="18.600000000000001" customHeight="1">
       <c r="A74" s="16" t="str">
         <f>IF(OR($A70="",$A72=""),"",IF(DATEDIF($A70,$A72+31,"Y")=0,"",DATEDIF($A70,$A72+31,"Y")&amp;"年")&amp;IF(DATEDIF($A70,$A72+31,"YM")=0,"",DATEDIF($A70,$A72+31,"YM")&amp;"ヶ月"))</f>
         <v>6ヶ月</v>
       </c>
-      <c r="B74" s="27"/>
-      <c r="C74" s="27"/>
-      <c r="D74" s="28"/>
-      <c r="E74" s="29" t="s">
+      <c r="B74" s="31"/>
+      <c r="C74" s="31"/>
+      <c r="D74" s="35"/>
+      <c r="E74" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="F74" s="29"/>
-      <c r="G74" s="29"/>
-      <c r="H74" s="29"/>
-      <c r="I74" s="29"/>
-      <c r="J74" s="29"/>
-      <c r="K74" s="29"/>
-    </row>
-    <row r="75" spans="1:11" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F74" s="28"/>
+      <c r="G74" s="28"/>
+      <c r="H74" s="28"/>
+      <c r="I74" s="28"/>
+      <c r="J74" s="28"/>
+      <c r="K74" s="28"/>
+    </row>
+    <row r="75" spans="1:11" ht="23.1" customHeight="1">
       <c r="A75" s="16"/>
-      <c r="B75" s="27"/>
-      <c r="C75" s="27"/>
-      <c r="D75" s="28"/>
+      <c r="B75" s="31"/>
+      <c r="C75" s="31"/>
+      <c r="D75" s="35"/>
       <c r="E75" s="23" t="s">
         <v>26</v>
       </c>
@@ -2799,11 +2830,11 @@
         <v>32</v>
       </c>
     </row>
-    <row r="76" spans="1:11" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" ht="18.600000000000001" customHeight="1">
       <c r="A76" s="17"/>
-      <c r="B76" s="27"/>
-      <c r="C76" s="27"/>
-      <c r="D76" s="28"/>
+      <c r="B76" s="31"/>
+      <c r="C76" s="31"/>
+      <c r="D76" s="35"/>
       <c r="E76" s="18"/>
       <c r="F76" s="18"/>
       <c r="G76" s="18"/>
@@ -2816,7 +2847,7 @@
       </c>
       <c r="K76" s="18"/>
     </row>
-    <row r="77" spans="1:11" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" ht="18.600000000000001" customHeight="1">
       <c r="A77" s="11"/>
       <c r="B77" s="11"/>
       <c r="C77" s="11"/>
@@ -2829,158 +2860,142 @@
       <c r="J77" s="11"/>
       <c r="K77" s="11"/>
     </row>
-    <row r="78" spans="1:11" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="39" t="s">
+    <row r="78" spans="1:11" ht="18.600000000000001" customHeight="1">
+      <c r="A78" s="32" t="s">
         <v>61</v>
       </c>
-      <c r="B78" s="40"/>
-      <c r="C78" s="40"/>
-      <c r="D78" s="40"/>
-      <c r="E78" s="40"/>
-      <c r="F78" s="40"/>
-      <c r="G78" s="40"/>
-      <c r="H78" s="40"/>
-      <c r="I78" s="40"/>
-      <c r="J78" s="40"/>
-      <c r="K78" s="41"/>
-    </row>
-    <row r="79" spans="1:11" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="30" t="s">
+      <c r="B78" s="33"/>
+      <c r="C78" s="33"/>
+      <c r="D78" s="33"/>
+      <c r="E78" s="33"/>
+      <c r="F78" s="33"/>
+      <c r="G78" s="33"/>
+      <c r="H78" s="33"/>
+      <c r="I78" s="33"/>
+      <c r="J78" s="33"/>
+      <c r="K78" s="34"/>
+    </row>
+    <row r="79" spans="1:11" ht="18.600000000000001" customHeight="1">
+      <c r="A79" s="59" t="s">
         <v>62</v>
       </c>
-      <c r="B79" s="31"/>
-      <c r="C79" s="31"/>
-      <c r="D79" s="31"/>
-      <c r="E79" s="31"/>
-      <c r="F79" s="31"/>
-      <c r="G79" s="31"/>
-      <c r="H79" s="31"/>
-      <c r="I79" s="31"/>
-      <c r="J79" s="31"/>
-      <c r="K79" s="32"/>
-    </row>
-    <row r="80" spans="1:11" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="33"/>
-      <c r="B80" s="34"/>
-      <c r="C80" s="34"/>
-      <c r="D80" s="34"/>
-      <c r="E80" s="34"/>
-      <c r="F80" s="34"/>
-      <c r="G80" s="34"/>
-      <c r="H80" s="34"/>
-      <c r="I80" s="34"/>
-      <c r="J80" s="34"/>
-      <c r="K80" s="35"/>
-    </row>
-    <row r="81" spans="1:11" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="33"/>
-      <c r="B81" s="34"/>
-      <c r="C81" s="34"/>
-      <c r="D81" s="34"/>
-      <c r="E81" s="34"/>
-      <c r="F81" s="34"/>
-      <c r="G81" s="34"/>
-      <c r="H81" s="34"/>
-      <c r="I81" s="34"/>
-      <c r="J81" s="34"/>
-      <c r="K81" s="35"/>
-    </row>
-    <row r="82" spans="1:11" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="33"/>
-      <c r="B82" s="34"/>
-      <c r="C82" s="34"/>
-      <c r="D82" s="34"/>
-      <c r="E82" s="34"/>
-      <c r="F82" s="34"/>
-      <c r="G82" s="34"/>
-      <c r="H82" s="34"/>
-      <c r="I82" s="34"/>
-      <c r="J82" s="34"/>
-      <c r="K82" s="35"/>
-    </row>
-    <row r="83" spans="1:11" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="33"/>
-      <c r="B83" s="34"/>
-      <c r="C83" s="34"/>
-      <c r="D83" s="34"/>
-      <c r="E83" s="34"/>
-      <c r="F83" s="34"/>
-      <c r="G83" s="34"/>
-      <c r="H83" s="34"/>
-      <c r="I83" s="34"/>
-      <c r="J83" s="34"/>
-      <c r="K83" s="35"/>
-    </row>
-    <row r="84" spans="1:11" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="36"/>
-      <c r="B84" s="37"/>
-      <c r="C84" s="37"/>
-      <c r="D84" s="37"/>
-      <c r="E84" s="37"/>
-      <c r="F84" s="37"/>
-      <c r="G84" s="37"/>
-      <c r="H84" s="37"/>
-      <c r="I84" s="37"/>
-      <c r="J84" s="37"/>
-      <c r="K84" s="38"/>
+      <c r="B79" s="60"/>
+      <c r="C79" s="60"/>
+      <c r="D79" s="60"/>
+      <c r="E79" s="60"/>
+      <c r="F79" s="60"/>
+      <c r="G79" s="60"/>
+      <c r="H79" s="60"/>
+      <c r="I79" s="60"/>
+      <c r="J79" s="60"/>
+      <c r="K79" s="61"/>
+    </row>
+    <row r="80" spans="1:11" ht="18.600000000000001" customHeight="1">
+      <c r="A80" s="62"/>
+      <c r="B80" s="63"/>
+      <c r="C80" s="63"/>
+      <c r="D80" s="63"/>
+      <c r="E80" s="63"/>
+      <c r="F80" s="63"/>
+      <c r="G80" s="63"/>
+      <c r="H80" s="63"/>
+      <c r="I80" s="63"/>
+      <c r="J80" s="63"/>
+      <c r="K80" s="64"/>
+    </row>
+    <row r="81" spans="1:11" ht="18.600000000000001" customHeight="1">
+      <c r="A81" s="62"/>
+      <c r="B81" s="63"/>
+      <c r="C81" s="63"/>
+      <c r="D81" s="63"/>
+      <c r="E81" s="63"/>
+      <c r="F81" s="63"/>
+      <c r="G81" s="63"/>
+      <c r="H81" s="63"/>
+      <c r="I81" s="63"/>
+      <c r="J81" s="63"/>
+      <c r="K81" s="64"/>
+    </row>
+    <row r="82" spans="1:11" ht="18.600000000000001" customHeight="1">
+      <c r="A82" s="62"/>
+      <c r="B82" s="63"/>
+      <c r="C82" s="63"/>
+      <c r="D82" s="63"/>
+      <c r="E82" s="63"/>
+      <c r="F82" s="63"/>
+      <c r="G82" s="63"/>
+      <c r="H82" s="63"/>
+      <c r="I82" s="63"/>
+      <c r="J82" s="63"/>
+      <c r="K82" s="64"/>
+    </row>
+    <row r="83" spans="1:11" ht="18.600000000000001" customHeight="1">
+      <c r="A83" s="62"/>
+      <c r="B83" s="63"/>
+      <c r="C83" s="63"/>
+      <c r="D83" s="63"/>
+      <c r="E83" s="63"/>
+      <c r="F83" s="63"/>
+      <c r="G83" s="63"/>
+      <c r="H83" s="63"/>
+      <c r="I83" s="63"/>
+      <c r="J83" s="63"/>
+      <c r="K83" s="64"/>
+    </row>
+    <row r="84" spans="1:11" ht="18.600000000000001" customHeight="1">
+      <c r="A84" s="62"/>
+      <c r="B84" s="63"/>
+      <c r="C84" s="63"/>
+      <c r="D84" s="63"/>
+      <c r="E84" s="63"/>
+      <c r="F84" s="63"/>
+      <c r="G84" s="63"/>
+      <c r="H84" s="63"/>
+      <c r="I84" s="63"/>
+      <c r="J84" s="63"/>
+      <c r="K84" s="64"/>
+    </row>
+    <row r="85" spans="1:11" ht="18.600000000000001" customHeight="1">
+      <c r="A85" s="62"/>
+      <c r="B85" s="63"/>
+      <c r="C85" s="63"/>
+      <c r="D85" s="63"/>
+      <c r="E85" s="63"/>
+      <c r="F85" s="63"/>
+      <c r="G85" s="63"/>
+      <c r="H85" s="63"/>
+      <c r="I85" s="63"/>
+      <c r="J85" s="63"/>
+      <c r="K85" s="64"/>
+    </row>
+    <row r="86" spans="1:11" ht="18.600000000000001" customHeight="1">
+      <c r="A86" s="62"/>
+      <c r="B86" s="63"/>
+      <c r="C86" s="63"/>
+      <c r="D86" s="63"/>
+      <c r="E86" s="63"/>
+      <c r="F86" s="63"/>
+      <c r="G86" s="63"/>
+      <c r="H86" s="63"/>
+      <c r="I86" s="63"/>
+      <c r="J86" s="63"/>
+      <c r="K86" s="64"/>
+    </row>
+    <row r="87" spans="1:11" ht="18.600000000000001" customHeight="1">
+      <c r="A87" s="65"/>
+      <c r="B87" s="66"/>
+      <c r="C87" s="66"/>
+      <c r="D87" s="66"/>
+      <c r="E87" s="66"/>
+      <c r="F87" s="66"/>
+      <c r="G87" s="66"/>
+      <c r="H87" s="66"/>
+      <c r="I87" s="66"/>
+      <c r="J87" s="66"/>
+      <c r="K87" s="67"/>
     </row>
   </sheetData>
   <mergeCells count="71">
-    <mergeCell ref="B11:K11"/>
-    <mergeCell ref="E7:K9"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:D6"/>
-    <mergeCell ref="E3:K6"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:C6"/>
-    <mergeCell ref="A7:A9"/>
-    <mergeCell ref="B7:C9"/>
-    <mergeCell ref="D7:D9"/>
-    <mergeCell ref="E12:K12"/>
-    <mergeCell ref="B13:C20"/>
-    <mergeCell ref="D13:D20"/>
-    <mergeCell ref="E13:K14"/>
-    <mergeCell ref="E15:K15"/>
-    <mergeCell ref="E16:K17"/>
-    <mergeCell ref="E18:K18"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="A79:K84"/>
-    <mergeCell ref="A78:K78"/>
-    <mergeCell ref="E40:K41"/>
-    <mergeCell ref="E21:K21"/>
-    <mergeCell ref="B22:C29"/>
-    <mergeCell ref="D22:D29"/>
-    <mergeCell ref="E22:K23"/>
-    <mergeCell ref="E24:K24"/>
-    <mergeCell ref="E25:K26"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="E30:K30"/>
-    <mergeCell ref="B31:C38"/>
-    <mergeCell ref="D31:D38"/>
-    <mergeCell ref="E31:K32"/>
-    <mergeCell ref="E33:K33"/>
-    <mergeCell ref="E27:K27"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B49:K49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="E50:K50"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="E34:K35"/>
-    <mergeCell ref="E36:K36"/>
-    <mergeCell ref="B40:C47"/>
-    <mergeCell ref="D40:D47"/>
-    <mergeCell ref="E42:K42"/>
-    <mergeCell ref="E43:K44"/>
-    <mergeCell ref="E45:K45"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="E68:K68"/>
-    <mergeCell ref="B69:C76"/>
-    <mergeCell ref="D69:D76"/>
-    <mergeCell ref="E69:K70"/>
-    <mergeCell ref="E71:K71"/>
-    <mergeCell ref="E72:K73"/>
-    <mergeCell ref="E74:K74"/>
     <mergeCell ref="E1:K1"/>
     <mergeCell ref="B59:C59"/>
     <mergeCell ref="E59:K59"/>
@@ -2997,6 +3012,61 @@
     <mergeCell ref="E54:K55"/>
     <mergeCell ref="E56:K56"/>
     <mergeCell ref="E39:K39"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="E68:K68"/>
+    <mergeCell ref="B69:C76"/>
+    <mergeCell ref="D69:D76"/>
+    <mergeCell ref="E69:K70"/>
+    <mergeCell ref="E71:K71"/>
+    <mergeCell ref="E72:K73"/>
+    <mergeCell ref="E74:K74"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B49:K49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="E50:K50"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="E34:K35"/>
+    <mergeCell ref="E36:K36"/>
+    <mergeCell ref="B40:C47"/>
+    <mergeCell ref="D40:D47"/>
+    <mergeCell ref="E42:K42"/>
+    <mergeCell ref="E43:K44"/>
+    <mergeCell ref="E45:K45"/>
+    <mergeCell ref="A79:K87"/>
+    <mergeCell ref="A78:K78"/>
+    <mergeCell ref="E40:K41"/>
+    <mergeCell ref="E21:K21"/>
+    <mergeCell ref="B22:C29"/>
+    <mergeCell ref="D22:D29"/>
+    <mergeCell ref="E22:K23"/>
+    <mergeCell ref="E24:K24"/>
+    <mergeCell ref="E25:K26"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="E30:K30"/>
+    <mergeCell ref="B31:C38"/>
+    <mergeCell ref="D31:D38"/>
+    <mergeCell ref="E31:K32"/>
+    <mergeCell ref="E33:K33"/>
+    <mergeCell ref="E27:K27"/>
+    <mergeCell ref="E12:K12"/>
+    <mergeCell ref="B13:C20"/>
+    <mergeCell ref="D13:D20"/>
+    <mergeCell ref="E13:K14"/>
+    <mergeCell ref="E15:K15"/>
+    <mergeCell ref="E16:K17"/>
+    <mergeCell ref="E18:K18"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:C6"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="B7:C9"/>
+    <mergeCell ref="D7:D9"/>
+    <mergeCell ref="B11:K11"/>
+    <mergeCell ref="E7:K9"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:D6"/>
+    <mergeCell ref="E3:K6"/>
+    <mergeCell ref="B4:C4"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3014,35 +3084,35 @@
   </sheetPr>
   <dimension ref="A1:N59"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView showGridLines="0" topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="B52" sqref="B52:L56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.73046875" defaultRowHeight="12" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12"/>
   <cols>
-    <col min="1" max="1" width="8.73046875" style="5" customWidth="1"/>
-    <col min="2" max="2" width="9.59765625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="8.73046875" style="2"/>
-    <col min="4" max="4" width="45.1328125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="11.1328125" style="2" customWidth="1"/>
-    <col min="6" max="12" width="3.73046875" style="2" customWidth="1"/>
-    <col min="13" max="13" width="1.73046875" style="5" customWidth="1"/>
-    <col min="14" max="14" width="8.73046875" style="5"/>
-    <col min="15" max="16384" width="8.73046875" style="2"/>
+    <col min="1" max="1" width="8.75" style="5" customWidth="1"/>
+    <col min="2" max="2" width="9.625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="8.75" style="2"/>
+    <col min="4" max="4" width="45.125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="11.125" style="2" customWidth="1"/>
+    <col min="6" max="12" width="3.75" style="2" customWidth="1"/>
+    <col min="13" max="13" width="1.75" style="5" customWidth="1"/>
+    <col min="14" max="14" width="8.75" style="5"/>
+    <col min="15" max="16384" width="8.75" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12" s="5" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F1" s="65" t="s">
+    <row r="1" spans="2:12" s="5" customFormat="1" ht="18.600000000000001" customHeight="1">
+      <c r="F1" s="37" t="s">
         <v>63</v>
       </c>
-      <c r="G1" s="65"/>
-      <c r="H1" s="65"/>
-      <c r="I1" s="66"/>
-      <c r="J1" s="66"/>
-      <c r="K1" s="66"/>
-      <c r="L1" s="66"/>
-    </row>
-    <row r="2" spans="2:12" s="5" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G1" s="37"/>
+      <c r="H1" s="37"/>
+      <c r="I1" s="38"/>
+      <c r="J1" s="38"/>
+      <c r="K1" s="38"/>
+      <c r="L1" s="38"/>
+    </row>
+    <row r="2" spans="2:12" s="5" customFormat="1" ht="18.600000000000001" customHeight="1">
       <c r="B2" s="6" t="s">
         <v>0</v>
       </c>
@@ -3057,86 +3127,86 @@
       <c r="K2" s="7"/>
       <c r="L2" s="7"/>
     </row>
-    <row r="3" spans="2:12" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:12" ht="18.600000000000001" customHeight="1">
       <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="50" t="s">
+      <c r="C3" s="54" t="s">
         <v>64</v>
       </c>
-      <c r="D3" s="50"/>
-      <c r="E3" s="52" t="s">
+      <c r="D3" s="54"/>
+      <c r="E3" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="67" t="s">
+      <c r="F3" s="40" t="s">
         <v>65</v>
       </c>
-      <c r="G3" s="67"/>
-      <c r="H3" s="67"/>
-      <c r="I3" s="67"/>
-      <c r="J3" s="67"/>
-      <c r="K3" s="67"/>
-      <c r="L3" s="67"/>
-    </row>
-    <row r="4" spans="2:12" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G3" s="40"/>
+      <c r="H3" s="40"/>
+      <c r="I3" s="40"/>
+      <c r="J3" s="40"/>
+      <c r="K3" s="40"/>
+      <c r="L3" s="40"/>
+    </row>
+    <row r="4" spans="2:12" ht="18.600000000000001" customHeight="1">
       <c r="B4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="50" t="s">
+      <c r="C4" s="54" t="s">
         <v>66</v>
       </c>
-      <c r="D4" s="50"/>
-      <c r="E4" s="52"/>
-      <c r="F4" s="67"/>
-      <c r="G4" s="67"/>
-      <c r="H4" s="67"/>
-      <c r="I4" s="67"/>
-      <c r="J4" s="67"/>
-      <c r="K4" s="67"/>
-      <c r="L4" s="67"/>
-    </row>
-    <row r="5" spans="2:12" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="51" t="s">
+      <c r="D4" s="54"/>
+      <c r="E4" s="39"/>
+      <c r="F4" s="40"/>
+      <c r="G4" s="40"/>
+      <c r="H4" s="40"/>
+      <c r="I4" s="40"/>
+      <c r="J4" s="40"/>
+      <c r="K4" s="40"/>
+      <c r="L4" s="40"/>
+    </row>
+    <row r="5" spans="2:12" ht="18.600000000000001" customHeight="1">
+      <c r="B5" s="56" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="49" t="s">
+      <c r="C5" s="55" t="s">
         <v>67</v>
       </c>
-      <c r="D5" s="50"/>
-      <c r="E5" s="52"/>
-      <c r="F5" s="67"/>
-      <c r="G5" s="67"/>
-      <c r="H5" s="67"/>
-      <c r="I5" s="67"/>
-      <c r="J5" s="67"/>
-      <c r="K5" s="67"/>
-      <c r="L5" s="67"/>
-    </row>
-    <row r="6" spans="2:12" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="51"/>
-      <c r="C6" s="50"/>
-      <c r="D6" s="50"/>
-      <c r="E6" s="52"/>
-      <c r="F6" s="67"/>
-      <c r="G6" s="67"/>
-      <c r="H6" s="67"/>
-      <c r="I6" s="67"/>
-      <c r="J6" s="67"/>
-      <c r="K6" s="67"/>
-      <c r="L6" s="67"/>
-    </row>
-    <row r="7" spans="2:12" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="52" t="s">
+      <c r="D5" s="54"/>
+      <c r="E5" s="39"/>
+      <c r="F5" s="40"/>
+      <c r="G5" s="40"/>
+      <c r="H5" s="40"/>
+      <c r="I5" s="40"/>
+      <c r="J5" s="40"/>
+      <c r="K5" s="40"/>
+      <c r="L5" s="40"/>
+    </row>
+    <row r="6" spans="2:12" ht="18.600000000000001" customHeight="1">
+      <c r="B6" s="56"/>
+      <c r="C6" s="54"/>
+      <c r="D6" s="54"/>
+      <c r="E6" s="39"/>
+      <c r="F6" s="40"/>
+      <c r="G6" s="40"/>
+      <c r="H6" s="40"/>
+      <c r="I6" s="40"/>
+      <c r="J6" s="40"/>
+      <c r="K6" s="40"/>
+      <c r="L6" s="40"/>
+    </row>
+    <row r="7" spans="2:12" ht="18.600000000000001" customHeight="1">
+      <c r="B7" s="39" t="s">
         <v>68</v>
       </c>
-      <c r="C7" s="49" t="s">
+      <c r="C7" s="55" t="s">
         <v>69</v>
       </c>
-      <c r="D7" s="49"/>
-      <c r="E7" s="52" t="s">
+      <c r="D7" s="55"/>
+      <c r="E7" s="39" t="s">
         <v>70</v>
       </c>
-      <c r="F7" s="68" t="s">
+      <c r="F7" s="41" t="s">
         <v>71</v>
       </c>
       <c r="G7" s="69"/>
@@ -3146,11 +3216,11 @@
       <c r="K7" s="69"/>
       <c r="L7" s="69"/>
     </row>
-    <row r="8" spans="2:12" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="52"/>
-      <c r="C8" s="49"/>
-      <c r="D8" s="49"/>
-      <c r="E8" s="52"/>
+    <row r="8" spans="2:12" ht="18.600000000000001" customHeight="1">
+      <c r="B8" s="39"/>
+      <c r="C8" s="55"/>
+      <c r="D8" s="55"/>
+      <c r="E8" s="39"/>
       <c r="F8" s="69"/>
       <c r="G8" s="69"/>
       <c r="H8" s="69"/>
@@ -3159,11 +3229,11 @@
       <c r="K8" s="69"/>
       <c r="L8" s="69"/>
     </row>
-    <row r="9" spans="2:12" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="52"/>
-      <c r="C9" s="49"/>
-      <c r="D9" s="49"/>
-      <c r="E9" s="52"/>
+    <row r="9" spans="2:12" ht="18.600000000000001" customHeight="1">
+      <c r="B9" s="39"/>
+      <c r="C9" s="55"/>
+      <c r="D9" s="55"/>
+      <c r="E9" s="39"/>
       <c r="F9" s="69"/>
       <c r="G9" s="69"/>
       <c r="H9" s="69"/>
@@ -3172,25 +3242,25 @@
       <c r="K9" s="69"/>
       <c r="L9" s="69"/>
     </row>
-    <row r="10" spans="2:12" s="5" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="2:12" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:12" s="5" customFormat="1" ht="18.600000000000001" customHeight="1"/>
+    <row r="11" spans="2:12" ht="18.600000000000001" customHeight="1">
       <c r="B11" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="50" t="s">
+      <c r="C11" s="54" t="s">
         <v>72</v>
       </c>
-      <c r="D11" s="50"/>
-      <c r="E11" s="50"/>
-      <c r="F11" s="50"/>
-      <c r="G11" s="50"/>
-      <c r="H11" s="50"/>
-      <c r="I11" s="50"/>
-      <c r="J11" s="50"/>
-      <c r="K11" s="50"/>
-      <c r="L11" s="50"/>
-    </row>
-    <row r="12" spans="2:12" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D11" s="54"/>
+      <c r="E11" s="54"/>
+      <c r="F11" s="54"/>
+      <c r="G11" s="54"/>
+      <c r="H11" s="54"/>
+      <c r="I11" s="54"/>
+      <c r="J11" s="54"/>
+      <c r="K11" s="54"/>
+      <c r="L11" s="54"/>
+    </row>
+    <row r="12" spans="2:12" ht="18.600000000000001" customHeight="1">
       <c r="B12" s="1" t="s">
         <v>15</v>
       </c>
@@ -3201,113 +3271,113 @@
       <c r="E12" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F12" s="52" t="s">
+      <c r="F12" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="G12" s="52"/>
-      <c r="H12" s="52"/>
-      <c r="I12" s="52"/>
-      <c r="J12" s="52"/>
-      <c r="K12" s="52"/>
-      <c r="L12" s="52"/>
-    </row>
-    <row r="13" spans="2:12" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="47" t="s">
+      <c r="G12" s="39"/>
+      <c r="H12" s="39"/>
+      <c r="I12" s="39"/>
+      <c r="J12" s="39"/>
+      <c r="K12" s="39"/>
+      <c r="L12" s="39"/>
+    </row>
+    <row r="13" spans="2:12" ht="18.600000000000001" customHeight="1">
+      <c r="B13" s="57" t="s">
         <v>74</v>
       </c>
-      <c r="C13" s="47" t="s">
+      <c r="C13" s="57" t="s">
         <v>75</v>
       </c>
-      <c r="D13" s="48"/>
-      <c r="E13" s="47" t="s">
+      <c r="D13" s="58"/>
+      <c r="E13" s="57" t="s">
         <v>76</v>
       </c>
-      <c r="F13" s="49" t="s">
+      <c r="F13" s="55" t="s">
         <v>77</v>
       </c>
-      <c r="G13" s="50"/>
-      <c r="H13" s="50"/>
-      <c r="I13" s="50"/>
-      <c r="J13" s="50"/>
-      <c r="K13" s="50"/>
-      <c r="L13" s="50"/>
-    </row>
-    <row r="14" spans="2:12" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="48"/>
-      <c r="C14" s="48"/>
-      <c r="D14" s="48"/>
-      <c r="E14" s="48"/>
-      <c r="F14" s="50"/>
-      <c r="G14" s="50"/>
-      <c r="H14" s="50"/>
-      <c r="I14" s="50"/>
-      <c r="J14" s="50"/>
-      <c r="K14" s="50"/>
-      <c r="L14" s="50"/>
-    </row>
-    <row r="15" spans="2:12" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="48"/>
-      <c r="C15" s="48"/>
-      <c r="D15" s="48"/>
-      <c r="E15" s="48"/>
-      <c r="F15" s="51" t="s">
+      <c r="G13" s="54"/>
+      <c r="H13" s="54"/>
+      <c r="I13" s="54"/>
+      <c r="J13" s="54"/>
+      <c r="K13" s="54"/>
+      <c r="L13" s="54"/>
+    </row>
+    <row r="14" spans="2:12" ht="18.600000000000001" customHeight="1">
+      <c r="B14" s="58"/>
+      <c r="C14" s="58"/>
+      <c r="D14" s="58"/>
+      <c r="E14" s="58"/>
+      <c r="F14" s="54"/>
+      <c r="G14" s="54"/>
+      <c r="H14" s="54"/>
+      <c r="I14" s="54"/>
+      <c r="J14" s="54"/>
+      <c r="K14" s="54"/>
+      <c r="L14" s="54"/>
+    </row>
+    <row r="15" spans="2:12" ht="18.600000000000001" customHeight="1">
+      <c r="B15" s="58"/>
+      <c r="C15" s="58"/>
+      <c r="D15" s="58"/>
+      <c r="E15" s="58"/>
+      <c r="F15" s="56" t="s">
         <v>23</v>
       </c>
-      <c r="G15" s="51"/>
-      <c r="H15" s="51"/>
-      <c r="I15" s="51"/>
-      <c r="J15" s="51"/>
-      <c r="K15" s="51"/>
-      <c r="L15" s="51"/>
-    </row>
-    <row r="16" spans="2:12" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="48"/>
-      <c r="C16" s="48"/>
-      <c r="D16" s="48"/>
-      <c r="E16" s="48"/>
-      <c r="F16" s="50" t="s">
+      <c r="G15" s="56"/>
+      <c r="H15" s="56"/>
+      <c r="I15" s="56"/>
+      <c r="J15" s="56"/>
+      <c r="K15" s="56"/>
+      <c r="L15" s="56"/>
+    </row>
+    <row r="16" spans="2:12" ht="18.600000000000001" customHeight="1">
+      <c r="B16" s="58"/>
+      <c r="C16" s="58"/>
+      <c r="D16" s="58"/>
+      <c r="E16" s="58"/>
+      <c r="F16" s="54" t="s">
         <v>78</v>
       </c>
-      <c r="G16" s="50"/>
-      <c r="H16" s="50"/>
-      <c r="I16" s="50"/>
-      <c r="J16" s="50"/>
-      <c r="K16" s="50"/>
-      <c r="L16" s="50"/>
-    </row>
-    <row r="17" spans="2:12" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="48"/>
-      <c r="C17" s="48"/>
-      <c r="D17" s="48"/>
-      <c r="E17" s="48"/>
-      <c r="F17" s="50"/>
-      <c r="G17" s="50"/>
-      <c r="H17" s="50"/>
-      <c r="I17" s="50"/>
-      <c r="J17" s="50"/>
-      <c r="K17" s="50"/>
-      <c r="L17" s="50"/>
-    </row>
-    <row r="18" spans="2:12" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="48"/>
-      <c r="C18" s="48"/>
-      <c r="D18" s="48"/>
-      <c r="E18" s="48"/>
-      <c r="F18" s="51" t="s">
+      <c r="G16" s="54"/>
+      <c r="H16" s="54"/>
+      <c r="I16" s="54"/>
+      <c r="J16" s="54"/>
+      <c r="K16" s="54"/>
+      <c r="L16" s="54"/>
+    </row>
+    <row r="17" spans="2:12" ht="18.600000000000001" customHeight="1">
+      <c r="B17" s="58"/>
+      <c r="C17" s="58"/>
+      <c r="D17" s="58"/>
+      <c r="E17" s="58"/>
+      <c r="F17" s="54"/>
+      <c r="G17" s="54"/>
+      <c r="H17" s="54"/>
+      <c r="I17" s="54"/>
+      <c r="J17" s="54"/>
+      <c r="K17" s="54"/>
+      <c r="L17" s="54"/>
+    </row>
+    <row r="18" spans="2:12" ht="18.600000000000001" customHeight="1">
+      <c r="B18" s="58"/>
+      <c r="C18" s="58"/>
+      <c r="D18" s="58"/>
+      <c r="E18" s="58"/>
+      <c r="F18" s="56" t="s">
         <v>25</v>
       </c>
-      <c r="G18" s="51"/>
-      <c r="H18" s="51"/>
-      <c r="I18" s="51"/>
-      <c r="J18" s="51"/>
-      <c r="K18" s="51"/>
-      <c r="L18" s="51"/>
-    </row>
-    <row r="19" spans="2:12" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="48"/>
-      <c r="C19" s="48"/>
-      <c r="D19" s="48"/>
-      <c r="E19" s="48"/>
+      <c r="G18" s="56"/>
+      <c r="H18" s="56"/>
+      <c r="I18" s="56"/>
+      <c r="J18" s="56"/>
+      <c r="K18" s="56"/>
+      <c r="L18" s="56"/>
+    </row>
+    <row r="19" spans="2:12" ht="23.1" customHeight="1">
+      <c r="B19" s="58"/>
+      <c r="C19" s="58"/>
+      <c r="D19" s="58"/>
+      <c r="E19" s="58"/>
       <c r="F19" s="4" t="s">
         <v>26</v>
       </c>
@@ -3330,11 +3400,11 @@
         <v>32</v>
       </c>
     </row>
-    <row r="20" spans="2:12" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="48"/>
-      <c r="C20" s="48"/>
-      <c r="D20" s="48"/>
-      <c r="E20" s="48"/>
+    <row r="20" spans="2:12" ht="18.600000000000001" customHeight="1">
+      <c r="B20" s="58"/>
+      <c r="C20" s="58"/>
+      <c r="D20" s="58"/>
+      <c r="E20" s="58"/>
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
       <c r="H20" s="3" t="s">
@@ -3349,7 +3419,7 @@
       <c r="K20" s="3"/>
       <c r="L20" s="3"/>
     </row>
-    <row r="21" spans="2:12" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:12" ht="18.600000000000001" customHeight="1">
       <c r="B21" s="1" t="s">
         <v>15</v>
       </c>
@@ -3360,113 +3430,113 @@
       <c r="E21" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F21" s="52" t="s">
+      <c r="F21" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="G21" s="52"/>
-      <c r="H21" s="52"/>
-      <c r="I21" s="52"/>
-      <c r="J21" s="52"/>
-      <c r="K21" s="52"/>
-      <c r="L21" s="52"/>
-    </row>
-    <row r="22" spans="2:12" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="47" t="s">
+      <c r="G21" s="39"/>
+      <c r="H21" s="39"/>
+      <c r="I21" s="39"/>
+      <c r="J21" s="39"/>
+      <c r="K21" s="39"/>
+      <c r="L21" s="39"/>
+    </row>
+    <row r="22" spans="2:12" ht="18.600000000000001" customHeight="1">
+      <c r="B22" s="57" t="s">
         <v>74</v>
       </c>
-      <c r="C22" s="47" t="s">
+      <c r="C22" s="57" t="s">
         <v>81</v>
       </c>
-      <c r="D22" s="48"/>
-      <c r="E22" s="47" t="s">
+      <c r="D22" s="58"/>
+      <c r="E22" s="57" t="s">
         <v>82</v>
       </c>
-      <c r="F22" s="49" t="s">
+      <c r="F22" s="55" t="s">
         <v>83</v>
       </c>
-      <c r="G22" s="50"/>
-      <c r="H22" s="50"/>
-      <c r="I22" s="50"/>
-      <c r="J22" s="50"/>
-      <c r="K22" s="50"/>
-      <c r="L22" s="50"/>
-    </row>
-    <row r="23" spans="2:12" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="48"/>
-      <c r="C23" s="48"/>
-      <c r="D23" s="48"/>
-      <c r="E23" s="48"/>
-      <c r="F23" s="50"/>
-      <c r="G23" s="50"/>
-      <c r="H23" s="50"/>
-      <c r="I23" s="50"/>
-      <c r="J23" s="50"/>
-      <c r="K23" s="50"/>
-      <c r="L23" s="50"/>
-    </row>
-    <row r="24" spans="2:12" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="48"/>
-      <c r="C24" s="48"/>
-      <c r="D24" s="48"/>
-      <c r="E24" s="48"/>
-      <c r="F24" s="51" t="s">
+      <c r="G22" s="54"/>
+      <c r="H22" s="54"/>
+      <c r="I22" s="54"/>
+      <c r="J22" s="54"/>
+      <c r="K22" s="54"/>
+      <c r="L22" s="54"/>
+    </row>
+    <row r="23" spans="2:12" ht="18.600000000000001" customHeight="1">
+      <c r="B23" s="58"/>
+      <c r="C23" s="58"/>
+      <c r="D23" s="58"/>
+      <c r="E23" s="58"/>
+      <c r="F23" s="54"/>
+      <c r="G23" s="54"/>
+      <c r="H23" s="54"/>
+      <c r="I23" s="54"/>
+      <c r="J23" s="54"/>
+      <c r="K23" s="54"/>
+      <c r="L23" s="54"/>
+    </row>
+    <row r="24" spans="2:12" ht="18.600000000000001" customHeight="1">
+      <c r="B24" s="58"/>
+      <c r="C24" s="58"/>
+      <c r="D24" s="58"/>
+      <c r="E24" s="58"/>
+      <c r="F24" s="56" t="s">
         <v>23</v>
       </c>
-      <c r="G24" s="51"/>
-      <c r="H24" s="51"/>
-      <c r="I24" s="51"/>
-      <c r="J24" s="51"/>
-      <c r="K24" s="51"/>
-      <c r="L24" s="51"/>
-    </row>
-    <row r="25" spans="2:12" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="48"/>
-      <c r="C25" s="48"/>
-      <c r="D25" s="48"/>
-      <c r="E25" s="48"/>
-      <c r="F25" s="50" t="s">
+      <c r="G24" s="56"/>
+      <c r="H24" s="56"/>
+      <c r="I24" s="56"/>
+      <c r="J24" s="56"/>
+      <c r="K24" s="56"/>
+      <c r="L24" s="56"/>
+    </row>
+    <row r="25" spans="2:12" ht="18.600000000000001" customHeight="1">
+      <c r="B25" s="58"/>
+      <c r="C25" s="58"/>
+      <c r="D25" s="58"/>
+      <c r="E25" s="58"/>
+      <c r="F25" s="54" t="s">
         <v>84</v>
       </c>
-      <c r="G25" s="50"/>
-      <c r="H25" s="50"/>
-      <c r="I25" s="50"/>
-      <c r="J25" s="50"/>
-      <c r="K25" s="50"/>
-      <c r="L25" s="50"/>
-    </row>
-    <row r="26" spans="2:12" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="48"/>
-      <c r="C26" s="48"/>
-      <c r="D26" s="48"/>
-      <c r="E26" s="48"/>
-      <c r="F26" s="50"/>
-      <c r="G26" s="50"/>
-      <c r="H26" s="50"/>
-      <c r="I26" s="50"/>
-      <c r="J26" s="50"/>
-      <c r="K26" s="50"/>
-      <c r="L26" s="50"/>
-    </row>
-    <row r="27" spans="2:12" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="48"/>
-      <c r="C27" s="48"/>
-      <c r="D27" s="48"/>
-      <c r="E27" s="48"/>
-      <c r="F27" s="51" t="s">
+      <c r="G25" s="54"/>
+      <c r="H25" s="54"/>
+      <c r="I25" s="54"/>
+      <c r="J25" s="54"/>
+      <c r="K25" s="54"/>
+      <c r="L25" s="54"/>
+    </row>
+    <row r="26" spans="2:12" ht="18.600000000000001" customHeight="1">
+      <c r="B26" s="58"/>
+      <c r="C26" s="58"/>
+      <c r="D26" s="58"/>
+      <c r="E26" s="58"/>
+      <c r="F26" s="54"/>
+      <c r="G26" s="54"/>
+      <c r="H26" s="54"/>
+      <c r="I26" s="54"/>
+      <c r="J26" s="54"/>
+      <c r="K26" s="54"/>
+      <c r="L26" s="54"/>
+    </row>
+    <row r="27" spans="2:12" ht="18.600000000000001" customHeight="1">
+      <c r="B27" s="58"/>
+      <c r="C27" s="58"/>
+      <c r="D27" s="58"/>
+      <c r="E27" s="58"/>
+      <c r="F27" s="56" t="s">
         <v>25</v>
       </c>
-      <c r="G27" s="51"/>
-      <c r="H27" s="51"/>
-      <c r="I27" s="51"/>
-      <c r="J27" s="51"/>
-      <c r="K27" s="51"/>
-      <c r="L27" s="51"/>
-    </row>
-    <row r="28" spans="2:12" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="48"/>
-      <c r="C28" s="48"/>
-      <c r="D28" s="48"/>
-      <c r="E28" s="48"/>
+      <c r="G27" s="56"/>
+      <c r="H27" s="56"/>
+      <c r="I27" s="56"/>
+      <c r="J27" s="56"/>
+      <c r="K27" s="56"/>
+      <c r="L27" s="56"/>
+    </row>
+    <row r="28" spans="2:12" ht="23.1" customHeight="1">
+      <c r="B28" s="58"/>
+      <c r="C28" s="58"/>
+      <c r="D28" s="58"/>
+      <c r="E28" s="58"/>
       <c r="F28" s="4" t="s">
         <v>26</v>
       </c>
@@ -3489,11 +3559,11 @@
         <v>32</v>
       </c>
     </row>
-    <row r="29" spans="2:12" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="48"/>
-      <c r="C29" s="48"/>
-      <c r="D29" s="48"/>
-      <c r="E29" s="48"/>
+    <row r="29" spans="2:12" ht="18.600000000000001" customHeight="1">
+      <c r="B29" s="58"/>
+      <c r="C29" s="58"/>
+      <c r="D29" s="58"/>
+      <c r="E29" s="58"/>
       <c r="F29" s="3"/>
       <c r="G29" s="3"/>
       <c r="H29" s="3" t="s">
@@ -3510,25 +3580,25 @@
       </c>
       <c r="L29" s="3"/>
     </row>
-    <row r="30" spans="2:12" s="5" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="31" spans="2:12" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:12" s="5" customFormat="1" ht="18.600000000000001" customHeight="1"/>
+    <row r="31" spans="2:12" ht="18.600000000000001" customHeight="1">
       <c r="B31" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C31" s="50" t="s">
+      <c r="C31" s="54" t="s">
         <v>85</v>
       </c>
-      <c r="D31" s="50"/>
-      <c r="E31" s="50"/>
-      <c r="F31" s="50"/>
-      <c r="G31" s="50"/>
-      <c r="H31" s="50"/>
-      <c r="I31" s="50"/>
-      <c r="J31" s="50"/>
-      <c r="K31" s="50"/>
-      <c r="L31" s="50"/>
-    </row>
-    <row r="32" spans="2:12" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D31" s="54"/>
+      <c r="E31" s="54"/>
+      <c r="F31" s="54"/>
+      <c r="G31" s="54"/>
+      <c r="H31" s="54"/>
+      <c r="I31" s="54"/>
+      <c r="J31" s="54"/>
+      <c r="K31" s="54"/>
+      <c r="L31" s="54"/>
+    </row>
+    <row r="32" spans="2:12" ht="18.600000000000001" customHeight="1">
       <c r="B32" s="1" t="s">
         <v>15</v>
       </c>
@@ -3539,113 +3609,113 @@
       <c r="E32" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F32" s="52" t="s">
+      <c r="F32" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="G32" s="52"/>
-      <c r="H32" s="52"/>
-      <c r="I32" s="52"/>
-      <c r="J32" s="52"/>
-      <c r="K32" s="52"/>
-      <c r="L32" s="52"/>
-    </row>
-    <row r="33" spans="2:12" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="47" t="s">
+      <c r="G32" s="39"/>
+      <c r="H32" s="39"/>
+      <c r="I32" s="39"/>
+      <c r="J32" s="39"/>
+      <c r="K32" s="39"/>
+      <c r="L32" s="39"/>
+    </row>
+    <row r="33" spans="2:12" ht="18.600000000000001" customHeight="1">
+      <c r="B33" s="57" t="s">
         <v>74</v>
       </c>
-      <c r="C33" s="47" t="s">
+      <c r="C33" s="57" t="s">
         <v>87</v>
       </c>
-      <c r="D33" s="48"/>
-      <c r="E33" s="47" t="s">
+      <c r="D33" s="58"/>
+      <c r="E33" s="57" t="s">
         <v>88</v>
       </c>
-      <c r="F33" s="49" t="s">
+      <c r="F33" s="55" t="s">
         <v>83</v>
       </c>
-      <c r="G33" s="50"/>
-      <c r="H33" s="50"/>
-      <c r="I33" s="50"/>
-      <c r="J33" s="50"/>
-      <c r="K33" s="50"/>
-      <c r="L33" s="50"/>
-    </row>
-    <row r="34" spans="2:12" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="48"/>
-      <c r="C34" s="48"/>
-      <c r="D34" s="48"/>
-      <c r="E34" s="48"/>
-      <c r="F34" s="50"/>
-      <c r="G34" s="50"/>
-      <c r="H34" s="50"/>
-      <c r="I34" s="50"/>
-      <c r="J34" s="50"/>
-      <c r="K34" s="50"/>
-      <c r="L34" s="50"/>
-    </row>
-    <row r="35" spans="2:12" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="48"/>
-      <c r="C35" s="48"/>
-      <c r="D35" s="48"/>
-      <c r="E35" s="48"/>
-      <c r="F35" s="51" t="s">
+      <c r="G33" s="54"/>
+      <c r="H33" s="54"/>
+      <c r="I33" s="54"/>
+      <c r="J33" s="54"/>
+      <c r="K33" s="54"/>
+      <c r="L33" s="54"/>
+    </row>
+    <row r="34" spans="2:12" ht="18.600000000000001" customHeight="1">
+      <c r="B34" s="58"/>
+      <c r="C34" s="58"/>
+      <c r="D34" s="58"/>
+      <c r="E34" s="58"/>
+      <c r="F34" s="54"/>
+      <c r="G34" s="54"/>
+      <c r="H34" s="54"/>
+      <c r="I34" s="54"/>
+      <c r="J34" s="54"/>
+      <c r="K34" s="54"/>
+      <c r="L34" s="54"/>
+    </row>
+    <row r="35" spans="2:12" ht="18.600000000000001" customHeight="1">
+      <c r="B35" s="58"/>
+      <c r="C35" s="58"/>
+      <c r="D35" s="58"/>
+      <c r="E35" s="58"/>
+      <c r="F35" s="56" t="s">
         <v>23</v>
       </c>
-      <c r="G35" s="51"/>
-      <c r="H35" s="51"/>
-      <c r="I35" s="51"/>
-      <c r="J35" s="51"/>
-      <c r="K35" s="51"/>
-      <c r="L35" s="51"/>
-    </row>
-    <row r="36" spans="2:12" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="48"/>
-      <c r="C36" s="48"/>
-      <c r="D36" s="48"/>
-      <c r="E36" s="48"/>
-      <c r="F36" s="50" t="s">
+      <c r="G35" s="56"/>
+      <c r="H35" s="56"/>
+      <c r="I35" s="56"/>
+      <c r="J35" s="56"/>
+      <c r="K35" s="56"/>
+      <c r="L35" s="56"/>
+    </row>
+    <row r="36" spans="2:12" ht="18.600000000000001" customHeight="1">
+      <c r="B36" s="58"/>
+      <c r="C36" s="58"/>
+      <c r="D36" s="58"/>
+      <c r="E36" s="58"/>
+      <c r="F36" s="54" t="s">
         <v>89</v>
       </c>
-      <c r="G36" s="50"/>
-      <c r="H36" s="50"/>
-      <c r="I36" s="50"/>
-      <c r="J36" s="50"/>
-      <c r="K36" s="50"/>
-      <c r="L36" s="50"/>
-    </row>
-    <row r="37" spans="2:12" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="48"/>
-      <c r="C37" s="48"/>
-      <c r="D37" s="48"/>
-      <c r="E37" s="48"/>
-      <c r="F37" s="50"/>
-      <c r="G37" s="50"/>
-      <c r="H37" s="50"/>
-      <c r="I37" s="50"/>
-      <c r="J37" s="50"/>
-      <c r="K37" s="50"/>
-      <c r="L37" s="50"/>
-    </row>
-    <row r="38" spans="2:12" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="48"/>
-      <c r="C38" s="48"/>
-      <c r="D38" s="48"/>
-      <c r="E38" s="48"/>
-      <c r="F38" s="51" t="s">
+      <c r="G36" s="54"/>
+      <c r="H36" s="54"/>
+      <c r="I36" s="54"/>
+      <c r="J36" s="54"/>
+      <c r="K36" s="54"/>
+      <c r="L36" s="54"/>
+    </row>
+    <row r="37" spans="2:12" ht="18.600000000000001" customHeight="1">
+      <c r="B37" s="58"/>
+      <c r="C37" s="58"/>
+      <c r="D37" s="58"/>
+      <c r="E37" s="58"/>
+      <c r="F37" s="54"/>
+      <c r="G37" s="54"/>
+      <c r="H37" s="54"/>
+      <c r="I37" s="54"/>
+      <c r="J37" s="54"/>
+      <c r="K37" s="54"/>
+      <c r="L37" s="54"/>
+    </row>
+    <row r="38" spans="2:12" ht="18.600000000000001" customHeight="1">
+      <c r="B38" s="58"/>
+      <c r="C38" s="58"/>
+      <c r="D38" s="58"/>
+      <c r="E38" s="58"/>
+      <c r="F38" s="56" t="s">
         <v>25</v>
       </c>
-      <c r="G38" s="51"/>
-      <c r="H38" s="51"/>
-      <c r="I38" s="51"/>
-      <c r="J38" s="51"/>
-      <c r="K38" s="51"/>
-      <c r="L38" s="51"/>
-    </row>
-    <row r="39" spans="2:12" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="48"/>
-      <c r="C39" s="48"/>
-      <c r="D39" s="48"/>
-      <c r="E39" s="48"/>
+      <c r="G38" s="56"/>
+      <c r="H38" s="56"/>
+      <c r="I38" s="56"/>
+      <c r="J38" s="56"/>
+      <c r="K38" s="56"/>
+      <c r="L38" s="56"/>
+    </row>
+    <row r="39" spans="2:12" ht="23.1" customHeight="1">
+      <c r="B39" s="58"/>
+      <c r="C39" s="58"/>
+      <c r="D39" s="58"/>
+      <c r="E39" s="58"/>
       <c r="F39" s="4" t="s">
         <v>26</v>
       </c>
@@ -3668,11 +3738,11 @@
         <v>32</v>
       </c>
     </row>
-    <row r="40" spans="2:12" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="48"/>
-      <c r="C40" s="48"/>
-      <c r="D40" s="48"/>
-      <c r="E40" s="48"/>
+    <row r="40" spans="2:12" ht="18.600000000000001" customHeight="1">
+      <c r="B40" s="58"/>
+      <c r="C40" s="58"/>
+      <c r="D40" s="58"/>
+      <c r="E40" s="58"/>
       <c r="F40" s="3" t="s">
         <v>79</v>
       </c>
@@ -3695,7 +3765,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="41" spans="2:12" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:12" ht="18.600000000000001" customHeight="1">
       <c r="B41" s="1" t="s">
         <v>15</v>
       </c>
@@ -3706,113 +3776,113 @@
       <c r="E41" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F41" s="52" t="s">
+      <c r="F41" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="G41" s="52"/>
-      <c r="H41" s="52"/>
-      <c r="I41" s="52"/>
-      <c r="J41" s="52"/>
-      <c r="K41" s="52"/>
-      <c r="L41" s="52"/>
-    </row>
-    <row r="42" spans="2:12" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="47" t="s">
+      <c r="G41" s="39"/>
+      <c r="H41" s="39"/>
+      <c r="I41" s="39"/>
+      <c r="J41" s="39"/>
+      <c r="K41" s="39"/>
+      <c r="L41" s="39"/>
+    </row>
+    <row r="42" spans="2:12" ht="18.600000000000001" customHeight="1">
+      <c r="B42" s="57" t="s">
         <v>91</v>
       </c>
-      <c r="C42" s="47" t="s">
+      <c r="C42" s="57" t="s">
         <v>92</v>
       </c>
-      <c r="D42" s="48"/>
-      <c r="E42" s="47" t="s">
+      <c r="D42" s="58"/>
+      <c r="E42" s="57" t="s">
         <v>93</v>
       </c>
-      <c r="F42" s="50" t="s">
+      <c r="F42" s="54" t="s">
         <v>94</v>
       </c>
-      <c r="G42" s="50"/>
-      <c r="H42" s="50"/>
-      <c r="I42" s="50"/>
-      <c r="J42" s="50"/>
-      <c r="K42" s="50"/>
-      <c r="L42" s="50"/>
-    </row>
-    <row r="43" spans="2:12" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="48"/>
-      <c r="C43" s="48"/>
-      <c r="D43" s="48"/>
-      <c r="E43" s="48"/>
-      <c r="F43" s="50"/>
-      <c r="G43" s="50"/>
-      <c r="H43" s="50"/>
-      <c r="I43" s="50"/>
-      <c r="J43" s="50"/>
-      <c r="K43" s="50"/>
-      <c r="L43" s="50"/>
-    </row>
-    <row r="44" spans="2:12" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="48"/>
-      <c r="C44" s="48"/>
-      <c r="D44" s="48"/>
-      <c r="E44" s="48"/>
-      <c r="F44" s="51" t="s">
+      <c r="G42" s="54"/>
+      <c r="H42" s="54"/>
+      <c r="I42" s="54"/>
+      <c r="J42" s="54"/>
+      <c r="K42" s="54"/>
+      <c r="L42" s="54"/>
+    </row>
+    <row r="43" spans="2:12" ht="18.600000000000001" customHeight="1">
+      <c r="B43" s="58"/>
+      <c r="C43" s="58"/>
+      <c r="D43" s="58"/>
+      <c r="E43" s="58"/>
+      <c r="F43" s="54"/>
+      <c r="G43" s="54"/>
+      <c r="H43" s="54"/>
+      <c r="I43" s="54"/>
+      <c r="J43" s="54"/>
+      <c r="K43" s="54"/>
+      <c r="L43" s="54"/>
+    </row>
+    <row r="44" spans="2:12" ht="18.600000000000001" customHeight="1">
+      <c r="B44" s="58"/>
+      <c r="C44" s="58"/>
+      <c r="D44" s="58"/>
+      <c r="E44" s="58"/>
+      <c r="F44" s="56" t="s">
         <v>23</v>
       </c>
-      <c r="G44" s="51"/>
-      <c r="H44" s="51"/>
-      <c r="I44" s="51"/>
-      <c r="J44" s="51"/>
-      <c r="K44" s="51"/>
-      <c r="L44" s="51"/>
-    </row>
-    <row r="45" spans="2:12" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="48"/>
-      <c r="C45" s="48"/>
-      <c r="D45" s="48"/>
-      <c r="E45" s="48"/>
-      <c r="F45" s="50" t="s">
+      <c r="G44" s="56"/>
+      <c r="H44" s="56"/>
+      <c r="I44" s="56"/>
+      <c r="J44" s="56"/>
+      <c r="K44" s="56"/>
+      <c r="L44" s="56"/>
+    </row>
+    <row r="45" spans="2:12" ht="18.600000000000001" customHeight="1">
+      <c r="B45" s="58"/>
+      <c r="C45" s="58"/>
+      <c r="D45" s="58"/>
+      <c r="E45" s="58"/>
+      <c r="F45" s="54" t="s">
         <v>95</v>
       </c>
-      <c r="G45" s="50"/>
-      <c r="H45" s="50"/>
-      <c r="I45" s="50"/>
-      <c r="J45" s="50"/>
-      <c r="K45" s="50"/>
-      <c r="L45" s="50"/>
-    </row>
-    <row r="46" spans="2:12" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="48"/>
-      <c r="C46" s="48"/>
-      <c r="D46" s="48"/>
-      <c r="E46" s="48"/>
-      <c r="F46" s="50"/>
-      <c r="G46" s="50"/>
-      <c r="H46" s="50"/>
-      <c r="I46" s="50"/>
-      <c r="J46" s="50"/>
-      <c r="K46" s="50"/>
-      <c r="L46" s="50"/>
-    </row>
-    <row r="47" spans="2:12" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="48"/>
-      <c r="C47" s="48"/>
-      <c r="D47" s="48"/>
-      <c r="E47" s="48"/>
-      <c r="F47" s="51" t="s">
+      <c r="G45" s="54"/>
+      <c r="H45" s="54"/>
+      <c r="I45" s="54"/>
+      <c r="J45" s="54"/>
+      <c r="K45" s="54"/>
+      <c r="L45" s="54"/>
+    </row>
+    <row r="46" spans="2:12" ht="18.600000000000001" customHeight="1">
+      <c r="B46" s="58"/>
+      <c r="C46" s="58"/>
+      <c r="D46" s="58"/>
+      <c r="E46" s="58"/>
+      <c r="F46" s="54"/>
+      <c r="G46" s="54"/>
+      <c r="H46" s="54"/>
+      <c r="I46" s="54"/>
+      <c r="J46" s="54"/>
+      <c r="K46" s="54"/>
+      <c r="L46" s="54"/>
+    </row>
+    <row r="47" spans="2:12" ht="18.600000000000001" customHeight="1">
+      <c r="B47" s="58"/>
+      <c r="C47" s="58"/>
+      <c r="D47" s="58"/>
+      <c r="E47" s="58"/>
+      <c r="F47" s="56" t="s">
         <v>25</v>
       </c>
-      <c r="G47" s="51"/>
-      <c r="H47" s="51"/>
-      <c r="I47" s="51"/>
-      <c r="J47" s="51"/>
-      <c r="K47" s="51"/>
-      <c r="L47" s="51"/>
-    </row>
-    <row r="48" spans="2:12" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="48"/>
-      <c r="C48" s="48"/>
-      <c r="D48" s="48"/>
-      <c r="E48" s="48"/>
+      <c r="G47" s="56"/>
+      <c r="H47" s="56"/>
+      <c r="I47" s="56"/>
+      <c r="J47" s="56"/>
+      <c r="K47" s="56"/>
+      <c r="L47" s="56"/>
+    </row>
+    <row r="48" spans="2:12" ht="23.1" customHeight="1">
+      <c r="B48" s="58"/>
+      <c r="C48" s="58"/>
+      <c r="D48" s="58"/>
+      <c r="E48" s="58"/>
       <c r="F48" s="4" t="s">
         <v>26</v>
       </c>
@@ -3835,11 +3905,11 @@
         <v>32</v>
       </c>
     </row>
-    <row r="49" spans="2:14" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="48"/>
-      <c r="C49" s="48"/>
-      <c r="D49" s="48"/>
-      <c r="E49" s="48"/>
+    <row r="49" spans="2:14" ht="18.600000000000001" customHeight="1">
+      <c r="B49" s="58"/>
+      <c r="C49" s="58"/>
+      <c r="D49" s="58"/>
+      <c r="E49" s="58"/>
       <c r="F49" s="3" t="s">
         <v>79</v>
       </c>
@@ -3856,7 +3926,7 @@
       <c r="K49" s="3"/>
       <c r="L49" s="3"/>
     </row>
-    <row r="50" spans="2:14" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:14" ht="18.600000000000001" customHeight="1">
       <c r="B50" s="5"/>
       <c r="C50" s="5"/>
       <c r="D50" s="5"/>
@@ -3870,105 +3940,125 @@
       <c r="L50" s="5"/>
       <c r="N50" s="2"/>
     </row>
-    <row r="51" spans="2:14" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="53" t="s">
+    <row r="51" spans="2:14" ht="18.600000000000001" customHeight="1">
+      <c r="B51" s="42" t="s">
         <v>61</v>
       </c>
-      <c r="C51" s="54"/>
-      <c r="D51" s="54"/>
-      <c r="E51" s="54"/>
-      <c r="F51" s="54"/>
-      <c r="G51" s="54"/>
-      <c r="H51" s="54"/>
-      <c r="I51" s="54"/>
-      <c r="J51" s="54"/>
-      <c r="K51" s="54"/>
-      <c r="L51" s="55"/>
+      <c r="C51" s="43"/>
+      <c r="D51" s="43"/>
+      <c r="E51" s="43"/>
+      <c r="F51" s="43"/>
+      <c r="G51" s="43"/>
+      <c r="H51" s="43"/>
+      <c r="I51" s="43"/>
+      <c r="J51" s="43"/>
+      <c r="K51" s="43"/>
+      <c r="L51" s="44"/>
       <c r="N51" s="2"/>
     </row>
-    <row r="52" spans="2:14" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="56" t="s">
+    <row r="52" spans="2:14" ht="18.600000000000001" customHeight="1">
+      <c r="B52" s="45" t="s">
         <v>96</v>
       </c>
-      <c r="C52" s="57"/>
-      <c r="D52" s="57"/>
-      <c r="E52" s="57"/>
-      <c r="F52" s="57"/>
-      <c r="G52" s="57"/>
-      <c r="H52" s="57"/>
-      <c r="I52" s="57"/>
-      <c r="J52" s="57"/>
-      <c r="K52" s="57"/>
-      <c r="L52" s="58"/>
+      <c r="C52" s="46"/>
+      <c r="D52" s="46"/>
+      <c r="E52" s="46"/>
+      <c r="F52" s="46"/>
+      <c r="G52" s="46"/>
+      <c r="H52" s="46"/>
+      <c r="I52" s="46"/>
+      <c r="J52" s="46"/>
+      <c r="K52" s="46"/>
+      <c r="L52" s="47"/>
       <c r="N52" s="2"/>
     </row>
-    <row r="53" spans="2:14" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B53" s="59"/>
-      <c r="C53" s="60"/>
-      <c r="D53" s="60"/>
-      <c r="E53" s="60"/>
-      <c r="F53" s="60"/>
-      <c r="G53" s="60"/>
-      <c r="H53" s="60"/>
-      <c r="I53" s="60"/>
-      <c r="J53" s="60"/>
-      <c r="K53" s="60"/>
-      <c r="L53" s="61"/>
+    <row r="53" spans="2:14" ht="18.600000000000001" customHeight="1">
+      <c r="B53" s="48"/>
+      <c r="C53" s="49"/>
+      <c r="D53" s="49"/>
+      <c r="E53" s="49"/>
+      <c r="F53" s="49"/>
+      <c r="G53" s="49"/>
+      <c r="H53" s="49"/>
+      <c r="I53" s="49"/>
+      <c r="J53" s="49"/>
+      <c r="K53" s="49"/>
+      <c r="L53" s="50"/>
       <c r="N53" s="2"/>
     </row>
-    <row r="54" spans="2:14" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B54" s="59"/>
-      <c r="C54" s="60"/>
-      <c r="D54" s="60"/>
-      <c r="E54" s="60"/>
-      <c r="F54" s="60"/>
-      <c r="G54" s="60"/>
-      <c r="H54" s="60"/>
-      <c r="I54" s="60"/>
-      <c r="J54" s="60"/>
-      <c r="K54" s="60"/>
-      <c r="L54" s="61"/>
+    <row r="54" spans="2:14" ht="18.600000000000001" customHeight="1">
+      <c r="B54" s="48"/>
+      <c r="C54" s="49"/>
+      <c r="D54" s="49"/>
+      <c r="E54" s="49"/>
+      <c r="F54" s="49"/>
+      <c r="G54" s="49"/>
+      <c r="H54" s="49"/>
+      <c r="I54" s="49"/>
+      <c r="J54" s="49"/>
+      <c r="K54" s="49"/>
+      <c r="L54" s="50"/>
       <c r="N54" s="2"/>
     </row>
-    <row r="55" spans="2:14" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B55" s="59"/>
-      <c r="C55" s="60"/>
-      <c r="D55" s="60"/>
-      <c r="E55" s="60"/>
-      <c r="F55" s="60"/>
-      <c r="G55" s="60"/>
-      <c r="H55" s="60"/>
-      <c r="I55" s="60"/>
-      <c r="J55" s="60"/>
-      <c r="K55" s="60"/>
-      <c r="L55" s="61"/>
+    <row r="55" spans="2:14" ht="18.600000000000001" customHeight="1">
+      <c r="B55" s="48"/>
+      <c r="C55" s="49"/>
+      <c r="D55" s="49"/>
+      <c r="E55" s="49"/>
+      <c r="F55" s="49"/>
+      <c r="G55" s="49"/>
+      <c r="H55" s="49"/>
+      <c r="I55" s="49"/>
+      <c r="J55" s="49"/>
+      <c r="K55" s="49"/>
+      <c r="L55" s="50"/>
       <c r="N55" s="2"/>
     </row>
-    <row r="56" spans="2:14" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B56" s="62"/>
-      <c r="C56" s="63"/>
-      <c r="D56" s="63"/>
-      <c r="E56" s="63"/>
-      <c r="F56" s="63"/>
-      <c r="G56" s="63"/>
-      <c r="H56" s="63"/>
-      <c r="I56" s="63"/>
-      <c r="J56" s="63"/>
-      <c r="K56" s="63"/>
-      <c r="L56" s="64"/>
+    <row r="56" spans="2:14" ht="18.600000000000001" customHeight="1">
+      <c r="B56" s="51"/>
+      <c r="C56" s="52"/>
+      <c r="D56" s="52"/>
+      <c r="E56" s="52"/>
+      <c r="F56" s="52"/>
+      <c r="G56" s="52"/>
+      <c r="H56" s="52"/>
+      <c r="I56" s="52"/>
+      <c r="J56" s="52"/>
+      <c r="K56" s="52"/>
+      <c r="L56" s="53"/>
       <c r="N56" s="2"/>
     </row>
-    <row r="57" spans="2:14" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="58" spans="2:14" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="59" spans="2:14" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="57" spans="2:14" s="5" customFormat="1"/>
+    <row r="58" spans="2:14" s="5" customFormat="1"/>
+    <row r="59" spans="2:14" s="5" customFormat="1"/>
   </sheetData>
   <mergeCells count="48">
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="I1:L1"/>
-    <mergeCell ref="E7:E9"/>
-    <mergeCell ref="E3:E6"/>
-    <mergeCell ref="F3:L6"/>
-    <mergeCell ref="F7:L9"/>
+    <mergeCell ref="B22:B29"/>
+    <mergeCell ref="C22:D29"/>
+    <mergeCell ref="E22:E29"/>
+    <mergeCell ref="F22:L23"/>
+    <mergeCell ref="F24:L24"/>
+    <mergeCell ref="F25:L26"/>
+    <mergeCell ref="F27:L27"/>
+    <mergeCell ref="B42:B49"/>
+    <mergeCell ref="C42:D49"/>
+    <mergeCell ref="E42:E49"/>
+    <mergeCell ref="F42:L43"/>
+    <mergeCell ref="F44:L44"/>
+    <mergeCell ref="B33:B40"/>
+    <mergeCell ref="C33:D40"/>
+    <mergeCell ref="E33:E40"/>
+    <mergeCell ref="F33:L34"/>
+    <mergeCell ref="F35:L35"/>
+    <mergeCell ref="F36:L37"/>
+    <mergeCell ref="F38:L38"/>
+    <mergeCell ref="E13:E20"/>
+    <mergeCell ref="C31:L31"/>
+    <mergeCell ref="F41:L41"/>
+    <mergeCell ref="F45:L46"/>
+    <mergeCell ref="F47:L47"/>
+    <mergeCell ref="F21:L21"/>
+    <mergeCell ref="F32:L32"/>
     <mergeCell ref="B51:L51"/>
     <mergeCell ref="B52:L56"/>
     <mergeCell ref="C3:D3"/>
@@ -3985,32 +4075,12 @@
     <mergeCell ref="F15:L15"/>
     <mergeCell ref="F18:L18"/>
     <mergeCell ref="B13:B20"/>
-    <mergeCell ref="E13:E20"/>
-    <mergeCell ref="C31:L31"/>
-    <mergeCell ref="F41:L41"/>
-    <mergeCell ref="F45:L46"/>
-    <mergeCell ref="F47:L47"/>
-    <mergeCell ref="F21:L21"/>
-    <mergeCell ref="F32:L32"/>
-    <mergeCell ref="B33:B40"/>
-    <mergeCell ref="C33:D40"/>
-    <mergeCell ref="E33:E40"/>
-    <mergeCell ref="F33:L34"/>
-    <mergeCell ref="F35:L35"/>
-    <mergeCell ref="F36:L37"/>
-    <mergeCell ref="F38:L38"/>
-    <mergeCell ref="B42:B49"/>
-    <mergeCell ref="C42:D49"/>
-    <mergeCell ref="E42:E49"/>
-    <mergeCell ref="F42:L43"/>
-    <mergeCell ref="F44:L44"/>
-    <mergeCell ref="B22:B29"/>
-    <mergeCell ref="C22:D29"/>
-    <mergeCell ref="E22:E29"/>
-    <mergeCell ref="F22:L23"/>
-    <mergeCell ref="F24:L24"/>
-    <mergeCell ref="F25:L26"/>
-    <mergeCell ref="F27:L27"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="I1:L1"/>
+    <mergeCell ref="E7:E9"/>
+    <mergeCell ref="E3:E6"/>
+    <mergeCell ref="F3:L6"/>
+    <mergeCell ref="F7:L9"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/02 職務経歴書/スキルシート.xlsx
+++ b/02 職務経歴書/スキルシート.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27424"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{74A3D0F0-6C63-4953-AFF7-8F442E76FA78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{342A0F09-4E33-4AE7-B89F-2211880E180A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="21420" yWindow="-16455" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -392,16 +392,13 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t xml:space="preserve">
-大学を卒業し、2社で経験を積んできました。
+    <t>大学を卒業し、2社で経験を積んできました。
 基本設計から開発まで経験しました。
 私は「プログラミング言語でモノづくりがしたい」という志望動機から出発して就職活動を進めてきましたが、前職では主にテスターとして業務に携わり、将来的にシステムエンジニアとしての成長が難しいかもしれないと感じました。
 同時に、自身の障害特性も考慮し、会社側からの理解が得られない中での働き続けることも難しいと感じています。
-このため、最近では事業所でLaravel/PHPの学習に力を入れています。
 御社では、障害がある方々に理解を示し、かつWeb開発事業に関わることができる環境が整っています。
 私は、御社ならば長期的な視点で考え、システムエンジニアとしての成長を実感しながら働くことができるのではないかと考え、志望いたしました。
-御社での経験を通じて、自身のスキルを向上させ、成長していくことを心から楽しみにしております。
-</t>
+御社での経験を通じて、自身のスキルを向上させ、成長していくことを心から楽しみにしております。</t>
   </si>
   <si>
     <t>作成日：</t>
@@ -1072,6 +1069,33 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1152,33 +1176,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1466,10 +1463,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K87"/>
+  <dimension ref="A1:K86"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A63" workbookViewId="0">
-      <selection activeCell="A79" sqref="A79:K87"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A78" workbookViewId="0">
+      <selection activeCell="A80" sqref="A80:XFD80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12"/>
@@ -1488,16 +1485,16 @@
       <c r="B1" s="11"/>
       <c r="C1" s="11"/>
       <c r="D1" s="11"/>
-      <c r="E1" s="36" t="str">
+      <c r="E1" s="45" t="str">
         <f ca="1">"作成日："&amp;TEXT(TODAY(),"yyyy年m月d日")</f>
-        <v>作成日：2024年2月28日</v>
-      </c>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
-      <c r="H1" s="36"/>
-      <c r="I1" s="36"/>
-      <c r="J1" s="36"/>
-      <c r="K1" s="36"/>
+        <v>作成日：2024年2月29日</v>
+      </c>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
+      <c r="H1" s="45"/>
+      <c r="I1" s="45"/>
+      <c r="J1" s="45"/>
+      <c r="K1" s="45"/>
     </row>
     <row r="2" spans="1:11" ht="18.600000000000001" customHeight="1">
       <c r="A2" s="20" t="s">
@@ -1867,7 +1864,7 @@
       </c>
       <c r="B23" s="31"/>
       <c r="C23" s="31"/>
-      <c r="D23" s="35"/>
+      <c r="D23" s="44"/>
       <c r="E23" s="24"/>
       <c r="F23" s="24"/>
       <c r="G23" s="24"/>
@@ -1882,7 +1879,7 @@
       </c>
       <c r="B24" s="31"/>
       <c r="C24" s="31"/>
-      <c r="D24" s="35"/>
+      <c r="D24" s="44"/>
       <c r="E24" s="28" t="s">
         <v>23</v>
       </c>
@@ -1899,7 +1896,7 @@
       </c>
       <c r="B25" s="31"/>
       <c r="C25" s="31"/>
-      <c r="D25" s="35"/>
+      <c r="D25" s="44"/>
       <c r="E25" s="24" t="s">
         <v>38</v>
       </c>
@@ -1914,7 +1911,7 @@
       <c r="A26" s="16"/>
       <c r="B26" s="31"/>
       <c r="C26" s="31"/>
-      <c r="D26" s="35"/>
+      <c r="D26" s="44"/>
       <c r="E26" s="24"/>
       <c r="F26" s="24"/>
       <c r="G26" s="24"/>
@@ -1930,7 +1927,7 @@
       </c>
       <c r="B27" s="31"/>
       <c r="C27" s="31"/>
-      <c r="D27" s="35"/>
+      <c r="D27" s="44"/>
       <c r="E27" s="28" t="s">
         <v>25</v>
       </c>
@@ -1945,7 +1942,7 @@
       <c r="A28" s="16"/>
       <c r="B28" s="31"/>
       <c r="C28" s="31"/>
-      <c r="D28" s="35"/>
+      <c r="D28" s="44"/>
       <c r="E28" s="23" t="s">
         <v>26</v>
       </c>
@@ -1972,7 +1969,7 @@
       <c r="A29" s="17"/>
       <c r="B29" s="31"/>
       <c r="C29" s="31"/>
-      <c r="D29" s="35"/>
+      <c r="D29" s="44"/>
       <c r="E29" s="18"/>
       <c r="F29" s="18"/>
       <c r="G29" s="18"/>
@@ -2035,7 +2032,7 @@
       </c>
       <c r="B32" s="31"/>
       <c r="C32" s="31"/>
-      <c r="D32" s="35"/>
+      <c r="D32" s="44"/>
       <c r="E32" s="24"/>
       <c r="F32" s="24"/>
       <c r="G32" s="24"/>
@@ -2050,7 +2047,7 @@
       </c>
       <c r="B33" s="31"/>
       <c r="C33" s="31"/>
-      <c r="D33" s="35"/>
+      <c r="D33" s="44"/>
       <c r="E33" s="28" t="s">
         <v>23</v>
       </c>
@@ -2067,7 +2064,7 @@
       </c>
       <c r="B34" s="31"/>
       <c r="C34" s="31"/>
-      <c r="D34" s="35"/>
+      <c r="D34" s="44"/>
       <c r="E34" s="24" t="s">
         <v>44</v>
       </c>
@@ -2082,7 +2079,7 @@
       <c r="A35" s="16"/>
       <c r="B35" s="31"/>
       <c r="C35" s="31"/>
-      <c r="D35" s="35"/>
+      <c r="D35" s="44"/>
       <c r="E35" s="24"/>
       <c r="F35" s="24"/>
       <c r="G35" s="24"/>
@@ -2098,7 +2095,7 @@
       </c>
       <c r="B36" s="31"/>
       <c r="C36" s="31"/>
-      <c r="D36" s="35"/>
+      <c r="D36" s="44"/>
       <c r="E36" s="28" t="s">
         <v>25</v>
       </c>
@@ -2113,7 +2110,7 @@
       <c r="A37" s="16"/>
       <c r="B37" s="31"/>
       <c r="C37" s="31"/>
-      <c r="D37" s="35"/>
+      <c r="D37" s="44"/>
       <c r="E37" s="23" t="s">
         <v>26</v>
       </c>
@@ -2140,7 +2137,7 @@
       <c r="A38" s="17"/>
       <c r="B38" s="31"/>
       <c r="C38" s="31"/>
-      <c r="D38" s="35"/>
+      <c r="D38" s="44"/>
       <c r="E38" s="18"/>
       <c r="F38" s="18"/>
       <c r="G38" s="18" t="s">
@@ -2203,7 +2200,7 @@
       </c>
       <c r="B41" s="31"/>
       <c r="C41" s="31"/>
-      <c r="D41" s="35"/>
+      <c r="D41" s="44"/>
       <c r="E41" s="24"/>
       <c r="F41" s="24"/>
       <c r="G41" s="24"/>
@@ -2218,7 +2215,7 @@
       </c>
       <c r="B42" s="31"/>
       <c r="C42" s="31"/>
-      <c r="D42" s="35"/>
+      <c r="D42" s="44"/>
       <c r="E42" s="28" t="s">
         <v>23</v>
       </c>
@@ -2235,7 +2232,7 @@
       </c>
       <c r="B43" s="31"/>
       <c r="C43" s="31"/>
-      <c r="D43" s="35"/>
+      <c r="D43" s="44"/>
       <c r="E43" s="24" t="s">
         <v>48</v>
       </c>
@@ -2250,7 +2247,7 @@
       <c r="A44" s="16"/>
       <c r="B44" s="31"/>
       <c r="C44" s="31"/>
-      <c r="D44" s="35"/>
+      <c r="D44" s="44"/>
       <c r="E44" s="24"/>
       <c r="F44" s="24"/>
       <c r="G44" s="24"/>
@@ -2266,7 +2263,7 @@
       </c>
       <c r="B45" s="31"/>
       <c r="C45" s="31"/>
-      <c r="D45" s="35"/>
+      <c r="D45" s="44"/>
       <c r="E45" s="28" t="s">
         <v>25</v>
       </c>
@@ -2281,7 +2278,7 @@
       <c r="A46" s="16"/>
       <c r="B46" s="31"/>
       <c r="C46" s="31"/>
-      <c r="D46" s="35"/>
+      <c r="D46" s="44"/>
       <c r="E46" s="23" t="s">
         <v>26</v>
       </c>
@@ -2308,7 +2305,7 @@
       <c r="A47" s="17"/>
       <c r="B47" s="31"/>
       <c r="C47" s="31"/>
-      <c r="D47" s="35"/>
+      <c r="D47" s="44"/>
       <c r="E47" s="18"/>
       <c r="F47" s="18" t="s">
         <v>39</v>
@@ -2403,7 +2400,7 @@
       </c>
       <c r="B52" s="31"/>
       <c r="C52" s="31"/>
-      <c r="D52" s="35"/>
+      <c r="D52" s="44"/>
       <c r="E52" s="24"/>
       <c r="F52" s="24"/>
       <c r="G52" s="24"/>
@@ -2418,7 +2415,7 @@
       </c>
       <c r="B53" s="31"/>
       <c r="C53" s="31"/>
-      <c r="D53" s="35"/>
+      <c r="D53" s="44"/>
       <c r="E53" s="28" t="s">
         <v>23</v>
       </c>
@@ -2435,7 +2432,7 @@
       </c>
       <c r="B54" s="31"/>
       <c r="C54" s="31"/>
-      <c r="D54" s="35"/>
+      <c r="D54" s="44"/>
       <c r="E54" s="24" t="s">
         <v>53</v>
       </c>
@@ -2450,7 +2447,7 @@
       <c r="A55" s="16"/>
       <c r="B55" s="31"/>
       <c r="C55" s="31"/>
-      <c r="D55" s="35"/>
+      <c r="D55" s="44"/>
       <c r="E55" s="24"/>
       <c r="F55" s="24"/>
       <c r="G55" s="24"/>
@@ -2466,7 +2463,7 @@
       </c>
       <c r="B56" s="31"/>
       <c r="C56" s="31"/>
-      <c r="D56" s="35"/>
+      <c r="D56" s="44"/>
       <c r="E56" s="28" t="s">
         <v>25</v>
       </c>
@@ -2481,7 +2478,7 @@
       <c r="A57" s="16"/>
       <c r="B57" s="31"/>
       <c r="C57" s="31"/>
-      <c r="D57" s="35"/>
+      <c r="D57" s="44"/>
       <c r="E57" s="23" t="s">
         <v>26</v>
       </c>
@@ -2508,7 +2505,7 @@
       <c r="A58" s="17"/>
       <c r="B58" s="31"/>
       <c r="C58" s="31"/>
-      <c r="D58" s="35"/>
+      <c r="D58" s="44"/>
       <c r="E58" s="18"/>
       <c r="F58" s="18"/>
       <c r="G58" s="18"/>
@@ -2567,7 +2564,7 @@
       </c>
       <c r="B61" s="31"/>
       <c r="C61" s="31"/>
-      <c r="D61" s="35"/>
+      <c r="D61" s="44"/>
       <c r="E61" s="24"/>
       <c r="F61" s="24"/>
       <c r="G61" s="24"/>
@@ -2582,7 +2579,7 @@
       </c>
       <c r="B62" s="31"/>
       <c r="C62" s="31"/>
-      <c r="D62" s="35"/>
+      <c r="D62" s="44"/>
       <c r="E62" s="28" t="s">
         <v>23</v>
       </c>
@@ -2599,7 +2596,7 @@
       </c>
       <c r="B63" s="31"/>
       <c r="C63" s="31"/>
-      <c r="D63" s="35"/>
+      <c r="D63" s="44"/>
       <c r="E63" s="24" t="s">
         <v>38</v>
       </c>
@@ -2614,7 +2611,7 @@
       <c r="A64" s="16"/>
       <c r="B64" s="31"/>
       <c r="C64" s="31"/>
-      <c r="D64" s="35"/>
+      <c r="D64" s="44"/>
       <c r="E64" s="24"/>
       <c r="F64" s="24"/>
       <c r="G64" s="24"/>
@@ -2630,7 +2627,7 @@
       </c>
       <c r="B65" s="31"/>
       <c r="C65" s="31"/>
-      <c r="D65" s="35"/>
+      <c r="D65" s="44"/>
       <c r="E65" s="28" t="s">
         <v>25</v>
       </c>
@@ -2645,7 +2642,7 @@
       <c r="A66" s="16"/>
       <c r="B66" s="31"/>
       <c r="C66" s="31"/>
-      <c r="D66" s="35"/>
+      <c r="D66" s="44"/>
       <c r="E66" s="23" t="s">
         <v>26</v>
       </c>
@@ -2672,7 +2669,7 @@
       <c r="A67" s="17"/>
       <c r="B67" s="31"/>
       <c r="C67" s="31"/>
-      <c r="D67" s="35"/>
+      <c r="D67" s="44"/>
       <c r="E67" s="18"/>
       <c r="F67" s="18"/>
       <c r="G67" s="18"/>
@@ -2729,7 +2726,7 @@
       </c>
       <c r="B70" s="31"/>
       <c r="C70" s="31"/>
-      <c r="D70" s="35"/>
+      <c r="D70" s="44"/>
       <c r="E70" s="24"/>
       <c r="F70" s="24"/>
       <c r="G70" s="24"/>
@@ -2744,7 +2741,7 @@
       </c>
       <c r="B71" s="31"/>
       <c r="C71" s="31"/>
-      <c r="D71" s="35"/>
+      <c r="D71" s="44"/>
       <c r="E71" s="28" t="s">
         <v>23</v>
       </c>
@@ -2761,7 +2758,7 @@
       </c>
       <c r="B72" s="31"/>
       <c r="C72" s="31"/>
-      <c r="D72" s="35"/>
+      <c r="D72" s="44"/>
       <c r="E72" s="24" t="s">
         <v>53</v>
       </c>
@@ -2776,7 +2773,7 @@
       <c r="A73" s="16"/>
       <c r="B73" s="31"/>
       <c r="C73" s="31"/>
-      <c r="D73" s="35"/>
+      <c r="D73" s="44"/>
       <c r="E73" s="24"/>
       <c r="F73" s="24"/>
       <c r="G73" s="24"/>
@@ -2792,7 +2789,7 @@
       </c>
       <c r="B74" s="31"/>
       <c r="C74" s="31"/>
-      <c r="D74" s="35"/>
+      <c r="D74" s="44"/>
       <c r="E74" s="28" t="s">
         <v>25</v>
       </c>
@@ -2807,7 +2804,7 @@
       <c r="A75" s="16"/>
       <c r="B75" s="31"/>
       <c r="C75" s="31"/>
-      <c r="D75" s="35"/>
+      <c r="D75" s="44"/>
       <c r="E75" s="23" t="s">
         <v>26</v>
       </c>
@@ -2834,7 +2831,7 @@
       <c r="A76" s="17"/>
       <c r="B76" s="31"/>
       <c r="C76" s="31"/>
-      <c r="D76" s="35"/>
+      <c r="D76" s="44"/>
       <c r="E76" s="18"/>
       <c r="F76" s="18"/>
       <c r="G76" s="18"/>
@@ -2861,138 +2858,125 @@
       <c r="K77" s="11"/>
     </row>
     <row r="78" spans="1:11" ht="18.600000000000001" customHeight="1">
-      <c r="A78" s="32" t="s">
+      <c r="A78" s="41" t="s">
         <v>61</v>
       </c>
-      <c r="B78" s="33"/>
-      <c r="C78" s="33"/>
-      <c r="D78" s="33"/>
-      <c r="E78" s="33"/>
-      <c r="F78" s="33"/>
-      <c r="G78" s="33"/>
-      <c r="H78" s="33"/>
-      <c r="I78" s="33"/>
-      <c r="J78" s="33"/>
-      <c r="K78" s="34"/>
+      <c r="B78" s="42"/>
+      <c r="C78" s="42"/>
+      <c r="D78" s="42"/>
+      <c r="E78" s="42"/>
+      <c r="F78" s="42"/>
+      <c r="G78" s="42"/>
+      <c r="H78" s="42"/>
+      <c r="I78" s="42"/>
+      <c r="J78" s="42"/>
+      <c r="K78" s="43"/>
     </row>
     <row r="79" spans="1:11" ht="18.600000000000001" customHeight="1">
-      <c r="A79" s="59" t="s">
+      <c r="A79" s="32" t="s">
         <v>62</v>
       </c>
-      <c r="B79" s="60"/>
-      <c r="C79" s="60"/>
-      <c r="D79" s="60"/>
-      <c r="E79" s="60"/>
-      <c r="F79" s="60"/>
-      <c r="G79" s="60"/>
-      <c r="H79" s="60"/>
-      <c r="I79" s="60"/>
-      <c r="J79" s="60"/>
-      <c r="K79" s="61"/>
+      <c r="B79" s="33"/>
+      <c r="C79" s="33"/>
+      <c r="D79" s="33"/>
+      <c r="E79" s="33"/>
+      <c r="F79" s="33"/>
+      <c r="G79" s="33"/>
+      <c r="H79" s="33"/>
+      <c r="I79" s="33"/>
+      <c r="J79" s="33"/>
+      <c r="K79" s="34"/>
     </row>
     <row r="80" spans="1:11" ht="18.600000000000001" customHeight="1">
-      <c r="A80" s="62"/>
-      <c r="B80" s="63"/>
-      <c r="C80" s="63"/>
-      <c r="D80" s="63"/>
-      <c r="E80" s="63"/>
-      <c r="F80" s="63"/>
-      <c r="G80" s="63"/>
-      <c r="H80" s="63"/>
-      <c r="I80" s="63"/>
-      <c r="J80" s="63"/>
-      <c r="K80" s="64"/>
+      <c r="A80" s="35"/>
+      <c r="B80" s="36"/>
+      <c r="C80" s="36"/>
+      <c r="D80" s="36"/>
+      <c r="E80" s="36"/>
+      <c r="F80" s="36"/>
+      <c r="G80" s="36"/>
+      <c r="H80" s="36"/>
+      <c r="I80" s="36"/>
+      <c r="J80" s="36"/>
+      <c r="K80" s="37"/>
     </row>
     <row r="81" spans="1:11" ht="18.600000000000001" customHeight="1">
-      <c r="A81" s="62"/>
-      <c r="B81" s="63"/>
-      <c r="C81" s="63"/>
-      <c r="D81" s="63"/>
-      <c r="E81" s="63"/>
-      <c r="F81" s="63"/>
-      <c r="G81" s="63"/>
-      <c r="H81" s="63"/>
-      <c r="I81" s="63"/>
-      <c r="J81" s="63"/>
-      <c r="K81" s="64"/>
+      <c r="A81" s="35"/>
+      <c r="B81" s="36"/>
+      <c r="C81" s="36"/>
+      <c r="D81" s="36"/>
+      <c r="E81" s="36"/>
+      <c r="F81" s="36"/>
+      <c r="G81" s="36"/>
+      <c r="H81" s="36"/>
+      <c r="I81" s="36"/>
+      <c r="J81" s="36"/>
+      <c r="K81" s="37"/>
     </row>
     <row r="82" spans="1:11" ht="18.600000000000001" customHeight="1">
-      <c r="A82" s="62"/>
-      <c r="B82" s="63"/>
-      <c r="C82" s="63"/>
-      <c r="D82" s="63"/>
-      <c r="E82" s="63"/>
-      <c r="F82" s="63"/>
-      <c r="G82" s="63"/>
-      <c r="H82" s="63"/>
-      <c r="I82" s="63"/>
-      <c r="J82" s="63"/>
-      <c r="K82" s="64"/>
+      <c r="A82" s="35"/>
+      <c r="B82" s="36"/>
+      <c r="C82" s="36"/>
+      <c r="D82" s="36"/>
+      <c r="E82" s="36"/>
+      <c r="F82" s="36"/>
+      <c r="G82" s="36"/>
+      <c r="H82" s="36"/>
+      <c r="I82" s="36"/>
+      <c r="J82" s="36"/>
+      <c r="K82" s="37"/>
     </row>
     <row r="83" spans="1:11" ht="18.600000000000001" customHeight="1">
-      <c r="A83" s="62"/>
-      <c r="B83" s="63"/>
-      <c r="C83" s="63"/>
-      <c r="D83" s="63"/>
-      <c r="E83" s="63"/>
-      <c r="F83" s="63"/>
-      <c r="G83" s="63"/>
-      <c r="H83" s="63"/>
-      <c r="I83" s="63"/>
-      <c r="J83" s="63"/>
-      <c r="K83" s="64"/>
+      <c r="A83" s="35"/>
+      <c r="B83" s="36"/>
+      <c r="C83" s="36"/>
+      <c r="D83" s="36"/>
+      <c r="E83" s="36"/>
+      <c r="F83" s="36"/>
+      <c r="G83" s="36"/>
+      <c r="H83" s="36"/>
+      <c r="I83" s="36"/>
+      <c r="J83" s="36"/>
+      <c r="K83" s="37"/>
     </row>
     <row r="84" spans="1:11" ht="18.600000000000001" customHeight="1">
-      <c r="A84" s="62"/>
-      <c r="B84" s="63"/>
-      <c r="C84" s="63"/>
-      <c r="D84" s="63"/>
-      <c r="E84" s="63"/>
-      <c r="F84" s="63"/>
-      <c r="G84" s="63"/>
-      <c r="H84" s="63"/>
-      <c r="I84" s="63"/>
-      <c r="J84" s="63"/>
-      <c r="K84" s="64"/>
+      <c r="A84" s="35"/>
+      <c r="B84" s="36"/>
+      <c r="C84" s="36"/>
+      <c r="D84" s="36"/>
+      <c r="E84" s="36"/>
+      <c r="F84" s="36"/>
+      <c r="G84" s="36"/>
+      <c r="H84" s="36"/>
+      <c r="I84" s="36"/>
+      <c r="J84" s="36"/>
+      <c r="K84" s="37"/>
     </row>
     <row r="85" spans="1:11" ht="18.600000000000001" customHeight="1">
-      <c r="A85" s="62"/>
-      <c r="B85" s="63"/>
-      <c r="C85" s="63"/>
-      <c r="D85" s="63"/>
-      <c r="E85" s="63"/>
-      <c r="F85" s="63"/>
-      <c r="G85" s="63"/>
-      <c r="H85" s="63"/>
-      <c r="I85" s="63"/>
-      <c r="J85" s="63"/>
-      <c r="K85" s="64"/>
+      <c r="A85" s="35"/>
+      <c r="B85" s="36"/>
+      <c r="C85" s="36"/>
+      <c r="D85" s="36"/>
+      <c r="E85" s="36"/>
+      <c r="F85" s="36"/>
+      <c r="G85" s="36"/>
+      <c r="H85" s="36"/>
+      <c r="I85" s="36"/>
+      <c r="J85" s="36"/>
+      <c r="K85" s="37"/>
     </row>
     <row r="86" spans="1:11" ht="18.600000000000001" customHeight="1">
-      <c r="A86" s="62"/>
-      <c r="B86" s="63"/>
-      <c r="C86" s="63"/>
-      <c r="D86" s="63"/>
-      <c r="E86" s="63"/>
-      <c r="F86" s="63"/>
-      <c r="G86" s="63"/>
-      <c r="H86" s="63"/>
-      <c r="I86" s="63"/>
-      <c r="J86" s="63"/>
-      <c r="K86" s="64"/>
-    </row>
-    <row r="87" spans="1:11" ht="18.600000000000001" customHeight="1">
-      <c r="A87" s="65"/>
-      <c r="B87" s="66"/>
-      <c r="C87" s="66"/>
-      <c r="D87" s="66"/>
-      <c r="E87" s="66"/>
-      <c r="F87" s="66"/>
-      <c r="G87" s="66"/>
-      <c r="H87" s="66"/>
-      <c r="I87" s="66"/>
-      <c r="J87" s="66"/>
-      <c r="K87" s="67"/>
+      <c r="A86" s="38"/>
+      <c r="B86" s="39"/>
+      <c r="C86" s="39"/>
+      <c r="D86" s="39"/>
+      <c r="E86" s="39"/>
+      <c r="F86" s="39"/>
+      <c r="G86" s="39"/>
+      <c r="H86" s="39"/>
+      <c r="I86" s="39"/>
+      <c r="J86" s="39"/>
+      <c r="K86" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="71">
@@ -3032,7 +3016,7 @@
     <mergeCell ref="E42:K42"/>
     <mergeCell ref="E43:K44"/>
     <mergeCell ref="E45:K45"/>
-    <mergeCell ref="A79:K87"/>
+    <mergeCell ref="A79:K86"/>
     <mergeCell ref="A78:K78"/>
     <mergeCell ref="E40:K41"/>
     <mergeCell ref="E21:K21"/>
@@ -3102,15 +3086,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:12" s="5" customFormat="1" ht="18.600000000000001" customHeight="1">
-      <c r="F1" s="37" t="s">
+      <c r="F1" s="46" t="s">
         <v>63</v>
       </c>
-      <c r="G1" s="37"/>
-      <c r="H1" s="37"/>
-      <c r="I1" s="38"/>
-      <c r="J1" s="38"/>
-      <c r="K1" s="38"/>
-      <c r="L1" s="38"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="46"/>
+      <c r="I1" s="47"/>
+      <c r="J1" s="47"/>
+      <c r="K1" s="47"/>
+      <c r="L1" s="47"/>
     </row>
     <row r="2" spans="2:12" s="5" customFormat="1" ht="18.600000000000001" customHeight="1">
       <c r="B2" s="6" t="s">
@@ -3131,82 +3115,82 @@
       <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="54" t="s">
+      <c r="C3" s="63" t="s">
         <v>64</v>
       </c>
-      <c r="D3" s="54"/>
-      <c r="E3" s="39" t="s">
+      <c r="D3" s="63"/>
+      <c r="E3" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="40" t="s">
+      <c r="F3" s="49" t="s">
         <v>65</v>
       </c>
-      <c r="G3" s="40"/>
-      <c r="H3" s="40"/>
-      <c r="I3" s="40"/>
-      <c r="J3" s="40"/>
-      <c r="K3" s="40"/>
-      <c r="L3" s="40"/>
+      <c r="G3" s="49"/>
+      <c r="H3" s="49"/>
+      <c r="I3" s="49"/>
+      <c r="J3" s="49"/>
+      <c r="K3" s="49"/>
+      <c r="L3" s="49"/>
     </row>
     <row r="4" spans="2:12" ht="18.600000000000001" customHeight="1">
       <c r="B4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="54" t="s">
+      <c r="C4" s="63" t="s">
         <v>66</v>
       </c>
-      <c r="D4" s="54"/>
-      <c r="E4" s="39"/>
-      <c r="F4" s="40"/>
-      <c r="G4" s="40"/>
-      <c r="H4" s="40"/>
-      <c r="I4" s="40"/>
-      <c r="J4" s="40"/>
-      <c r="K4" s="40"/>
-      <c r="L4" s="40"/>
+      <c r="D4" s="63"/>
+      <c r="E4" s="48"/>
+      <c r="F4" s="49"/>
+      <c r="G4" s="49"/>
+      <c r="H4" s="49"/>
+      <c r="I4" s="49"/>
+      <c r="J4" s="49"/>
+      <c r="K4" s="49"/>
+      <c r="L4" s="49"/>
     </row>
     <row r="5" spans="2:12" ht="18.600000000000001" customHeight="1">
-      <c r="B5" s="56" t="s">
+      <c r="B5" s="65" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="55" t="s">
+      <c r="C5" s="64" t="s">
         <v>67</v>
       </c>
-      <c r="D5" s="54"/>
-      <c r="E5" s="39"/>
-      <c r="F5" s="40"/>
-      <c r="G5" s="40"/>
-      <c r="H5" s="40"/>
-      <c r="I5" s="40"/>
-      <c r="J5" s="40"/>
-      <c r="K5" s="40"/>
-      <c r="L5" s="40"/>
+      <c r="D5" s="63"/>
+      <c r="E5" s="48"/>
+      <c r="F5" s="49"/>
+      <c r="G5" s="49"/>
+      <c r="H5" s="49"/>
+      <c r="I5" s="49"/>
+      <c r="J5" s="49"/>
+      <c r="K5" s="49"/>
+      <c r="L5" s="49"/>
     </row>
     <row r="6" spans="2:12" ht="18.600000000000001" customHeight="1">
-      <c r="B6" s="56"/>
-      <c r="C6" s="54"/>
-      <c r="D6" s="54"/>
-      <c r="E6" s="39"/>
-      <c r="F6" s="40"/>
-      <c r="G6" s="40"/>
-      <c r="H6" s="40"/>
-      <c r="I6" s="40"/>
-      <c r="J6" s="40"/>
-      <c r="K6" s="40"/>
-      <c r="L6" s="40"/>
+      <c r="B6" s="65"/>
+      <c r="C6" s="63"/>
+      <c r="D6" s="63"/>
+      <c r="E6" s="48"/>
+      <c r="F6" s="49"/>
+      <c r="G6" s="49"/>
+      <c r="H6" s="49"/>
+      <c r="I6" s="49"/>
+      <c r="J6" s="49"/>
+      <c r="K6" s="49"/>
+      <c r="L6" s="49"/>
     </row>
     <row r="7" spans="2:12" ht="18.600000000000001" customHeight="1">
-      <c r="B7" s="39" t="s">
+      <c r="B7" s="48" t="s">
         <v>68</v>
       </c>
-      <c r="C7" s="55" t="s">
+      <c r="C7" s="64" t="s">
         <v>69</v>
       </c>
-      <c r="D7" s="55"/>
-      <c r="E7" s="39" t="s">
+      <c r="D7" s="64"/>
+      <c r="E7" s="48" t="s">
         <v>70</v>
       </c>
-      <c r="F7" s="41" t="s">
+      <c r="F7" s="50" t="s">
         <v>71</v>
       </c>
       <c r="G7" s="69"/>
@@ -3217,10 +3201,10 @@
       <c r="L7" s="69"/>
     </row>
     <row r="8" spans="2:12" ht="18.600000000000001" customHeight="1">
-      <c r="B8" s="39"/>
-      <c r="C8" s="55"/>
-      <c r="D8" s="55"/>
-      <c r="E8" s="39"/>
+      <c r="B8" s="48"/>
+      <c r="C8" s="64"/>
+      <c r="D8" s="64"/>
+      <c r="E8" s="48"/>
       <c r="F8" s="69"/>
       <c r="G8" s="69"/>
       <c r="H8" s="69"/>
@@ -3230,10 +3214,10 @@
       <c r="L8" s="69"/>
     </row>
     <row r="9" spans="2:12" ht="18.600000000000001" customHeight="1">
-      <c r="B9" s="39"/>
-      <c r="C9" s="55"/>
-      <c r="D9" s="55"/>
-      <c r="E9" s="39"/>
+      <c r="B9" s="48"/>
+      <c r="C9" s="64"/>
+      <c r="D9" s="64"/>
+      <c r="E9" s="48"/>
       <c r="F9" s="69"/>
       <c r="G9" s="69"/>
       <c r="H9" s="69"/>
@@ -3247,18 +3231,18 @@
       <c r="B11" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="54" t="s">
+      <c r="C11" s="63" t="s">
         <v>72</v>
       </c>
-      <c r="D11" s="54"/>
-      <c r="E11" s="54"/>
-      <c r="F11" s="54"/>
-      <c r="G11" s="54"/>
-      <c r="H11" s="54"/>
-      <c r="I11" s="54"/>
-      <c r="J11" s="54"/>
-      <c r="K11" s="54"/>
-      <c r="L11" s="54"/>
+      <c r="D11" s="63"/>
+      <c r="E11" s="63"/>
+      <c r="F11" s="63"/>
+      <c r="G11" s="63"/>
+      <c r="H11" s="63"/>
+      <c r="I11" s="63"/>
+      <c r="J11" s="63"/>
+      <c r="K11" s="63"/>
+      <c r="L11" s="63"/>
     </row>
     <row r="12" spans="2:12" ht="18.600000000000001" customHeight="1">
       <c r="B12" s="1" t="s">
@@ -3271,113 +3255,113 @@
       <c r="E12" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F12" s="39" t="s">
+      <c r="F12" s="48" t="s">
         <v>18</v>
       </c>
-      <c r="G12" s="39"/>
-      <c r="H12" s="39"/>
-      <c r="I12" s="39"/>
-      <c r="J12" s="39"/>
-      <c r="K12" s="39"/>
-      <c r="L12" s="39"/>
+      <c r="G12" s="48"/>
+      <c r="H12" s="48"/>
+      <c r="I12" s="48"/>
+      <c r="J12" s="48"/>
+      <c r="K12" s="48"/>
+      <c r="L12" s="48"/>
     </row>
     <row r="13" spans="2:12" ht="18.600000000000001" customHeight="1">
-      <c r="B13" s="57" t="s">
+      <c r="B13" s="66" t="s">
         <v>74</v>
       </c>
-      <c r="C13" s="57" t="s">
+      <c r="C13" s="66" t="s">
         <v>75</v>
       </c>
-      <c r="D13" s="58"/>
-      <c r="E13" s="57" t="s">
+      <c r="D13" s="67"/>
+      <c r="E13" s="66" t="s">
         <v>76</v>
       </c>
-      <c r="F13" s="55" t="s">
+      <c r="F13" s="64" t="s">
         <v>77</v>
       </c>
-      <c r="G13" s="54"/>
-      <c r="H13" s="54"/>
-      <c r="I13" s="54"/>
-      <c r="J13" s="54"/>
-      <c r="K13" s="54"/>
-      <c r="L13" s="54"/>
+      <c r="G13" s="63"/>
+      <c r="H13" s="63"/>
+      <c r="I13" s="63"/>
+      <c r="J13" s="63"/>
+      <c r="K13" s="63"/>
+      <c r="L13" s="63"/>
     </row>
     <row r="14" spans="2:12" ht="18.600000000000001" customHeight="1">
-      <c r="B14" s="58"/>
-      <c r="C14" s="58"/>
-      <c r="D14" s="58"/>
-      <c r="E14" s="58"/>
-      <c r="F14" s="54"/>
-      <c r="G14" s="54"/>
-      <c r="H14" s="54"/>
-      <c r="I14" s="54"/>
-      <c r="J14" s="54"/>
-      <c r="K14" s="54"/>
-      <c r="L14" s="54"/>
+      <c r="B14" s="67"/>
+      <c r="C14" s="67"/>
+      <c r="D14" s="67"/>
+      <c r="E14" s="67"/>
+      <c r="F14" s="63"/>
+      <c r="G14" s="63"/>
+      <c r="H14" s="63"/>
+      <c r="I14" s="63"/>
+      <c r="J14" s="63"/>
+      <c r="K14" s="63"/>
+      <c r="L14" s="63"/>
     </row>
     <row r="15" spans="2:12" ht="18.600000000000001" customHeight="1">
-      <c r="B15" s="58"/>
-      <c r="C15" s="58"/>
-      <c r="D15" s="58"/>
-      <c r="E15" s="58"/>
-      <c r="F15" s="56" t="s">
+      <c r="B15" s="67"/>
+      <c r="C15" s="67"/>
+      <c r="D15" s="67"/>
+      <c r="E15" s="67"/>
+      <c r="F15" s="65" t="s">
         <v>23</v>
       </c>
-      <c r="G15" s="56"/>
-      <c r="H15" s="56"/>
-      <c r="I15" s="56"/>
-      <c r="J15" s="56"/>
-      <c r="K15" s="56"/>
-      <c r="L15" s="56"/>
+      <c r="G15" s="65"/>
+      <c r="H15" s="65"/>
+      <c r="I15" s="65"/>
+      <c r="J15" s="65"/>
+      <c r="K15" s="65"/>
+      <c r="L15" s="65"/>
     </row>
     <row r="16" spans="2:12" ht="18.600000000000001" customHeight="1">
-      <c r="B16" s="58"/>
-      <c r="C16" s="58"/>
-      <c r="D16" s="58"/>
-      <c r="E16" s="58"/>
-      <c r="F16" s="54" t="s">
+      <c r="B16" s="67"/>
+      <c r="C16" s="67"/>
+      <c r="D16" s="67"/>
+      <c r="E16" s="67"/>
+      <c r="F16" s="63" t="s">
         <v>78</v>
       </c>
-      <c r="G16" s="54"/>
-      <c r="H16" s="54"/>
-      <c r="I16" s="54"/>
-      <c r="J16" s="54"/>
-      <c r="K16" s="54"/>
-      <c r="L16" s="54"/>
+      <c r="G16" s="63"/>
+      <c r="H16" s="63"/>
+      <c r="I16" s="63"/>
+      <c r="J16" s="63"/>
+      <c r="K16" s="63"/>
+      <c r="L16" s="63"/>
     </row>
     <row r="17" spans="2:12" ht="18.600000000000001" customHeight="1">
-      <c r="B17" s="58"/>
-      <c r="C17" s="58"/>
-      <c r="D17" s="58"/>
-      <c r="E17" s="58"/>
-      <c r="F17" s="54"/>
-      <c r="G17" s="54"/>
-      <c r="H17" s="54"/>
-      <c r="I17" s="54"/>
-      <c r="J17" s="54"/>
-      <c r="K17" s="54"/>
-      <c r="L17" s="54"/>
+      <c r="B17" s="67"/>
+      <c r="C17" s="67"/>
+      <c r="D17" s="67"/>
+      <c r="E17" s="67"/>
+      <c r="F17" s="63"/>
+      <c r="G17" s="63"/>
+      <c r="H17" s="63"/>
+      <c r="I17" s="63"/>
+      <c r="J17" s="63"/>
+      <c r="K17" s="63"/>
+      <c r="L17" s="63"/>
     </row>
     <row r="18" spans="2:12" ht="18.600000000000001" customHeight="1">
-      <c r="B18" s="58"/>
-      <c r="C18" s="58"/>
-      <c r="D18" s="58"/>
-      <c r="E18" s="58"/>
-      <c r="F18" s="56" t="s">
+      <c r="B18" s="67"/>
+      <c r="C18" s="67"/>
+      <c r="D18" s="67"/>
+      <c r="E18" s="67"/>
+      <c r="F18" s="65" t="s">
         <v>25</v>
       </c>
-      <c r="G18" s="56"/>
-      <c r="H18" s="56"/>
-      <c r="I18" s="56"/>
-      <c r="J18" s="56"/>
-      <c r="K18" s="56"/>
-      <c r="L18" s="56"/>
+      <c r="G18" s="65"/>
+      <c r="H18" s="65"/>
+      <c r="I18" s="65"/>
+      <c r="J18" s="65"/>
+      <c r="K18" s="65"/>
+      <c r="L18" s="65"/>
     </row>
     <row r="19" spans="2:12" ht="23.1" customHeight="1">
-      <c r="B19" s="58"/>
-      <c r="C19" s="58"/>
-      <c r="D19" s="58"/>
-      <c r="E19" s="58"/>
+      <c r="B19" s="67"/>
+      <c r="C19" s="67"/>
+      <c r="D19" s="67"/>
+      <c r="E19" s="67"/>
       <c r="F19" s="4" t="s">
         <v>26</v>
       </c>
@@ -3401,10 +3385,10 @@
       </c>
     </row>
     <row r="20" spans="2:12" ht="18.600000000000001" customHeight="1">
-      <c r="B20" s="58"/>
-      <c r="C20" s="58"/>
-      <c r="D20" s="58"/>
-      <c r="E20" s="58"/>
+      <c r="B20" s="67"/>
+      <c r="C20" s="67"/>
+      <c r="D20" s="67"/>
+      <c r="E20" s="67"/>
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
       <c r="H20" s="3" t="s">
@@ -3430,113 +3414,113 @@
       <c r="E21" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F21" s="39" t="s">
+      <c r="F21" s="48" t="s">
         <v>18</v>
       </c>
-      <c r="G21" s="39"/>
-      <c r="H21" s="39"/>
-      <c r="I21" s="39"/>
-      <c r="J21" s="39"/>
-      <c r="K21" s="39"/>
-      <c r="L21" s="39"/>
+      <c r="G21" s="48"/>
+      <c r="H21" s="48"/>
+      <c r="I21" s="48"/>
+      <c r="J21" s="48"/>
+      <c r="K21" s="48"/>
+      <c r="L21" s="48"/>
     </row>
     <row r="22" spans="2:12" ht="18.600000000000001" customHeight="1">
-      <c r="B22" s="57" t="s">
+      <c r="B22" s="66" t="s">
         <v>74</v>
       </c>
-      <c r="C22" s="57" t="s">
+      <c r="C22" s="66" t="s">
         <v>81</v>
       </c>
-      <c r="D22" s="58"/>
-      <c r="E22" s="57" t="s">
+      <c r="D22" s="67"/>
+      <c r="E22" s="66" t="s">
         <v>82</v>
       </c>
-      <c r="F22" s="55" t="s">
+      <c r="F22" s="64" t="s">
         <v>83</v>
       </c>
-      <c r="G22" s="54"/>
-      <c r="H22" s="54"/>
-      <c r="I22" s="54"/>
-      <c r="J22" s="54"/>
-      <c r="K22" s="54"/>
-      <c r="L22" s="54"/>
+      <c r="G22" s="63"/>
+      <c r="H22" s="63"/>
+      <c r="I22" s="63"/>
+      <c r="J22" s="63"/>
+      <c r="K22" s="63"/>
+      <c r="L22" s="63"/>
     </row>
     <row r="23" spans="2:12" ht="18.600000000000001" customHeight="1">
-      <c r="B23" s="58"/>
-      <c r="C23" s="58"/>
-      <c r="D23" s="58"/>
-      <c r="E23" s="58"/>
-      <c r="F23" s="54"/>
-      <c r="G23" s="54"/>
-      <c r="H23" s="54"/>
-      <c r="I23" s="54"/>
-      <c r="J23" s="54"/>
-      <c r="K23" s="54"/>
-      <c r="L23" s="54"/>
+      <c r="B23" s="67"/>
+      <c r="C23" s="67"/>
+      <c r="D23" s="67"/>
+      <c r="E23" s="67"/>
+      <c r="F23" s="63"/>
+      <c r="G23" s="63"/>
+      <c r="H23" s="63"/>
+      <c r="I23" s="63"/>
+      <c r="J23" s="63"/>
+      <c r="K23" s="63"/>
+      <c r="L23" s="63"/>
     </row>
     <row r="24" spans="2:12" ht="18.600000000000001" customHeight="1">
-      <c r="B24" s="58"/>
-      <c r="C24" s="58"/>
-      <c r="D24" s="58"/>
-      <c r="E24" s="58"/>
-      <c r="F24" s="56" t="s">
+      <c r="B24" s="67"/>
+      <c r="C24" s="67"/>
+      <c r="D24" s="67"/>
+      <c r="E24" s="67"/>
+      <c r="F24" s="65" t="s">
         <v>23</v>
       </c>
-      <c r="G24" s="56"/>
-      <c r="H24" s="56"/>
-      <c r="I24" s="56"/>
-      <c r="J24" s="56"/>
-      <c r="K24" s="56"/>
-      <c r="L24" s="56"/>
+      <c r="G24" s="65"/>
+      <c r="H24" s="65"/>
+      <c r="I24" s="65"/>
+      <c r="J24" s="65"/>
+      <c r="K24" s="65"/>
+      <c r="L24" s="65"/>
     </row>
     <row r="25" spans="2:12" ht="18.600000000000001" customHeight="1">
-      <c r="B25" s="58"/>
-      <c r="C25" s="58"/>
-      <c r="D25" s="58"/>
-      <c r="E25" s="58"/>
-      <c r="F25" s="54" t="s">
+      <c r="B25" s="67"/>
+      <c r="C25" s="67"/>
+      <c r="D25" s="67"/>
+      <c r="E25" s="67"/>
+      <c r="F25" s="63" t="s">
         <v>84</v>
       </c>
-      <c r="G25" s="54"/>
-      <c r="H25" s="54"/>
-      <c r="I25" s="54"/>
-      <c r="J25" s="54"/>
-      <c r="K25" s="54"/>
-      <c r="L25" s="54"/>
+      <c r="G25" s="63"/>
+      <c r="H25" s="63"/>
+      <c r="I25" s="63"/>
+      <c r="J25" s="63"/>
+      <c r="K25" s="63"/>
+      <c r="L25" s="63"/>
     </row>
     <row r="26" spans="2:12" ht="18.600000000000001" customHeight="1">
-      <c r="B26" s="58"/>
-      <c r="C26" s="58"/>
-      <c r="D26" s="58"/>
-      <c r="E26" s="58"/>
-      <c r="F26" s="54"/>
-      <c r="G26" s="54"/>
-      <c r="H26" s="54"/>
-      <c r="I26" s="54"/>
-      <c r="J26" s="54"/>
-      <c r="K26" s="54"/>
-      <c r="L26" s="54"/>
+      <c r="B26" s="67"/>
+      <c r="C26" s="67"/>
+      <c r="D26" s="67"/>
+      <c r="E26" s="67"/>
+      <c r="F26" s="63"/>
+      <c r="G26" s="63"/>
+      <c r="H26" s="63"/>
+      <c r="I26" s="63"/>
+      <c r="J26" s="63"/>
+      <c r="K26" s="63"/>
+      <c r="L26" s="63"/>
     </row>
     <row r="27" spans="2:12" ht="18.600000000000001" customHeight="1">
-      <c r="B27" s="58"/>
-      <c r="C27" s="58"/>
-      <c r="D27" s="58"/>
-      <c r="E27" s="58"/>
-      <c r="F27" s="56" t="s">
+      <c r="B27" s="67"/>
+      <c r="C27" s="67"/>
+      <c r="D27" s="67"/>
+      <c r="E27" s="67"/>
+      <c r="F27" s="65" t="s">
         <v>25</v>
       </c>
-      <c r="G27" s="56"/>
-      <c r="H27" s="56"/>
-      <c r="I27" s="56"/>
-      <c r="J27" s="56"/>
-      <c r="K27" s="56"/>
-      <c r="L27" s="56"/>
+      <c r="G27" s="65"/>
+      <c r="H27" s="65"/>
+      <c r="I27" s="65"/>
+      <c r="J27" s="65"/>
+      <c r="K27" s="65"/>
+      <c r="L27" s="65"/>
     </row>
     <row r="28" spans="2:12" ht="23.1" customHeight="1">
-      <c r="B28" s="58"/>
-      <c r="C28" s="58"/>
-      <c r="D28" s="58"/>
-      <c r="E28" s="58"/>
+      <c r="B28" s="67"/>
+      <c r="C28" s="67"/>
+      <c r="D28" s="67"/>
+      <c r="E28" s="67"/>
       <c r="F28" s="4" t="s">
         <v>26</v>
       </c>
@@ -3560,10 +3544,10 @@
       </c>
     </row>
     <row r="29" spans="2:12" ht="18.600000000000001" customHeight="1">
-      <c r="B29" s="58"/>
-      <c r="C29" s="58"/>
-      <c r="D29" s="58"/>
-      <c r="E29" s="58"/>
+      <c r="B29" s="67"/>
+      <c r="C29" s="67"/>
+      <c r="D29" s="67"/>
+      <c r="E29" s="67"/>
       <c r="F29" s="3"/>
       <c r="G29" s="3"/>
       <c r="H29" s="3" t="s">
@@ -3585,18 +3569,18 @@
       <c r="B31" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C31" s="54" t="s">
+      <c r="C31" s="63" t="s">
         <v>85</v>
       </c>
-      <c r="D31" s="54"/>
-      <c r="E31" s="54"/>
-      <c r="F31" s="54"/>
-      <c r="G31" s="54"/>
-      <c r="H31" s="54"/>
-      <c r="I31" s="54"/>
-      <c r="J31" s="54"/>
-      <c r="K31" s="54"/>
-      <c r="L31" s="54"/>
+      <c r="D31" s="63"/>
+      <c r="E31" s="63"/>
+      <c r="F31" s="63"/>
+      <c r="G31" s="63"/>
+      <c r="H31" s="63"/>
+      <c r="I31" s="63"/>
+      <c r="J31" s="63"/>
+      <c r="K31" s="63"/>
+      <c r="L31" s="63"/>
     </row>
     <row r="32" spans="2:12" ht="18.600000000000001" customHeight="1">
       <c r="B32" s="1" t="s">
@@ -3609,113 +3593,113 @@
       <c r="E32" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F32" s="39" t="s">
+      <c r="F32" s="48" t="s">
         <v>18</v>
       </c>
-      <c r="G32" s="39"/>
-      <c r="H32" s="39"/>
-      <c r="I32" s="39"/>
-      <c r="J32" s="39"/>
-      <c r="K32" s="39"/>
-      <c r="L32" s="39"/>
+      <c r="G32" s="48"/>
+      <c r="H32" s="48"/>
+      <c r="I32" s="48"/>
+      <c r="J32" s="48"/>
+      <c r="K32" s="48"/>
+      <c r="L32" s="48"/>
     </row>
     <row r="33" spans="2:12" ht="18.600000000000001" customHeight="1">
-      <c r="B33" s="57" t="s">
+      <c r="B33" s="66" t="s">
         <v>74</v>
       </c>
-      <c r="C33" s="57" t="s">
+      <c r="C33" s="66" t="s">
         <v>87</v>
       </c>
-      <c r="D33" s="58"/>
-      <c r="E33" s="57" t="s">
+      <c r="D33" s="67"/>
+      <c r="E33" s="66" t="s">
         <v>88</v>
       </c>
-      <c r="F33" s="55" t="s">
+      <c r="F33" s="64" t="s">
         <v>83</v>
       </c>
-      <c r="G33" s="54"/>
-      <c r="H33" s="54"/>
-      <c r="I33" s="54"/>
-      <c r="J33" s="54"/>
-      <c r="K33" s="54"/>
-      <c r="L33" s="54"/>
+      <c r="G33" s="63"/>
+      <c r="H33" s="63"/>
+      <c r="I33" s="63"/>
+      <c r="J33" s="63"/>
+      <c r="K33" s="63"/>
+      <c r="L33" s="63"/>
     </row>
     <row r="34" spans="2:12" ht="18.600000000000001" customHeight="1">
-      <c r="B34" s="58"/>
-      <c r="C34" s="58"/>
-      <c r="D34" s="58"/>
-      <c r="E34" s="58"/>
-      <c r="F34" s="54"/>
-      <c r="G34" s="54"/>
-      <c r="H34" s="54"/>
-      <c r="I34" s="54"/>
-      <c r="J34" s="54"/>
-      <c r="K34" s="54"/>
-      <c r="L34" s="54"/>
+      <c r="B34" s="67"/>
+      <c r="C34" s="67"/>
+      <c r="D34" s="67"/>
+      <c r="E34" s="67"/>
+      <c r="F34" s="63"/>
+      <c r="G34" s="63"/>
+      <c r="H34" s="63"/>
+      <c r="I34" s="63"/>
+      <c r="J34" s="63"/>
+      <c r="K34" s="63"/>
+      <c r="L34" s="63"/>
     </row>
     <row r="35" spans="2:12" ht="18.600000000000001" customHeight="1">
-      <c r="B35" s="58"/>
-      <c r="C35" s="58"/>
-      <c r="D35" s="58"/>
-      <c r="E35" s="58"/>
-      <c r="F35" s="56" t="s">
+      <c r="B35" s="67"/>
+      <c r="C35" s="67"/>
+      <c r="D35" s="67"/>
+      <c r="E35" s="67"/>
+      <c r="F35" s="65" t="s">
         <v>23</v>
       </c>
-      <c r="G35" s="56"/>
-      <c r="H35" s="56"/>
-      <c r="I35" s="56"/>
-      <c r="J35" s="56"/>
-      <c r="K35" s="56"/>
-      <c r="L35" s="56"/>
+      <c r="G35" s="65"/>
+      <c r="H35" s="65"/>
+      <c r="I35" s="65"/>
+      <c r="J35" s="65"/>
+      <c r="K35" s="65"/>
+      <c r="L35" s="65"/>
     </row>
     <row r="36" spans="2:12" ht="18.600000000000001" customHeight="1">
-      <c r="B36" s="58"/>
-      <c r="C36" s="58"/>
-      <c r="D36" s="58"/>
-      <c r="E36" s="58"/>
-      <c r="F36" s="54" t="s">
+      <c r="B36" s="67"/>
+      <c r="C36" s="67"/>
+      <c r="D36" s="67"/>
+      <c r="E36" s="67"/>
+      <c r="F36" s="63" t="s">
         <v>89</v>
       </c>
-      <c r="G36" s="54"/>
-      <c r="H36" s="54"/>
-      <c r="I36" s="54"/>
-      <c r="J36" s="54"/>
-      <c r="K36" s="54"/>
-      <c r="L36" s="54"/>
+      <c r="G36" s="63"/>
+      <c r="H36" s="63"/>
+      <c r="I36" s="63"/>
+      <c r="J36" s="63"/>
+      <c r="K36" s="63"/>
+      <c r="L36" s="63"/>
     </row>
     <row r="37" spans="2:12" ht="18.600000000000001" customHeight="1">
-      <c r="B37" s="58"/>
-      <c r="C37" s="58"/>
-      <c r="D37" s="58"/>
-      <c r="E37" s="58"/>
-      <c r="F37" s="54"/>
-      <c r="G37" s="54"/>
-      <c r="H37" s="54"/>
-      <c r="I37" s="54"/>
-      <c r="J37" s="54"/>
-      <c r="K37" s="54"/>
-      <c r="L37" s="54"/>
+      <c r="B37" s="67"/>
+      <c r="C37" s="67"/>
+      <c r="D37" s="67"/>
+      <c r="E37" s="67"/>
+      <c r="F37" s="63"/>
+      <c r="G37" s="63"/>
+      <c r="H37" s="63"/>
+      <c r="I37" s="63"/>
+      <c r="J37" s="63"/>
+      <c r="K37" s="63"/>
+      <c r="L37" s="63"/>
     </row>
     <row r="38" spans="2:12" ht="18.600000000000001" customHeight="1">
-      <c r="B38" s="58"/>
-      <c r="C38" s="58"/>
-      <c r="D38" s="58"/>
-      <c r="E38" s="58"/>
-      <c r="F38" s="56" t="s">
+      <c r="B38" s="67"/>
+      <c r="C38" s="67"/>
+      <c r="D38" s="67"/>
+      <c r="E38" s="67"/>
+      <c r="F38" s="65" t="s">
         <v>25</v>
       </c>
-      <c r="G38" s="56"/>
-      <c r="H38" s="56"/>
-      <c r="I38" s="56"/>
-      <c r="J38" s="56"/>
-      <c r="K38" s="56"/>
-      <c r="L38" s="56"/>
+      <c r="G38" s="65"/>
+      <c r="H38" s="65"/>
+      <c r="I38" s="65"/>
+      <c r="J38" s="65"/>
+      <c r="K38" s="65"/>
+      <c r="L38" s="65"/>
     </row>
     <row r="39" spans="2:12" ht="23.1" customHeight="1">
-      <c r="B39" s="58"/>
-      <c r="C39" s="58"/>
-      <c r="D39" s="58"/>
-      <c r="E39" s="58"/>
+      <c r="B39" s="67"/>
+      <c r="C39" s="67"/>
+      <c r="D39" s="67"/>
+      <c r="E39" s="67"/>
       <c r="F39" s="4" t="s">
         <v>26</v>
       </c>
@@ -3739,10 +3723,10 @@
       </c>
     </row>
     <row r="40" spans="2:12" ht="18.600000000000001" customHeight="1">
-      <c r="B40" s="58"/>
-      <c r="C40" s="58"/>
-      <c r="D40" s="58"/>
-      <c r="E40" s="58"/>
+      <c r="B40" s="67"/>
+      <c r="C40" s="67"/>
+      <c r="D40" s="67"/>
+      <c r="E40" s="67"/>
       <c r="F40" s="3" t="s">
         <v>79</v>
       </c>
@@ -3776,113 +3760,113 @@
       <c r="E41" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F41" s="39" t="s">
+      <c r="F41" s="48" t="s">
         <v>18</v>
       </c>
-      <c r="G41" s="39"/>
-      <c r="H41" s="39"/>
-      <c r="I41" s="39"/>
-      <c r="J41" s="39"/>
-      <c r="K41" s="39"/>
-      <c r="L41" s="39"/>
+      <c r="G41" s="48"/>
+      <c r="H41" s="48"/>
+      <c r="I41" s="48"/>
+      <c r="J41" s="48"/>
+      <c r="K41" s="48"/>
+      <c r="L41" s="48"/>
     </row>
     <row r="42" spans="2:12" ht="18.600000000000001" customHeight="1">
-      <c r="B42" s="57" t="s">
+      <c r="B42" s="66" t="s">
         <v>91</v>
       </c>
-      <c r="C42" s="57" t="s">
+      <c r="C42" s="66" t="s">
         <v>92</v>
       </c>
-      <c r="D42" s="58"/>
-      <c r="E42" s="57" t="s">
+      <c r="D42" s="67"/>
+      <c r="E42" s="66" t="s">
         <v>93</v>
       </c>
-      <c r="F42" s="54" t="s">
+      <c r="F42" s="63" t="s">
         <v>94</v>
       </c>
-      <c r="G42" s="54"/>
-      <c r="H42" s="54"/>
-      <c r="I42" s="54"/>
-      <c r="J42" s="54"/>
-      <c r="K42" s="54"/>
-      <c r="L42" s="54"/>
+      <c r="G42" s="63"/>
+      <c r="H42" s="63"/>
+      <c r="I42" s="63"/>
+      <c r="J42" s="63"/>
+      <c r="K42" s="63"/>
+      <c r="L42" s="63"/>
     </row>
     <row r="43" spans="2:12" ht="18.600000000000001" customHeight="1">
-      <c r="B43" s="58"/>
-      <c r="C43" s="58"/>
-      <c r="D43" s="58"/>
-      <c r="E43" s="58"/>
-      <c r="F43" s="54"/>
-      <c r="G43" s="54"/>
-      <c r="H43" s="54"/>
-      <c r="I43" s="54"/>
-      <c r="J43" s="54"/>
-      <c r="K43" s="54"/>
-      <c r="L43" s="54"/>
+      <c r="B43" s="67"/>
+      <c r="C43" s="67"/>
+      <c r="D43" s="67"/>
+      <c r="E43" s="67"/>
+      <c r="F43" s="63"/>
+      <c r="G43" s="63"/>
+      <c r="H43" s="63"/>
+      <c r="I43" s="63"/>
+      <c r="J43" s="63"/>
+      <c r="K43" s="63"/>
+      <c r="L43" s="63"/>
     </row>
     <row r="44" spans="2:12" ht="18.600000000000001" customHeight="1">
-      <c r="B44" s="58"/>
-      <c r="C44" s="58"/>
-      <c r="D44" s="58"/>
-      <c r="E44" s="58"/>
-      <c r="F44" s="56" t="s">
+      <c r="B44" s="67"/>
+      <c r="C44" s="67"/>
+      <c r="D44" s="67"/>
+      <c r="E44" s="67"/>
+      <c r="F44" s="65" t="s">
         <v>23</v>
       </c>
-      <c r="G44" s="56"/>
-      <c r="H44" s="56"/>
-      <c r="I44" s="56"/>
-      <c r="J44" s="56"/>
-      <c r="K44" s="56"/>
-      <c r="L44" s="56"/>
+      <c r="G44" s="65"/>
+      <c r="H44" s="65"/>
+      <c r="I44" s="65"/>
+      <c r="J44" s="65"/>
+      <c r="K44" s="65"/>
+      <c r="L44" s="65"/>
     </row>
     <row r="45" spans="2:12" ht="18.600000000000001" customHeight="1">
-      <c r="B45" s="58"/>
-      <c r="C45" s="58"/>
-      <c r="D45" s="58"/>
-      <c r="E45" s="58"/>
-      <c r="F45" s="54" t="s">
+      <c r="B45" s="67"/>
+      <c r="C45" s="67"/>
+      <c r="D45" s="67"/>
+      <c r="E45" s="67"/>
+      <c r="F45" s="63" t="s">
         <v>95</v>
       </c>
-      <c r="G45" s="54"/>
-      <c r="H45" s="54"/>
-      <c r="I45" s="54"/>
-      <c r="J45" s="54"/>
-      <c r="K45" s="54"/>
-      <c r="L45" s="54"/>
+      <c r="G45" s="63"/>
+      <c r="H45" s="63"/>
+      <c r="I45" s="63"/>
+      <c r="J45" s="63"/>
+      <c r="K45" s="63"/>
+      <c r="L45" s="63"/>
     </row>
     <row r="46" spans="2:12" ht="18.600000000000001" customHeight="1">
-      <c r="B46" s="58"/>
-      <c r="C46" s="58"/>
-      <c r="D46" s="58"/>
-      <c r="E46" s="58"/>
-      <c r="F46" s="54"/>
-      <c r="G46" s="54"/>
-      <c r="H46" s="54"/>
-      <c r="I46" s="54"/>
-      <c r="J46" s="54"/>
-      <c r="K46" s="54"/>
-      <c r="L46" s="54"/>
+      <c r="B46" s="67"/>
+      <c r="C46" s="67"/>
+      <c r="D46" s="67"/>
+      <c r="E46" s="67"/>
+      <c r="F46" s="63"/>
+      <c r="G46" s="63"/>
+      <c r="H46" s="63"/>
+      <c r="I46" s="63"/>
+      <c r="J46" s="63"/>
+      <c r="K46" s="63"/>
+      <c r="L46" s="63"/>
     </row>
     <row r="47" spans="2:12" ht="18.600000000000001" customHeight="1">
-      <c r="B47" s="58"/>
-      <c r="C47" s="58"/>
-      <c r="D47" s="58"/>
-      <c r="E47" s="58"/>
-      <c r="F47" s="56" t="s">
+      <c r="B47" s="67"/>
+      <c r="C47" s="67"/>
+      <c r="D47" s="67"/>
+      <c r="E47" s="67"/>
+      <c r="F47" s="65" t="s">
         <v>25</v>
       </c>
-      <c r="G47" s="56"/>
-      <c r="H47" s="56"/>
-      <c r="I47" s="56"/>
-      <c r="J47" s="56"/>
-      <c r="K47" s="56"/>
-      <c r="L47" s="56"/>
+      <c r="G47" s="65"/>
+      <c r="H47" s="65"/>
+      <c r="I47" s="65"/>
+      <c r="J47" s="65"/>
+      <c r="K47" s="65"/>
+      <c r="L47" s="65"/>
     </row>
     <row r="48" spans="2:12" ht="23.1" customHeight="1">
-      <c r="B48" s="58"/>
-      <c r="C48" s="58"/>
-      <c r="D48" s="58"/>
-      <c r="E48" s="58"/>
+      <c r="B48" s="67"/>
+      <c r="C48" s="67"/>
+      <c r="D48" s="67"/>
+      <c r="E48" s="67"/>
       <c r="F48" s="4" t="s">
         <v>26</v>
       </c>
@@ -3906,10 +3890,10 @@
       </c>
     </row>
     <row r="49" spans="2:14" ht="18.600000000000001" customHeight="1">
-      <c r="B49" s="58"/>
-      <c r="C49" s="58"/>
-      <c r="D49" s="58"/>
-      <c r="E49" s="58"/>
+      <c r="B49" s="67"/>
+      <c r="C49" s="67"/>
+      <c r="D49" s="67"/>
+      <c r="E49" s="67"/>
       <c r="F49" s="3" t="s">
         <v>79</v>
       </c>
@@ -3941,91 +3925,91 @@
       <c r="N50" s="2"/>
     </row>
     <row r="51" spans="2:14" ht="18.600000000000001" customHeight="1">
-      <c r="B51" s="42" t="s">
+      <c r="B51" s="51" t="s">
         <v>61</v>
       </c>
-      <c r="C51" s="43"/>
-      <c r="D51" s="43"/>
-      <c r="E51" s="43"/>
-      <c r="F51" s="43"/>
-      <c r="G51" s="43"/>
-      <c r="H51" s="43"/>
-      <c r="I51" s="43"/>
-      <c r="J51" s="43"/>
-      <c r="K51" s="43"/>
-      <c r="L51" s="44"/>
+      <c r="C51" s="52"/>
+      <c r="D51" s="52"/>
+      <c r="E51" s="52"/>
+      <c r="F51" s="52"/>
+      <c r="G51" s="52"/>
+      <c r="H51" s="52"/>
+      <c r="I51" s="52"/>
+      <c r="J51" s="52"/>
+      <c r="K51" s="52"/>
+      <c r="L51" s="53"/>
       <c r="N51" s="2"/>
     </row>
     <row r="52" spans="2:14" ht="18.600000000000001" customHeight="1">
-      <c r="B52" s="45" t="s">
+      <c r="B52" s="54" t="s">
         <v>96</v>
       </c>
-      <c r="C52" s="46"/>
-      <c r="D52" s="46"/>
-      <c r="E52" s="46"/>
-      <c r="F52" s="46"/>
-      <c r="G52" s="46"/>
-      <c r="H52" s="46"/>
-      <c r="I52" s="46"/>
-      <c r="J52" s="46"/>
-      <c r="K52" s="46"/>
-      <c r="L52" s="47"/>
+      <c r="C52" s="55"/>
+      <c r="D52" s="55"/>
+      <c r="E52" s="55"/>
+      <c r="F52" s="55"/>
+      <c r="G52" s="55"/>
+      <c r="H52" s="55"/>
+      <c r="I52" s="55"/>
+      <c r="J52" s="55"/>
+      <c r="K52" s="55"/>
+      <c r="L52" s="56"/>
       <c r="N52" s="2"/>
     </row>
     <row r="53" spans="2:14" ht="18.600000000000001" customHeight="1">
-      <c r="B53" s="48"/>
-      <c r="C53" s="49"/>
-      <c r="D53" s="49"/>
-      <c r="E53" s="49"/>
-      <c r="F53" s="49"/>
-      <c r="G53" s="49"/>
-      <c r="H53" s="49"/>
-      <c r="I53" s="49"/>
-      <c r="J53" s="49"/>
-      <c r="K53" s="49"/>
-      <c r="L53" s="50"/>
+      <c r="B53" s="57"/>
+      <c r="C53" s="58"/>
+      <c r="D53" s="58"/>
+      <c r="E53" s="58"/>
+      <c r="F53" s="58"/>
+      <c r="G53" s="58"/>
+      <c r="H53" s="58"/>
+      <c r="I53" s="58"/>
+      <c r="J53" s="58"/>
+      <c r="K53" s="58"/>
+      <c r="L53" s="59"/>
       <c r="N53" s="2"/>
     </row>
     <row r="54" spans="2:14" ht="18.600000000000001" customHeight="1">
-      <c r="B54" s="48"/>
-      <c r="C54" s="49"/>
-      <c r="D54" s="49"/>
-      <c r="E54" s="49"/>
-      <c r="F54" s="49"/>
-      <c r="G54" s="49"/>
-      <c r="H54" s="49"/>
-      <c r="I54" s="49"/>
-      <c r="J54" s="49"/>
-      <c r="K54" s="49"/>
-      <c r="L54" s="50"/>
+      <c r="B54" s="57"/>
+      <c r="C54" s="58"/>
+      <c r="D54" s="58"/>
+      <c r="E54" s="58"/>
+      <c r="F54" s="58"/>
+      <c r="G54" s="58"/>
+      <c r="H54" s="58"/>
+      <c r="I54" s="58"/>
+      <c r="J54" s="58"/>
+      <c r="K54" s="58"/>
+      <c r="L54" s="59"/>
       <c r="N54" s="2"/>
     </row>
     <row r="55" spans="2:14" ht="18.600000000000001" customHeight="1">
-      <c r="B55" s="48"/>
-      <c r="C55" s="49"/>
-      <c r="D55" s="49"/>
-      <c r="E55" s="49"/>
-      <c r="F55" s="49"/>
-      <c r="G55" s="49"/>
-      <c r="H55" s="49"/>
-      <c r="I55" s="49"/>
-      <c r="J55" s="49"/>
-      <c r="K55" s="49"/>
-      <c r="L55" s="50"/>
+      <c r="B55" s="57"/>
+      <c r="C55" s="58"/>
+      <c r="D55" s="58"/>
+      <c r="E55" s="58"/>
+      <c r="F55" s="58"/>
+      <c r="G55" s="58"/>
+      <c r="H55" s="58"/>
+      <c r="I55" s="58"/>
+      <c r="J55" s="58"/>
+      <c r="K55" s="58"/>
+      <c r="L55" s="59"/>
       <c r="N55" s="2"/>
     </row>
     <row r="56" spans="2:14" ht="18.600000000000001" customHeight="1">
-      <c r="B56" s="51"/>
-      <c r="C56" s="52"/>
-      <c r="D56" s="52"/>
-      <c r="E56" s="52"/>
-      <c r="F56" s="52"/>
-      <c r="G56" s="52"/>
-      <c r="H56" s="52"/>
-      <c r="I56" s="52"/>
-      <c r="J56" s="52"/>
-      <c r="K56" s="52"/>
-      <c r="L56" s="53"/>
+      <c r="B56" s="60"/>
+      <c r="C56" s="61"/>
+      <c r="D56" s="61"/>
+      <c r="E56" s="61"/>
+      <c r="F56" s="61"/>
+      <c r="G56" s="61"/>
+      <c r="H56" s="61"/>
+      <c r="I56" s="61"/>
+      <c r="J56" s="61"/>
+      <c r="K56" s="61"/>
+      <c r="L56" s="62"/>
       <c r="N56" s="2"/>
     </row>
     <row r="57" spans="2:14" s="5" customFormat="1"/>
